--- a/ErgoLux/localization/Portuguese (pt-BR) translation.xlsx
+++ b/ErgoLux/localization/Portuguese (pt-BR) translation.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\ErgoLux\ErgoLux\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14B91E14-CB26-4727-848D-AF3BDFC3DB69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7AB1AB9-84B5-426A-A94F-177A15332539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{51C6AD1F-7C4A-41E1-BFD1-D5AAE4E918C7}"/>
   </bookViews>
   <sheets>
-    <sheet name="pt-PT" sheetId="2" r:id="rId1"/>
+    <sheet name="pt-BR" sheetId="2" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1230,7 +1230,7 @@
     <t>milliseconds, millisecond, milliseconds</t>
   </si>
   <si>
-    <t>Portuguese (pt-PT)</t>
+    <t>Portuguese (pt-BR)</t>
   </si>
 </sst>
 </file>
@@ -1330,7 +1330,7 @@
     <tableColumn id="1" xr3:uid="{15B209E7-880B-40F3-8D04-E1E0C18F3997}" name="Key" dataDxfId="3"/>
     <tableColumn id="2" xr3:uid="{1492BE55-1C7C-4C02-9979-85AD6633F924}" name="Comment" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{3A0B826D-ACD0-42A2-BC11-CDF70F40C5E5}" name="English" dataDxfId="1"/>
-    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="Portuguese (pt-PT)" dataDxfId="0"/>
+    <tableColumn id="31" xr3:uid="{482B5252-4A88-4C9D-8D6A-67323FB06C35}" name="Portuguese (pt-BR)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>

--- a/ErgoLux/localization/Portuguese (pt-BR) translation.xlsx
+++ b/ErgoLux/localization/Portuguese (pt-BR) translation.xlsx
@@ -1,17 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\ErgoLux\ErgoLux\localization\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C868183D-CB56-447A-828A-DFC689B7B9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="40" windowWidth="15960" windowHeight="18080"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="pt-BR" sheetId="1" r:id="rId4"/>
+    <sheet name="pt-BR" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="566">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="567">
   <si>
     <t>File</t>
   </si>
@@ -38,9 +47,6 @@
   </si>
   <si>
     <t>Plot.png</t>
-  </si>
-  <si>
-    <t>Projecao.png</t>
   </si>
   <si>
     <t>strFileDlgFilter</t>
@@ -492,9 +498,6 @@
   </si>
   <si>
     <t>Missing column headers (series names).</t>
-  </si>
-  <si>
-    <t>Cabeçalhos das colunas não encontrados (nomes das séries)</t>
   </si>
   <si>
     <t>strFileHeader19</t>
@@ -1366,16 +1369,10 @@
     <t>Illuminance distribution</t>
   </si>
   <si>
-    <t>Distribuição de Iluminância</t>
-  </si>
-  <si>
     <t>strPlotRatiosTitle</t>
   </si>
   <si>
     <t>Illuminance ratios</t>
-  </si>
-  <si>
-    <t>Razões de Iluminância</t>
   </si>
   <si>
     <t>strPlotRatiosXLabel</t>
@@ -1568,9 +1565,6 @@
     <t>T-10A location ID</t>
   </si>
   <si>
-    <t>ID de Localização T-10A</t>
-  </si>
-  <si>
     <t>strStatusTipMax</t>
   </si>
   <si>
@@ -1761,33 +1755,38 @@
   </si>
   <si>
     <t>Linguagem da interface de usuário</t>
+  </si>
+  <si>
+    <t>ID do dispositivo</t>
+  </si>
+  <si>
+    <t>ID de localização T-10A</t>
+  </si>
+  <si>
+    <t>Distribuição de iluminância</t>
+  </si>
+  <si>
+    <t>Razões de iluminância</t>
+  </si>
+  <si>
+    <t>Cabeçalhos das colunas não encontrados (nomes das séries).</t>
+  </si>
+  <si>
+    <t>Projeção.png</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="General"/>
-  </numFmts>
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Calibri"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color indexed="8"/>
-      <name val="Helvetica Neue"/>
-    </font>
-    <font>
-      <sz val="15"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <b val="1"/>
+      <b/>
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
@@ -1999,74 +1998,50 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="21">
-    <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2075,27 +2050,85 @@
   <tableStyles count="0"/>
   <colors>
     <indexedColors>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffff0000"/>
-      <rgbColor rgb="ff00ff00"/>
-      <rgbColor rgb="ff0000ff"/>
-      <rgbColor rgb="ffffff00"/>
-      <rgbColor rgb="ffff00ff"/>
-      <rgbColor rgb="ff00ffff"/>
-      <rgbColor rgb="ff000000"/>
-      <rgbColor rgb="ffffffff"/>
-      <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ff8eaadb"/>
-      <rgbColor rgb="ff4472c4"/>
-      <rgbColor rgb="ffd9e2f3"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFFF0000"/>
+      <rgbColor rgb="FF00FF00"/>
+      <rgbColor rgb="FF0000FF"/>
+      <rgbColor rgb="FFFFFF00"/>
+      <rgbColor rgb="FFFF00FF"/>
+      <rgbColor rgb="FF00FFFF"/>
+      <rgbColor rgb="FF000000"/>
+      <rgbColor rgb="FFFFFFFF"/>
+      <rgbColor rgb="FFAAAAAA"/>
+      <rgbColor rgb="FF8EAADB"/>
+      <rgbColor rgb="FF4472C4"/>
+      <rgbColor rgb="FFD9E2F3"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Tema de Office">
       <a:dk1>
@@ -2297,7 +2330,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2316,7 +2349,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2346,7 +2379,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2372,7 +2405,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2398,7 +2431,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2424,7 +2457,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2450,7 +2483,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2476,7 +2509,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2502,7 +2535,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2528,7 +2561,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2554,7 +2587,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2567,9 +2600,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:spDef>
@@ -2586,7 +2625,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="91439" tIns="45719" rIns="91439" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:noAutofit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2605,7 +2644,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2631,7 +2670,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2657,7 +2696,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2683,7 +2722,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2709,7 +2748,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2735,7 +2774,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2761,7 +2800,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2787,7 +2826,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2813,7 +2852,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2839,7 +2878,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2852,9 +2891,15 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:lnDef>
@@ -2868,7 +2913,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2887,7 +2932,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1100" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2917,7 +2962,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2943,7 +2988,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2969,7 +3014,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -2995,7 +3040,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3021,7 +3066,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3047,7 +3092,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3073,7 +3118,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3099,7 +3144,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3125,7 +3170,7 @@
           <a:buFontTx/>
           <a:buNone/>
           <a:tabLst/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1800" u="none" kumimoji="0" normalizeH="0">
+          <a:defRPr kumimoji="0" sz="1800" b="0" i="0" u="none" strike="noStrike" cap="none" spc="0" normalizeH="0" baseline="0">
             <a:ln>
               <a:noFill/>
             </a:ln>
@@ -3138,60 +3183,67 @@
         </a:lvl9pPr>
       </a:lstStyle>
       <a:style>
-        <a:lnRef idx="0"/>
-        <a:fillRef idx="0"/>
-        <a:effectRef idx="0"/>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
         <a:fontRef idx="none"/>
       </a:style>
     </a:txDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH332"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="15" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.8516" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.3516" style="1" customWidth="1"/>
-    <col min="3" max="3" width="25.5" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.6719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="67.1719" style="1" customWidth="1"/>
-    <col min="6" max="6" width="67.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="17.8516" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.8516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="17.6719" style="1" customWidth="1"/>
-    <col min="10" max="10" width="10.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="17.6719" style="1" customWidth="1"/>
-    <col min="12" max="12" width="10.8516" style="1" customWidth="1"/>
-    <col min="13" max="13" width="14.6719" style="1" customWidth="1"/>
-    <col min="14" max="14" width="10.8516" style="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1719" style="1" customWidth="1"/>
-    <col min="16" max="16" width="10.8516" style="1" customWidth="1"/>
-    <col min="17" max="17" width="16.8516" style="1" customWidth="1"/>
-    <col min="18" max="18" width="10.8516" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="67.140625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="67.42578125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.85546875" style="1" customWidth="1"/>
+    <col min="9" max="9" width="17.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.85546875" style="1" customWidth="1"/>
+    <col min="11" max="11" width="17.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="10.85546875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="10.85546875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="17.140625" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" style="1" customWidth="1"/>
+    <col min="17" max="17" width="16.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" style="1" customWidth="1"/>
     <col min="19" max="19" width="16" style="1" customWidth="1"/>
-    <col min="20" max="20" width="10.8516" style="1" customWidth="1"/>
-    <col min="21" max="21" width="16.3516" style="1" customWidth="1"/>
-    <col min="22" max="22" width="10.8516" style="1" customWidth="1"/>
-    <col min="23" max="23" width="18.3516" style="1" customWidth="1"/>
-    <col min="24" max="24" width="10.8516" style="1" customWidth="1"/>
+    <col min="20" max="20" width="10.85546875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="16.28515625" style="1" customWidth="1"/>
+    <col min="22" max="22" width="10.85546875" style="1" customWidth="1"/>
+    <col min="23" max="23" width="18.28515625" style="1" customWidth="1"/>
+    <col min="24" max="24" width="10.85546875" style="1" customWidth="1"/>
     <col min="25" max="25" width="17" style="1" customWidth="1"/>
-    <col min="26" max="26" width="10.8516" style="1" customWidth="1"/>
-    <col min="27" max="27" width="17.3516" style="1" customWidth="1"/>
-    <col min="28" max="28" width="10.8516" style="1" customWidth="1"/>
-    <col min="29" max="29" width="17.5" style="1" customWidth="1"/>
-    <col min="30" max="30" width="10.8516" style="1" customWidth="1"/>
-    <col min="31" max="31" width="16.6719" style="1" customWidth="1"/>
-    <col min="32" max="34" width="10.8516" style="1" customWidth="1"/>
-    <col min="35" max="16384" width="10.8516" style="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" style="1" customWidth="1"/>
+    <col min="27" max="27" width="17.28515625" style="1" customWidth="1"/>
+    <col min="28" max="28" width="10.85546875" style="1" customWidth="1"/>
+    <col min="29" max="29" width="17.42578125" style="1" customWidth="1"/>
+    <col min="30" max="30" width="10.85546875" style="1" customWidth="1"/>
+    <col min="31" max="31" width="16.7109375" style="1" customWidth="1"/>
+    <col min="32" max="35" width="10.85546875" style="1" customWidth="1"/>
+    <col min="36" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.55" customHeight="1">
+    <row r="1" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2"/>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3227,21 +3279,21 @@
       <c r="AG1" s="2"/>
       <c r="AH1" s="2"/>
     </row>
-    <row r="2" ht="13.55" customHeight="1">
+    <row r="2" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
-      <c r="B2" t="s" s="5">
+      <c r="B2" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C2" t="s" s="6">
+      <c r="C2" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="D2" t="s" s="6">
+      <c r="D2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="E2" t="s" s="6">
+      <c r="E2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="F2" t="s" s="7">
+      <c r="F2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="G2" s="8"/>
@@ -3273,22 +3325,22 @@
       <c r="AG2" s="2"/>
       <c r="AH2" s="2"/>
     </row>
-    <row r="3" ht="13.55" customHeight="1">
+    <row r="3" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" t="s" s="9">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="10">
+      <c r="C3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="10">
+      <c r="D3" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="10">
+      <c r="E3" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="11">
-        <v>9</v>
+      <c r="F3" s="11" t="s">
+        <v>566</v>
       </c>
       <c r="G3" s="8"/>
       <c r="H3" s="2"/>
@@ -3319,22 +3371,22 @@
       <c r="AG3" s="2"/>
       <c r="AH3" s="2"/>
     </row>
-    <row r="4" ht="30" customHeight="1">
+    <row r="4" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
-      <c r="B4" t="s" s="12">
+      <c r="B4" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C4" t="s" s="13">
+      <c r="C4" s="13" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E4" t="s" s="13">
+      <c r="F4" s="14" t="s">
         <v>11</v>
-      </c>
-      <c r="F4" t="s" s="14">
-        <v>12</v>
       </c>
       <c r="G4" s="8"/>
       <c r="H4" s="2"/>
@@ -3365,22 +3417,22 @@
       <c r="AG4" s="2"/>
       <c r="AH4" s="2"/>
     </row>
-    <row r="5" ht="13.55" customHeight="1">
+    <row r="5" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" t="s" s="9">
+      <c r="B5" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s" s="10">
+      <c r="C5" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D5" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E5" t="s" s="10">
+      <c r="F5" s="11" t="s">
         <v>14</v>
-      </c>
-      <c r="F5" t="s" s="11">
-        <v>15</v>
       </c>
       <c r="G5" s="8"/>
       <c r="H5" s="2"/>
@@ -3411,22 +3463,22 @@
       <c r="AG5" s="2"/>
       <c r="AH5" s="2"/>
     </row>
-    <row r="6" ht="13.55" customHeight="1">
+    <row r="6" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
-      <c r="B6" t="s" s="12">
+      <c r="B6" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C6" t="s" s="13">
+      <c r="C6" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="D6" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E6" t="s" s="13">
+      <c r="F6" s="15" t="s">
         <v>17</v>
-      </c>
-      <c r="F6" t="s" s="15">
-        <v>18</v>
       </c>
       <c r="G6" s="8"/>
       <c r="H6" s="2"/>
@@ -3457,22 +3509,22 @@
       <c r="AG6" s="2"/>
       <c r="AH6" s="2"/>
     </row>
-    <row r="7" ht="13.55" customHeight="1">
+    <row r="7" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
-      <c r="B7" t="s" s="9">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" t="s" s="10">
+      <c r="C7" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="D7" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E7" t="s" s="10">
+      <c r="F7" s="11" t="s">
         <v>20</v>
-      </c>
-      <c r="F7" t="s" s="11">
-        <v>21</v>
       </c>
       <c r="G7" s="8"/>
       <c r="H7" s="2"/>
@@ -3503,22 +3555,22 @@
       <c r="AG7" s="2"/>
       <c r="AH7" s="2"/>
     </row>
-    <row r="8" ht="13.55" customHeight="1">
+    <row r="8" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
-      <c r="B8" t="s" s="12">
+      <c r="B8" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C8" t="s" s="13">
+      <c r="C8" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D8" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E8" t="s" s="13">
+      <c r="F8" s="15" t="s">
         <v>23</v>
-      </c>
-      <c r="F8" t="s" s="15">
-        <v>24</v>
       </c>
       <c r="G8" s="8"/>
       <c r="H8" s="2"/>
@@ -3549,22 +3601,22 @@
       <c r="AG8" s="2"/>
       <c r="AH8" s="2"/>
     </row>
-    <row r="9" ht="13.55" customHeight="1">
+    <row r="9" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
-      <c r="B9" t="s" s="9">
+      <c r="B9" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C9" t="s" s="10">
+      <c r="C9" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="D9" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E9" t="s" s="10">
+      <c r="F9" s="11" t="s">
         <v>26</v>
-      </c>
-      <c r="F9" t="s" s="11">
-        <v>27</v>
       </c>
       <c r="G9" s="8"/>
       <c r="H9" s="2"/>
@@ -3595,22 +3647,22 @@
       <c r="AG9" s="2"/>
       <c r="AH9" s="2"/>
     </row>
-    <row r="10" ht="13.55" customHeight="1">
+    <row r="10" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
-      <c r="B10" t="s" s="12">
+      <c r="B10" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C10" t="s" s="13">
+      <c r="C10" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="D10" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E10" t="s" s="13">
+      <c r="F10" s="15" t="s">
         <v>29</v>
-      </c>
-      <c r="F10" t="s" s="15">
-        <v>30</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="2"/>
@@ -3641,22 +3693,22 @@
       <c r="AG10" s="2"/>
       <c r="AH10" s="2"/>
     </row>
-    <row r="11" ht="13.55" customHeight="1">
+    <row r="11" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
-      <c r="B11" t="s" s="9">
+      <c r="B11" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C11" t="s" s="10">
+      <c r="C11" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="D11" t="s" s="10">
-        <v>7</v>
-      </c>
-      <c r="E11" t="s" s="10">
+      <c r="F11" s="11" t="s">
         <v>32</v>
-      </c>
-      <c r="F11" t="s" s="11">
-        <v>33</v>
       </c>
       <c r="G11" s="8"/>
       <c r="H11" s="2"/>
@@ -3687,22 +3739,22 @@
       <c r="AG11" s="2"/>
       <c r="AH11" s="2"/>
     </row>
-    <row r="12" ht="13.55" customHeight="1">
+    <row r="12" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" t="s" s="12">
+      <c r="B12" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="C12" t="s" s="13">
+      <c r="D12" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="D12" t="s" s="13">
+      <c r="E12" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E12" t="s" s="13">
+      <c r="F12" s="15" t="s">
         <v>37</v>
-      </c>
-      <c r="F12" t="s" s="15">
-        <v>38</v>
       </c>
       <c r="G12" s="8"/>
       <c r="H12" s="2"/>
@@ -3733,22 +3785,22 @@
       <c r="AG12" s="2"/>
       <c r="AH12" s="2"/>
     </row>
-    <row r="13" ht="13.55" customHeight="1">
+    <row r="13" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
-      <c r="B13" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C13" t="s" s="10">
+      <c r="B13" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="D13" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E13" t="s" s="10">
+      <c r="F13" s="11" t="s">
         <v>40</v>
-      </c>
-      <c r="F13" t="s" s="11">
-        <v>41</v>
       </c>
       <c r="G13" s="8"/>
       <c r="H13" s="2"/>
@@ -3779,22 +3831,22 @@
       <c r="AG13" s="2"/>
       <c r="AH13" s="2"/>
     </row>
-    <row r="14" ht="105" customHeight="1">
+    <row r="14" spans="1:34" ht="105" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
-      <c r="B14" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C14" t="s" s="13">
+      <c r="B14" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D14" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s" s="13">
+      <c r="F14" s="14" t="s">
         <v>43</v>
-      </c>
-      <c r="F14" t="s" s="14">
-        <v>44</v>
       </c>
       <c r="G14" s="8"/>
       <c r="H14" s="2"/>
@@ -3825,22 +3877,22 @@
       <c r="AG14" s="2"/>
       <c r="AH14" s="2"/>
     </row>
-    <row r="15" ht="13.55" customHeight="1">
+    <row r="15" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
-      <c r="B15" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C15" t="s" s="10">
+      <c r="B15" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="D15" t="s" s="10">
-        <v>36</v>
-      </c>
-      <c r="E15" t="s" s="10">
+      <c r="F15" s="10" t="s">
         <v>46</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>47</v>
       </c>
       <c r="G15" s="16"/>
       <c r="H15" s="2"/>
@@ -3871,22 +3923,22 @@
       <c r="AG15" s="2"/>
       <c r="AH15" s="2"/>
     </row>
-    <row r="16" ht="13.55" customHeight="1">
+    <row r="16" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
-      <c r="B16" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C16" t="s" s="13">
+      <c r="B16" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="E16" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D16" t="s" s="13">
-        <v>36</v>
-      </c>
-      <c r="E16" t="s" s="13">
+      <c r="F16" s="15" t="s">
         <v>49</v>
-      </c>
-      <c r="F16" t="s" s="15">
-        <v>50</v>
       </c>
       <c r="G16" s="8"/>
       <c r="H16" s="2"/>
@@ -3917,20 +3969,20 @@
       <c r="AG16" s="2"/>
       <c r="AH16" s="2"/>
     </row>
-    <row r="17" ht="13.55" customHeight="1">
+    <row r="17" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
-      <c r="B17" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C17" t="s" s="10">
+      <c r="B17" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>50</v>
+      </c>
+      <c r="D17" s="17"/>
+      <c r="E17" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="D17" s="17"/>
-      <c r="E17" t="s" s="10">
+      <c r="F17" s="10" t="s">
         <v>52</v>
-      </c>
-      <c r="F17" t="s" s="10">
-        <v>53</v>
       </c>
       <c r="G17" s="16"/>
       <c r="H17" s="2"/>
@@ -3961,20 +4013,20 @@
       <c r="AG17" s="2"/>
       <c r="AH17" s="2"/>
     </row>
-    <row r="18" ht="13.55" customHeight="1">
+    <row r="18" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C18" t="s" s="13">
+      <c r="B18" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="D18" s="18"/>
+      <c r="E18" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="D18" s="18"/>
-      <c r="E18" t="s" s="13">
+      <c r="F18" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="F18" t="s" s="14">
-        <v>56</v>
       </c>
       <c r="G18" s="8"/>
       <c r="H18" s="2"/>
@@ -4005,20 +4057,20 @@
       <c r="AG18" s="2"/>
       <c r="AH18" s="2"/>
     </row>
-    <row r="19" ht="13.55" customHeight="1">
+    <row r="19" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s" s="10">
+      <c r="B19" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>56</v>
+      </c>
+      <c r="D19" s="17"/>
+      <c r="E19" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="D19" s="17"/>
-      <c r="E19" t="s" s="10">
+      <c r="F19" s="10" t="s">
         <v>58</v>
-      </c>
-      <c r="F19" t="s" s="10">
-        <v>59</v>
       </c>
       <c r="G19" s="16"/>
       <c r="H19" s="2"/>
@@ -4049,20 +4101,20 @@
       <c r="AG19" s="2"/>
       <c r="AH19" s="2"/>
     </row>
-    <row r="20" ht="13.55" customHeight="1">
+    <row r="20" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C20" t="s" s="13">
+      <c r="B20" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="18"/>
+      <c r="E20" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="D20" s="18"/>
-      <c r="E20" t="s" s="13">
+      <c r="F20" s="14" t="s">
         <v>61</v>
-      </c>
-      <c r="F20" t="s" s="14">
-        <v>62</v>
       </c>
       <c r="G20" s="8"/>
       <c r="H20" s="2"/>
@@ -4093,20 +4145,20 @@
       <c r="AG20" s="2"/>
       <c r="AH20" s="2"/>
     </row>
-    <row r="21" ht="13.55" customHeight="1">
+    <row r="21" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C21" t="s" s="10">
+      <c r="B21" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="D21" s="17"/>
+      <c r="E21" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="D21" s="17"/>
-      <c r="E21" t="s" s="10">
+      <c r="F21" s="10" t="s">
         <v>64</v>
-      </c>
-      <c r="F21" t="s" s="10">
-        <v>65</v>
       </c>
       <c r="G21" s="16"/>
       <c r="H21" s="2"/>
@@ -4137,20 +4189,20 @@
       <c r="AG21" s="2"/>
       <c r="AH21" s="2"/>
     </row>
-    <row r="22" ht="13.55" customHeight="1">
+    <row r="22" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C22" t="s" s="13">
+      <c r="B22" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="13" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" s="18"/>
+      <c r="E22" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="D22" s="18"/>
-      <c r="E22" t="s" s="13">
+      <c r="F22" s="14" t="s">
         <v>67</v>
-      </c>
-      <c r="F22" t="s" s="14">
-        <v>68</v>
       </c>
       <c r="G22" s="8"/>
       <c r="H22" s="2"/>
@@ -4181,20 +4233,20 @@
       <c r="AG22" s="2"/>
       <c r="AH22" s="2"/>
     </row>
-    <row r="23" ht="13.55" customHeight="1">
+    <row r="23" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C23" t="s" s="10">
+      <c r="B23" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="17"/>
+      <c r="E23" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="D23" s="17"/>
-      <c r="E23" t="s" s="10">
+      <c r="F23" s="10" t="s">
         <v>70</v>
-      </c>
-      <c r="F23" t="s" s="10">
-        <v>71</v>
       </c>
       <c r="G23" s="16"/>
       <c r="H23" s="2"/>
@@ -4225,20 +4277,20 @@
       <c r="AG23" s="2"/>
       <c r="AH23" s="2"/>
     </row>
-    <row r="24" ht="13.55" customHeight="1">
+    <row r="24" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C24" t="s" s="13">
+      <c r="B24" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="D24" s="18"/>
+      <c r="E24" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="D24" s="18"/>
-      <c r="E24" t="s" s="13">
+      <c r="F24" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="F24" t="s" s="14">
-        <v>74</v>
       </c>
       <c r="G24" s="8"/>
       <c r="H24" s="2"/>
@@ -4269,20 +4321,20 @@
       <c r="AG24" s="2"/>
       <c r="AH24" s="2"/>
     </row>
-    <row r="25" ht="13.55" customHeight="1">
+    <row r="25" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C25" t="s" s="10">
+      <c r="B25" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D25" s="17"/>
+      <c r="E25" s="10" t="s">
         <v>75</v>
       </c>
-      <c r="D25" s="17"/>
-      <c r="E25" t="s" s="10">
+      <c r="F25" s="10" t="s">
         <v>76</v>
-      </c>
-      <c r="F25" t="s" s="10">
-        <v>77</v>
       </c>
       <c r="G25" s="16"/>
       <c r="H25" s="2"/>
@@ -4313,20 +4365,20 @@
       <c r="AG25" s="2"/>
       <c r="AH25" s="2"/>
     </row>
-    <row r="26" ht="13.55" customHeight="1">
+    <row r="26" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C26" t="s" s="13">
+      <c r="B26" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D26" s="18"/>
+      <c r="E26" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="D26" s="18"/>
-      <c r="E26" t="s" s="13">
+      <c r="F26" s="14" t="s">
         <v>79</v>
-      </c>
-      <c r="F26" t="s" s="14">
-        <v>80</v>
       </c>
       <c r="G26" s="8"/>
       <c r="H26" s="2"/>
@@ -4357,20 +4409,20 @@
       <c r="AG26" s="2"/>
       <c r="AH26" s="2"/>
     </row>
-    <row r="27" ht="13.55" customHeight="1">
+    <row r="27" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C27" t="s" s="10">
+      <c r="B27" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D27" s="17"/>
+      <c r="E27" s="10" t="s">
         <v>81</v>
       </c>
-      <c r="D27" s="17"/>
-      <c r="E27" t="s" s="10">
+      <c r="F27" s="10" t="s">
         <v>82</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>83</v>
       </c>
       <c r="G27" s="16"/>
       <c r="H27" s="2"/>
@@ -4401,20 +4453,20 @@
       <c r="AG27" s="2"/>
       <c r="AH27" s="2"/>
     </row>
-    <row r="28" ht="13.55" customHeight="1">
+    <row r="28" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C28" t="s" s="13">
+      <c r="B28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="D28" s="18"/>
+      <c r="E28" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="D28" s="18"/>
-      <c r="E28" t="s" s="13">
+      <c r="F28" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="F28" t="s" s="14">
-        <v>86</v>
       </c>
       <c r="G28" s="8"/>
       <c r="H28" s="2"/>
@@ -4445,20 +4497,20 @@
       <c r="AG28" s="2"/>
       <c r="AH28" s="2"/>
     </row>
-    <row r="29" ht="13.55" customHeight="1">
+    <row r="29" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4"/>
-      <c r="B29" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C29" t="s" s="10">
+      <c r="B29" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="D29" s="17"/>
+      <c r="E29" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="D29" s="17"/>
-      <c r="E29" t="s" s="10">
+      <c r="F29" s="10" t="s">
         <v>88</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>89</v>
       </c>
       <c r="G29" s="16"/>
       <c r="H29" s="2"/>
@@ -4489,20 +4541,20 @@
       <c r="AG29" s="2"/>
       <c r="AH29" s="2"/>
     </row>
-    <row r="30" ht="13.55" customHeight="1">
+    <row r="30" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C30" t="s" s="13">
+      <c r="B30" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="D30" s="18"/>
+      <c r="E30" s="13" t="s">
         <v>90</v>
       </c>
-      <c r="D30" s="18"/>
-      <c r="E30" t="s" s="13">
+      <c r="F30" s="14" t="s">
         <v>91</v>
-      </c>
-      <c r="F30" t="s" s="14">
-        <v>92</v>
       </c>
       <c r="G30" s="8"/>
       <c r="H30" s="2"/>
@@ -4533,20 +4585,20 @@
       <c r="AG30" s="2"/>
       <c r="AH30" s="2"/>
     </row>
-    <row r="31" ht="13.55" customHeight="1">
+    <row r="31" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C31" t="s" s="10">
+      <c r="B31" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="D31" s="17"/>
+      <c r="E31" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="D31" s="17"/>
-      <c r="E31" t="s" s="10">
+      <c r="F31" s="10" t="s">
         <v>94</v>
-      </c>
-      <c r="F31" t="s" s="10">
-        <v>95</v>
       </c>
       <c r="G31" s="16"/>
       <c r="H31" s="2"/>
@@ -4577,20 +4629,20 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" ht="30" customHeight="1">
+    <row r="32" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C32" t="s" s="13">
+      <c r="B32" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D32" s="18"/>
+      <c r="E32" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="D32" s="18"/>
-      <c r="E32" t="s" s="13">
+      <c r="F32" s="14" t="s">
         <v>97</v>
-      </c>
-      <c r="F32" t="s" s="14">
-        <v>98</v>
       </c>
       <c r="G32" s="8"/>
       <c r="H32" s="2"/>
@@ -4621,20 +4673,20 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" ht="13.55" customHeight="1">
+    <row r="33" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C33" t="s" s="10">
+      <c r="B33" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="D33" s="17"/>
-      <c r="E33" t="s" s="10">
+      <c r="F33" s="10" t="s">
         <v>100</v>
-      </c>
-      <c r="F33" t="s" s="10">
-        <v>101</v>
       </c>
       <c r="G33" s="16"/>
       <c r="H33" s="2"/>
@@ -4665,20 +4717,20 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" ht="75" customHeight="1">
+    <row r="34" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C34" t="s" s="13">
+      <c r="B34" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D34" s="18"/>
+      <c r="E34" s="13" t="s">
         <v>102</v>
       </c>
-      <c r="D34" s="18"/>
-      <c r="E34" t="s" s="13">
+      <c r="F34" s="14" t="s">
         <v>103</v>
-      </c>
-      <c r="F34" t="s" s="14">
-        <v>104</v>
       </c>
       <c r="G34" s="8"/>
       <c r="H34" s="2"/>
@@ -4709,20 +4761,20 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" ht="13.55" customHeight="1">
+    <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C35" t="s" s="10">
+      <c r="B35" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D35" s="17"/>
+      <c r="E35" s="10" t="s">
         <v>105</v>
       </c>
-      <c r="D35" s="17"/>
-      <c r="E35" t="s" s="10">
+      <c r="F35" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="F35" t="s" s="10">
-        <v>107</v>
       </c>
       <c r="G35" s="16"/>
       <c r="H35" s="2"/>
@@ -4753,20 +4805,20 @@
       <c r="AG35" s="2"/>
       <c r="AH35" s="2"/>
     </row>
-    <row r="36" ht="13.55" customHeight="1">
+    <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C36" t="s" s="13">
+      <c r="B36" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D36" s="18"/>
+      <c r="E36" s="13" t="s">
         <v>108</v>
       </c>
-      <c r="D36" s="18"/>
-      <c r="E36" t="s" s="13">
+      <c r="F36" s="14" t="s">
         <v>109</v>
-      </c>
-      <c r="F36" t="s" s="14">
-        <v>110</v>
       </c>
       <c r="G36" s="8"/>
       <c r="H36" s="2"/>
@@ -4797,20 +4849,20 @@
       <c r="AG36" s="2"/>
       <c r="AH36" s="2"/>
     </row>
-    <row r="37" ht="13.55" customHeight="1">
+    <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C37" t="s" s="10">
+      <c r="B37" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D37" s="17"/>
+      <c r="E37" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="D37" s="17"/>
-      <c r="E37" t="s" s="10">
+      <c r="F37" s="10" t="s">
         <v>112</v>
-      </c>
-      <c r="F37" t="s" s="10">
-        <v>113</v>
       </c>
       <c r="G37" s="16"/>
       <c r="H37" s="2"/>
@@ -4841,20 +4893,20 @@
       <c r="AG37" s="2"/>
       <c r="AH37" s="2"/>
     </row>
-    <row r="38" ht="13.55" customHeight="1">
+    <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C38" t="s" s="13">
+      <c r="B38" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D38" s="18"/>
+      <c r="E38" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="D38" s="18"/>
-      <c r="E38" t="s" s="13">
+      <c r="F38" s="14" t="s">
         <v>115</v>
-      </c>
-      <c r="F38" t="s" s="14">
-        <v>116</v>
       </c>
       <c r="G38" s="8"/>
       <c r="H38" s="2"/>
@@ -4885,20 +4937,20 @@
       <c r="AG38" s="2"/>
       <c r="AH38" s="2"/>
     </row>
-    <row r="39" ht="13.55" customHeight="1">
+    <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C39" t="s" s="10">
+      <c r="B39" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="17"/>
+      <c r="E39" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="D39" s="17"/>
-      <c r="E39" t="s" s="10">
+      <c r="F39" s="10" t="s">
         <v>118</v>
-      </c>
-      <c r="F39" t="s" s="10">
-        <v>119</v>
       </c>
       <c r="G39" s="16"/>
       <c r="H39" s="2"/>
@@ -4929,20 +4981,20 @@
       <c r="AG39" s="2"/>
       <c r="AH39" s="2"/>
     </row>
-    <row r="40" ht="13.55" customHeight="1">
+    <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C40" t="s" s="13">
+      <c r="B40" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D40" s="18"/>
+      <c r="E40" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="18"/>
-      <c r="E40" t="s" s="13">
+      <c r="F40" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="F40" t="s" s="14">
-        <v>122</v>
       </c>
       <c r="G40" s="8"/>
       <c r="H40" s="2"/>
@@ -4973,20 +5025,20 @@
       <c r="AG40" s="2"/>
       <c r="AH40" s="2"/>
     </row>
-    <row r="41" ht="13.55" customHeight="1">
+    <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C41" t="s" s="10">
+      <c r="B41" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D41" s="17"/>
+      <c r="E41" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="D41" s="17"/>
-      <c r="E41" t="s" s="10">
+      <c r="F41" s="10" t="s">
         <v>124</v>
-      </c>
-      <c r="F41" t="s" s="10">
-        <v>125</v>
       </c>
       <c r="G41" s="16"/>
       <c r="H41" s="2"/>
@@ -5017,20 +5069,20 @@
       <c r="AG41" s="2"/>
       <c r="AH41" s="2"/>
     </row>
-    <row r="42" ht="13.55" customHeight="1">
+    <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C42" t="s" s="13">
+      <c r="B42" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="18"/>
+      <c r="E42" s="13" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="18"/>
-      <c r="E42" t="s" s="13">
+      <c r="F42" s="14" t="s">
         <v>127</v>
-      </c>
-      <c r="F42" t="s" s="14">
-        <v>128</v>
       </c>
       <c r="G42" s="8"/>
       <c r="H42" s="2"/>
@@ -5061,20 +5113,20 @@
       <c r="AG42" s="2"/>
       <c r="AH42" s="2"/>
     </row>
-    <row r="43" ht="13.55" customHeight="1">
+    <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C43" t="s" s="10">
+      <c r="B43" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D43" s="17"/>
+      <c r="E43" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="D43" s="17"/>
-      <c r="E43" t="s" s="10">
-        <v>130</v>
-      </c>
-      <c r="F43" t="s" s="10">
-        <v>130</v>
+      <c r="F43" s="10" t="s">
+        <v>129</v>
       </c>
       <c r="G43" s="16"/>
       <c r="H43" s="2"/>
@@ -5105,20 +5157,20 @@
       <c r="AG43" s="2"/>
       <c r="AH43" s="2"/>
     </row>
-    <row r="44" ht="13.55" customHeight="1">
+    <row r="44" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C44" t="s" s="13">
+      <c r="B44" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D44" s="18"/>
+      <c r="E44" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="D44" s="18"/>
-      <c r="E44" t="s" s="13">
+      <c r="F44" s="14" t="s">
         <v>132</v>
-      </c>
-      <c r="F44" t="s" s="14">
-        <v>133</v>
       </c>
       <c r="G44" s="8"/>
       <c r="H44" s="2"/>
@@ -5149,20 +5201,20 @@
       <c r="AG44" s="2"/>
       <c r="AH44" s="2"/>
     </row>
-    <row r="45" ht="13.55" customHeight="1">
+    <row r="45" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C45" t="s" s="10">
+      <c r="B45" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D45" s="17"/>
+      <c r="E45" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D45" s="17"/>
-      <c r="E45" t="s" s="10">
+      <c r="F45" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="F45" t="s" s="10">
-        <v>136</v>
       </c>
       <c r="G45" s="16"/>
       <c r="H45" s="2"/>
@@ -5193,20 +5245,20 @@
       <c r="AG45" s="2"/>
       <c r="AH45" s="2"/>
     </row>
-    <row r="46" ht="13.55" customHeight="1">
+    <row r="46" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C46" t="s" s="13">
+      <c r="B46" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D46" s="18"/>
+      <c r="E46" s="13" t="s">
         <v>137</v>
       </c>
-      <c r="D46" s="18"/>
-      <c r="E46" t="s" s="13">
+      <c r="F46" s="14" t="s">
         <v>138</v>
-      </c>
-      <c r="F46" t="s" s="14">
-        <v>139</v>
       </c>
       <c r="G46" s="8"/>
       <c r="H46" s="2"/>
@@ -5237,20 +5289,20 @@
       <c r="AG46" s="2"/>
       <c r="AH46" s="2"/>
     </row>
-    <row r="47" ht="13.55" customHeight="1">
+    <row r="47" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C47" t="s" s="10">
+      <c r="B47" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D47" s="17"/>
+      <c r="E47" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="17"/>
-      <c r="E47" t="s" s="10">
+      <c r="F47" s="10" t="s">
         <v>141</v>
-      </c>
-      <c r="F47" t="s" s="10">
-        <v>142</v>
       </c>
       <c r="G47" s="16"/>
       <c r="H47" s="2"/>
@@ -5281,20 +5333,20 @@
       <c r="AG47" s="2"/>
       <c r="AH47" s="2"/>
     </row>
-    <row r="48" ht="13.55" customHeight="1">
+    <row r="48" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C48" t="s" s="13">
+      <c r="B48" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D48" s="18"/>
+      <c r="E48" s="13" t="s">
         <v>143</v>
       </c>
-      <c r="D48" s="18"/>
-      <c r="E48" t="s" s="13">
-        <v>144</v>
-      </c>
-      <c r="F48" t="s" s="14">
-        <v>144</v>
+      <c r="F48" s="14" t="s">
+        <v>143</v>
       </c>
       <c r="G48" s="8"/>
       <c r="H48" s="2"/>
@@ -5325,20 +5377,20 @@
       <c r="AG48" s="2"/>
       <c r="AH48" s="2"/>
     </row>
-    <row r="49" ht="13.55" customHeight="1">
+    <row r="49" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C49" t="s" s="10">
+      <c r="B49" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" s="17"/>
+      <c r="E49" s="10" t="s">
         <v>145</v>
       </c>
-      <c r="D49" s="17"/>
-      <c r="E49" t="s" s="10">
+      <c r="F49" s="10" t="s">
         <v>146</v>
-      </c>
-      <c r="F49" t="s" s="10">
-        <v>147</v>
       </c>
       <c r="G49" s="16"/>
       <c r="H49" s="2"/>
@@ -5369,20 +5421,20 @@
       <c r="AG49" s="2"/>
       <c r="AH49" s="2"/>
     </row>
-    <row r="50" ht="13.55" customHeight="1">
+    <row r="50" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C50" t="s" s="13">
-        <v>148</v>
+      <c r="B50" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="13" t="s">
+        <v>147</v>
       </c>
       <c r="D50" s="18"/>
-      <c r="E50" t="s" s="13">
+      <c r="E50" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F50" s="14" t="s">
         <v>135</v>
-      </c>
-      <c r="F50" t="s" s="14">
-        <v>136</v>
       </c>
       <c r="G50" s="8"/>
       <c r="H50" s="2"/>
@@ -5413,20 +5465,20 @@
       <c r="AG50" s="2"/>
       <c r="AH50" s="2"/>
     </row>
-    <row r="51" ht="13.55" customHeight="1">
+    <row r="51" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C51" t="s" s="10">
+      <c r="B51" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D51" s="17"/>
+      <c r="E51" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D51" s="17"/>
-      <c r="E51" t="s" s="10">
+      <c r="F51" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F51" t="s" s="10">
-        <v>151</v>
       </c>
       <c r="G51" s="16"/>
       <c r="H51" s="2"/>
@@ -5457,20 +5509,20 @@
       <c r="AG51" s="2"/>
       <c r="AH51" s="2"/>
     </row>
-    <row r="52" ht="13.55" customHeight="1">
+    <row r="52" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C52" t="s" s="13">
+      <c r="B52" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D52" s="18"/>
+      <c r="E52" s="13" t="s">
         <v>152</v>
       </c>
-      <c r="D52" s="18"/>
-      <c r="E52" t="s" s="13">
+      <c r="F52" s="14" t="s">
         <v>153</v>
-      </c>
-      <c r="F52" t="s" s="14">
-        <v>154</v>
       </c>
       <c r="G52" s="8"/>
       <c r="H52" s="2"/>
@@ -5501,20 +5553,20 @@
       <c r="AG52" s="2"/>
       <c r="AH52" s="2"/>
     </row>
-    <row r="53" ht="13.55" customHeight="1">
+    <row r="53" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C53" t="s" s="10">
+      <c r="B53" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D53" s="17"/>
+      <c r="E53" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="D53" s="17"/>
-      <c r="E53" t="s" s="10">
-        <v>156</v>
-      </c>
-      <c r="F53" t="s" s="10">
-        <v>157</v>
+      <c r="F53" s="10" t="s">
+        <v>565</v>
       </c>
       <c r="G53" s="16"/>
       <c r="H53" s="2"/>
@@ -5545,20 +5597,20 @@
       <c r="AG53" s="2"/>
       <c r="AH53" s="2"/>
     </row>
-    <row r="54" ht="13.55" customHeight="1">
+    <row r="54" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C54" t="s" s="13">
+      <c r="B54" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D54" s="18"/>
+      <c r="E54" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F54" s="14" t="s">
         <v>158</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" t="s" s="13">
-        <v>159</v>
-      </c>
-      <c r="F54" t="s" s="14">
-        <v>160</v>
       </c>
       <c r="G54" s="8"/>
       <c r="H54" s="2"/>
@@ -5589,20 +5641,20 @@
       <c r="AG54" s="2"/>
       <c r="AH54" s="2"/>
     </row>
-    <row r="55" ht="13.55" customHeight="1">
+    <row r="55" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C55" t="s" s="10">
+      <c r="B55" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D55" s="17"/>
+      <c r="E55" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F55" s="10" t="s">
         <v>161</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" t="s" s="10">
-        <v>162</v>
-      </c>
-      <c r="F55" t="s" s="10">
-        <v>163</v>
       </c>
       <c r="G55" s="16"/>
       <c r="H55" s="2"/>
@@ -5633,20 +5685,20 @@
       <c r="AG55" s="2"/>
       <c r="AH55" s="2"/>
     </row>
-    <row r="56" ht="13.55" customHeight="1">
+    <row r="56" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C56" t="s" s="13">
+      <c r="B56" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D56" s="18"/>
+      <c r="E56" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F56" s="14" t="s">
         <v>164</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" t="s" s="13">
-        <v>165</v>
-      </c>
-      <c r="F56" t="s" s="14">
-        <v>166</v>
       </c>
       <c r="G56" s="8"/>
       <c r="H56" s="2"/>
@@ -5677,20 +5729,20 @@
       <c r="AG56" s="2"/>
       <c r="AH56" s="2"/>
     </row>
-    <row r="57" ht="13.55" customHeight="1">
+    <row r="57" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C57" t="s" s="10">
+      <c r="B57" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D57" s="17"/>
+      <c r="E57" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F57" s="10" t="s">
         <v>167</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" t="s" s="10">
-        <v>168</v>
-      </c>
-      <c r="F57" t="s" s="10">
-        <v>169</v>
       </c>
       <c r="G57" s="16"/>
       <c r="H57" s="2"/>
@@ -5721,20 +5773,20 @@
       <c r="AG57" s="2"/>
       <c r="AH57" s="2"/>
     </row>
-    <row r="58" ht="13.55" customHeight="1">
+    <row r="58" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C58" t="s" s="13">
+      <c r="B58" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D58" s="18"/>
+      <c r="E58" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F58" s="14" t="s">
         <v>170</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" t="s" s="13">
-        <v>171</v>
-      </c>
-      <c r="F58" t="s" s="14">
-        <v>172</v>
       </c>
       <c r="G58" s="8"/>
       <c r="H58" s="2"/>
@@ -5765,20 +5817,20 @@
       <c r="AG58" s="2"/>
       <c r="AH58" s="2"/>
     </row>
-    <row r="59" ht="13.55" customHeight="1">
+    <row r="59" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C59" t="s" s="10">
+      <c r="B59" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="17"/>
+      <c r="E59" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F59" s="10" t="s">
         <v>173</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" t="s" s="10">
-        <v>174</v>
-      </c>
-      <c r="F59" t="s" s="10">
-        <v>175</v>
       </c>
       <c r="G59" s="16"/>
       <c r="H59" s="2"/>
@@ -5809,20 +5861,20 @@
       <c r="AG59" s="2"/>
       <c r="AH59" s="2"/>
     </row>
-    <row r="60" ht="13.55" customHeight="1">
+    <row r="60" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C60" t="s" s="13">
-        <v>176</v>
+      <c r="B60" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>174</v>
       </c>
       <c r="D60" s="18"/>
-      <c r="E60" t="s" s="13">
-        <v>177</v>
-      </c>
-      <c r="F60" t="s" s="14">
-        <v>177</v>
+      <c r="E60" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F60" s="14" t="s">
+        <v>175</v>
       </c>
       <c r="G60" s="8"/>
       <c r="H60" s="2"/>
@@ -5853,20 +5905,20 @@
       <c r="AG60" s="2"/>
       <c r="AH60" s="2"/>
     </row>
-    <row r="61" ht="13.55" customHeight="1">
+    <row r="61" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C61" t="s" s="10">
+      <c r="B61" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D61" s="17"/>
+      <c r="E61" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F61" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" t="s" s="10">
-        <v>179</v>
-      </c>
-      <c r="F61" t="s" s="10">
-        <v>180</v>
       </c>
       <c r="G61" s="16"/>
       <c r="H61" s="2"/>
@@ -5897,20 +5949,20 @@
       <c r="AG61" s="2"/>
       <c r="AH61" s="2"/>
     </row>
-    <row r="62" ht="13.55" customHeight="1">
+    <row r="62" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C62" t="s" s="13">
-        <v>181</v>
+      <c r="B62" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="13" t="s">
+        <v>179</v>
       </c>
       <c r="D62" s="18"/>
-      <c r="E62" t="s" s="13">
-        <v>182</v>
-      </c>
-      <c r="F62" t="s" s="14">
-        <v>182</v>
+      <c r="E62" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F62" s="14" t="s">
+        <v>180</v>
       </c>
       <c r="G62" s="8"/>
       <c r="H62" s="2"/>
@@ -5941,20 +5993,20 @@
       <c r="AG62" s="2"/>
       <c r="AH62" s="2"/>
     </row>
-    <row r="63" ht="13.55" customHeight="1">
+    <row r="63" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C63" t="s" s="10">
+      <c r="B63" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D63" s="17"/>
+      <c r="E63" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F63" s="10" t="s">
         <v>183</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" t="s" s="10">
-        <v>184</v>
-      </c>
-      <c r="F63" t="s" s="10">
-        <v>185</v>
       </c>
       <c r="G63" s="16"/>
       <c r="H63" s="2"/>
@@ -5985,20 +6037,20 @@
       <c r="AG63" s="2"/>
       <c r="AH63" s="2"/>
     </row>
-    <row r="64" ht="13.55" customHeight="1">
+    <row r="64" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C64" t="s" s="13">
+      <c r="B64" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D64" s="18"/>
+      <c r="E64" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F64" s="14" t="s">
         <v>186</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" t="s" s="13">
-        <v>187</v>
-      </c>
-      <c r="F64" t="s" s="14">
-        <v>188</v>
       </c>
       <c r="G64" s="8"/>
       <c r="H64" s="2"/>
@@ -6029,20 +6081,20 @@
       <c r="AG64" s="2"/>
       <c r="AH64" s="2"/>
     </row>
-    <row r="65" ht="13.55" customHeight="1">
+    <row r="65" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C65" t="s" s="10">
+      <c r="B65" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D65" s="17"/>
+      <c r="E65" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F65" s="10" t="s">
         <v>189</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" t="s" s="10">
-        <v>190</v>
-      </c>
-      <c r="F65" t="s" s="10">
-        <v>191</v>
       </c>
       <c r="G65" s="16"/>
       <c r="H65" s="2"/>
@@ -6073,20 +6125,20 @@
       <c r="AG65" s="2"/>
       <c r="AH65" s="2"/>
     </row>
-    <row r="66" ht="13.55" customHeight="1">
+    <row r="66" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C66" t="s" s="13">
-        <v>192</v>
+      <c r="B66" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="13" t="s">
+        <v>190</v>
       </c>
       <c r="D66" s="18"/>
-      <c r="E66" t="s" s="13">
-        <v>193</v>
-      </c>
-      <c r="F66" t="s" s="14">
-        <v>193</v>
+      <c r="E66" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>191</v>
       </c>
       <c r="G66" s="8"/>
       <c r="H66" s="2"/>
@@ -6117,20 +6169,20 @@
       <c r="AG66" s="2"/>
       <c r="AH66" s="2"/>
     </row>
-    <row r="67" ht="13.55" customHeight="1">
+    <row r="67" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C67" t="s" s="10">
+      <c r="B67" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D67" s="17"/>
+      <c r="E67" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F67" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" t="s" s="10">
-        <v>195</v>
-      </c>
-      <c r="F67" t="s" s="10">
-        <v>196</v>
       </c>
       <c r="G67" s="16"/>
       <c r="H67" s="2"/>
@@ -6161,20 +6213,20 @@
       <c r="AG67" s="2"/>
       <c r="AH67" s="2"/>
     </row>
-    <row r="68" ht="13.55" customHeight="1">
+    <row r="68" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C68" t="s" s="13">
+      <c r="B68" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D68" s="18"/>
+      <c r="E68" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F68" s="14" t="s">
         <v>197</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" t="s" s="13">
-        <v>198</v>
-      </c>
-      <c r="F68" t="s" s="14">
-        <v>199</v>
       </c>
       <c r="G68" s="8"/>
       <c r="H68" s="2"/>
@@ -6205,20 +6257,20 @@
       <c r="AG68" s="2"/>
       <c r="AH68" s="2"/>
     </row>
-    <row r="69" ht="13.55" customHeight="1">
+    <row r="69" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C69" t="s" s="10">
-        <v>200</v>
+      <c r="B69" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>198</v>
       </c>
       <c r="D69" s="17"/>
-      <c r="E69" t="s" s="10">
-        <v>201</v>
-      </c>
-      <c r="F69" t="s" s="10">
-        <v>201</v>
+      <c r="E69" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F69" s="10" t="s">
+        <v>199</v>
       </c>
       <c r="G69" s="16"/>
       <c r="H69" s="2"/>
@@ -6249,20 +6301,20 @@
       <c r="AG69" s="2"/>
       <c r="AH69" s="2"/>
     </row>
-    <row r="70" ht="13.55" customHeight="1">
+    <row r="70" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C70" t="s" s="13">
-        <v>202</v>
+      <c r="B70" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>200</v>
       </c>
       <c r="D70" s="18"/>
-      <c r="E70" t="s" s="13">
-        <v>203</v>
-      </c>
-      <c r="F70" t="s" s="14">
-        <v>203</v>
+      <c r="E70" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>201</v>
       </c>
       <c r="G70" s="8"/>
       <c r="H70" s="2"/>
@@ -6293,20 +6345,20 @@
       <c r="AG70" s="2"/>
       <c r="AH70" s="2"/>
     </row>
-    <row r="71" ht="13.55" customHeight="1">
+    <row r="71" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C71" t="s" s="10">
+      <c r="B71" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D71" s="17"/>
+      <c r="E71" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F71" s="10" t="s">
         <v>204</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" t="s" s="10">
-        <v>205</v>
-      </c>
-      <c r="F71" t="s" s="10">
-        <v>206</v>
       </c>
       <c r="G71" s="16"/>
       <c r="H71" s="2"/>
@@ -6337,20 +6389,20 @@
       <c r="AG71" s="2"/>
       <c r="AH71" s="2"/>
     </row>
-    <row r="72" ht="13.55" customHeight="1">
+    <row r="72" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C72" t="s" s="13">
+      <c r="B72" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D72" s="18"/>
+      <c r="E72" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F72" s="14" t="s">
         <v>207</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" t="s" s="13">
-        <v>208</v>
-      </c>
-      <c r="F72" t="s" s="14">
-        <v>209</v>
       </c>
       <c r="G72" s="8"/>
       <c r="H72" s="2"/>
@@ -6381,20 +6433,20 @@
       <c r="AG72" s="2"/>
       <c r="AH72" s="2"/>
     </row>
-    <row r="73" ht="13.55" customHeight="1">
+    <row r="73" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C73" t="s" s="10">
+      <c r="B73" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D73" s="17"/>
+      <c r="E73" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F73" s="10" t="s">
         <v>210</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" t="s" s="10">
-        <v>211</v>
-      </c>
-      <c r="F73" t="s" s="10">
-        <v>212</v>
       </c>
       <c r="G73" s="16"/>
       <c r="H73" s="2"/>
@@ -6425,20 +6477,20 @@
       <c r="AG73" s="2"/>
       <c r="AH73" s="2"/>
     </row>
-    <row r="74" ht="13.55" customHeight="1">
+    <row r="74" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C74" t="s" s="13">
+      <c r="B74" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D74" s="18"/>
+      <c r="E74" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>213</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" t="s" s="13">
-        <v>214</v>
-      </c>
-      <c r="F74" t="s" s="14">
-        <v>215</v>
       </c>
       <c r="G74" s="8"/>
       <c r="H74" s="2"/>
@@ -6469,20 +6521,20 @@
       <c r="AG74" s="2"/>
       <c r="AH74" s="2"/>
     </row>
-    <row r="75" ht="13.55" customHeight="1">
+    <row r="75" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C75" t="s" s="10">
+      <c r="B75" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D75" s="17"/>
+      <c r="E75" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F75" s="10" t="s">
         <v>216</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" t="s" s="10">
-        <v>217</v>
-      </c>
-      <c r="F75" t="s" s="10">
-        <v>218</v>
       </c>
       <c r="G75" s="16"/>
       <c r="H75" s="2"/>
@@ -6513,20 +6565,20 @@
       <c r="AG75" s="2"/>
       <c r="AH75" s="2"/>
     </row>
-    <row r="76" ht="13.55" customHeight="1">
+    <row r="76" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C76" t="s" s="13">
-        <v>219</v>
+      <c r="B76" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="13" t="s">
+        <v>217</v>
       </c>
       <c r="D76" s="18"/>
-      <c r="E76" t="s" s="13">
+      <c r="E76" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F76" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="F76" t="s" s="14">
-        <v>86</v>
       </c>
       <c r="G76" s="8"/>
       <c r="H76" s="2"/>
@@ -6557,20 +6609,20 @@
       <c r="AG76" s="2"/>
       <c r="AH76" s="2"/>
     </row>
-    <row r="77" ht="13.55" customHeight="1">
+    <row r="77" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C77" t="s" s="10">
+      <c r="B77" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D77" s="17"/>
+      <c r="E77" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F77" s="10" t="s">
         <v>220</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" t="s" s="10">
-        <v>221</v>
-      </c>
-      <c r="F77" t="s" s="10">
-        <v>222</v>
       </c>
       <c r="G77" s="16"/>
       <c r="H77" s="2"/>
@@ -6601,20 +6653,20 @@
       <c r="AG77" s="2"/>
       <c r="AH77" s="2"/>
     </row>
-    <row r="78" ht="13.55" customHeight="1">
+    <row r="78" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C78" t="s" s="13">
+      <c r="B78" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D78" s="18"/>
+      <c r="E78" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F78" s="14" t="s">
         <v>223</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" t="s" s="13">
-        <v>224</v>
-      </c>
-      <c r="F78" t="s" s="14">
-        <v>225</v>
       </c>
       <c r="G78" s="8"/>
       <c r="H78" s="2"/>
@@ -6645,20 +6697,20 @@
       <c r="AG78" s="2"/>
       <c r="AH78" s="2"/>
     </row>
-    <row r="79" ht="13.55" customHeight="1">
+    <row r="79" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C79" t="s" s="10">
+      <c r="B79" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D79" s="17"/>
+      <c r="E79" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F79" s="10" t="s">
         <v>226</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" t="s" s="10">
-        <v>227</v>
-      </c>
-      <c r="F79" t="s" s="10">
-        <v>228</v>
       </c>
       <c r="G79" s="16"/>
       <c r="H79" s="2"/>
@@ -6689,20 +6741,20 @@
       <c r="AG79" s="2"/>
       <c r="AH79" s="2"/>
     </row>
-    <row r="80" ht="13.55" customHeight="1">
+    <row r="80" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C80" t="s" s="13">
+      <c r="B80" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D80" s="18"/>
+      <c r="E80" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F80" s="14" t="s">
         <v>229</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" t="s" s="13">
-        <v>230</v>
-      </c>
-      <c r="F80" t="s" s="14">
-        <v>231</v>
       </c>
       <c r="G80" s="8"/>
       <c r="H80" s="2"/>
@@ -6733,20 +6785,20 @@
       <c r="AG80" s="2"/>
       <c r="AH80" s="2"/>
     </row>
-    <row r="81" ht="13.55" customHeight="1">
+    <row r="81" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C81" t="s" s="10">
+      <c r="B81" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D81" s="17"/>
+      <c r="E81" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F81" s="10" t="s">
         <v>232</v>
-      </c>
-      <c r="D81" s="17"/>
-      <c r="E81" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="F81" t="s" s="10">
-        <v>234</v>
       </c>
       <c r="G81" s="16"/>
       <c r="H81" s="2"/>
@@ -6777,20 +6829,20 @@
       <c r="AG81" s="2"/>
       <c r="AH81" s="2"/>
     </row>
-    <row r="82" ht="13.55" customHeight="1">
+    <row r="82" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C82" t="s" s="13">
+      <c r="B82" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D82" s="18"/>
+      <c r="E82" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F82" s="14" t="s">
         <v>235</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" t="s" s="13">
-        <v>236</v>
-      </c>
-      <c r="F82" t="s" s="14">
-        <v>237</v>
       </c>
       <c r="G82" s="8"/>
       <c r="H82" s="2"/>
@@ -6821,20 +6873,20 @@
       <c r="AG82" s="2"/>
       <c r="AH82" s="2"/>
     </row>
-    <row r="83" ht="13.55" customHeight="1">
+    <row r="83" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C83" t="s" s="10">
+      <c r="B83" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D83" s="17"/>
+      <c r="E83" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F83" s="10" t="s">
         <v>238</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" t="s" s="10">
-        <v>239</v>
-      </c>
-      <c r="F83" t="s" s="10">
-        <v>240</v>
       </c>
       <c r="G83" s="16"/>
       <c r="H83" s="2"/>
@@ -6865,20 +6917,20 @@
       <c r="AG83" s="2"/>
       <c r="AH83" s="2"/>
     </row>
-    <row r="84" ht="13.55" customHeight="1">
+    <row r="84" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C84" t="s" s="13">
+      <c r="B84" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D84" s="18"/>
+      <c r="E84" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F84" s="14" t="s">
         <v>241</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" t="s" s="13">
-        <v>242</v>
-      </c>
-      <c r="F84" t="s" s="14">
-        <v>243</v>
       </c>
       <c r="G84" s="8"/>
       <c r="H84" s="2"/>
@@ -6909,20 +6961,20 @@
       <c r="AG84" s="2"/>
       <c r="AH84" s="2"/>
     </row>
-    <row r="85" ht="13.55" customHeight="1">
+    <row r="85" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C85" t="s" s="10">
+      <c r="B85" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D85" s="17"/>
+      <c r="E85" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F85" s="10" t="s">
         <v>244</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" t="s" s="10">
-        <v>245</v>
-      </c>
-      <c r="F85" t="s" s="10">
-        <v>246</v>
       </c>
       <c r="G85" s="16"/>
       <c r="H85" s="2"/>
@@ -6953,20 +7005,20 @@
       <c r="AG85" s="2"/>
       <c r="AH85" s="2"/>
     </row>
-    <row r="86" ht="13.55" customHeight="1">
+    <row r="86" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C86" t="s" s="13">
+      <c r="B86" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D86" s="18"/>
+      <c r="E86" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F86" s="14" t="s">
         <v>247</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" t="s" s="13">
-        <v>248</v>
-      </c>
-      <c r="F86" t="s" s="14">
-        <v>249</v>
       </c>
       <c r="G86" s="8"/>
       <c r="H86" s="2"/>
@@ -6997,20 +7049,20 @@
       <c r="AG86" s="2"/>
       <c r="AH86" s="2"/>
     </row>
-    <row r="87" ht="13.55" customHeight="1">
+    <row r="87" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C87" t="s" s="10">
+      <c r="B87" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D87" s="17"/>
+      <c r="E87" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F87" s="10" t="s">
         <v>250</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" t="s" s="10">
-        <v>251</v>
-      </c>
-      <c r="F87" t="s" s="10">
-        <v>252</v>
       </c>
       <c r="G87" s="16"/>
       <c r="H87" s="2"/>
@@ -7041,20 +7093,20 @@
       <c r="AG87" s="2"/>
       <c r="AH87" s="2"/>
     </row>
-    <row r="88" ht="13.55" customHeight="1">
+    <row r="88" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C88" t="s" s="13">
+      <c r="B88" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D88" s="18"/>
+      <c r="E88" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F88" s="14" t="s">
         <v>253</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" t="s" s="13">
-        <v>254</v>
-      </c>
-      <c r="F88" t="s" s="14">
-        <v>255</v>
       </c>
       <c r="G88" s="8"/>
       <c r="H88" s="2"/>
@@ -7085,20 +7137,20 @@
       <c r="AG88" s="2"/>
       <c r="AH88" s="2"/>
     </row>
-    <row r="89" ht="13.55" customHeight="1">
+    <row r="89" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C89" t="s" s="10">
+      <c r="B89" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D89" s="17"/>
+      <c r="E89" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F89" s="10" t="s">
         <v>256</v>
-      </c>
-      <c r="D89" s="17"/>
-      <c r="E89" t="s" s="10">
-        <v>257</v>
-      </c>
-      <c r="F89" t="s" s="10">
-        <v>258</v>
       </c>
       <c r="G89" s="16"/>
       <c r="H89" s="2"/>
@@ -7129,20 +7181,20 @@
       <c r="AG89" s="2"/>
       <c r="AH89" s="2"/>
     </row>
-    <row r="90" ht="13.55" customHeight="1">
+    <row r="90" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C90" t="s" s="13">
-        <v>259</v>
+      <c r="B90" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>257</v>
       </c>
       <c r="D90" s="18"/>
-      <c r="E90" t="s" s="13">
+      <c r="E90" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F90" s="14" t="s">
         <v>121</v>
-      </c>
-      <c r="F90" t="s" s="14">
-        <v>122</v>
       </c>
       <c r="G90" s="8"/>
       <c r="H90" s="2"/>
@@ -7173,20 +7225,20 @@
       <c r="AG90" s="2"/>
       <c r="AH90" s="2"/>
     </row>
-    <row r="91" ht="13.55" customHeight="1">
+    <row r="91" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C91" t="s" s="10">
+      <c r="B91" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" s="17"/>
+      <c r="E91" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F91" s="10" t="s">
         <v>260</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" t="s" s="10">
-        <v>261</v>
-      </c>
-      <c r="F91" t="s" s="10">
-        <v>262</v>
       </c>
       <c r="G91" s="16"/>
       <c r="H91" s="2"/>
@@ -7217,20 +7269,20 @@
       <c r="AG91" s="2"/>
       <c r="AH91" s="2"/>
     </row>
-    <row r="92" ht="13.55" customHeight="1">
+    <row r="92" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C92" t="s" s="13">
+      <c r="B92" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D92" s="18"/>
+      <c r="E92" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F92" s="14" t="s">
         <v>263</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" t="s" s="13">
-        <v>264</v>
-      </c>
-      <c r="F92" t="s" s="14">
-        <v>265</v>
       </c>
       <c r="G92" s="8"/>
       <c r="H92" s="2"/>
@@ -7261,20 +7313,20 @@
       <c r="AG92" s="2"/>
       <c r="AH92" s="2"/>
     </row>
-    <row r="93" ht="13.55" customHeight="1">
+    <row r="93" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C93" t="s" s="10">
+      <c r="B93" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D93" s="17"/>
+      <c r="E93" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F93" s="10" t="s">
         <v>266</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" t="s" s="10">
-        <v>267</v>
-      </c>
-      <c r="F93" t="s" s="10">
-        <v>268</v>
       </c>
       <c r="G93" s="16"/>
       <c r="H93" s="2"/>
@@ -7305,20 +7357,20 @@
       <c r="AG93" s="2"/>
       <c r="AH93" s="2"/>
     </row>
-    <row r="94" ht="13.55" customHeight="1">
+    <row r="94" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C94" t="s" s="13">
+      <c r="B94" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D94" s="18"/>
+      <c r="E94" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F94" s="14" t="s">
         <v>269</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" t="s" s="13">
-        <v>270</v>
-      </c>
-      <c r="F94" t="s" s="14">
-        <v>271</v>
       </c>
       <c r="G94" s="8"/>
       <c r="H94" s="2"/>
@@ -7349,20 +7401,20 @@
       <c r="AG94" s="2"/>
       <c r="AH94" s="2"/>
     </row>
-    <row r="95" ht="13.55" customHeight="1">
+    <row r="95" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C95" t="s" s="10">
+      <c r="B95" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D95" s="17"/>
+      <c r="E95" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F95" s="10" t="s">
         <v>272</v>
-      </c>
-      <c r="D95" s="17"/>
-      <c r="E95" t="s" s="10">
-        <v>273</v>
-      </c>
-      <c r="F95" t="s" s="10">
-        <v>274</v>
       </c>
       <c r="G95" s="16"/>
       <c r="H95" s="2"/>
@@ -7393,20 +7445,20 @@
       <c r="AG95" s="2"/>
       <c r="AH95" s="2"/>
     </row>
-    <row r="96" ht="13.55" customHeight="1">
+    <row r="96" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C96" t="s" s="13">
+      <c r="B96" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D96" s="18"/>
+      <c r="E96" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F96" s="14" t="s">
         <v>275</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" t="s" s="13">
-        <v>276</v>
-      </c>
-      <c r="F96" t="s" s="14">
-        <v>277</v>
       </c>
       <c r="G96" s="8"/>
       <c r="H96" s="2"/>
@@ -7437,20 +7489,20 @@
       <c r="AG96" s="2"/>
       <c r="AH96" s="2"/>
     </row>
-    <row r="97" ht="13.55" customHeight="1">
+    <row r="97" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C97" t="s" s="10">
+      <c r="B97" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D97" s="17"/>
+      <c r="E97" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F97" s="10" t="s">
         <v>278</v>
-      </c>
-      <c r="D97" s="17"/>
-      <c r="E97" t="s" s="10">
-        <v>279</v>
-      </c>
-      <c r="F97" t="s" s="10">
-        <v>280</v>
       </c>
       <c r="G97" s="16"/>
       <c r="H97" s="2"/>
@@ -7481,20 +7533,20 @@
       <c r="AG97" s="2"/>
       <c r="AH97" s="2"/>
     </row>
-    <row r="98" ht="13.55" customHeight="1">
+    <row r="98" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C98" t="s" s="13">
+      <c r="B98" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D98" s="18"/>
+      <c r="E98" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F98" s="14" t="s">
         <v>281</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" t="s" s="13">
-        <v>282</v>
-      </c>
-      <c r="F98" t="s" s="14">
-        <v>283</v>
       </c>
       <c r="G98" s="8"/>
       <c r="H98" s="2"/>
@@ -7525,20 +7577,20 @@
       <c r="AG98" s="2"/>
       <c r="AH98" s="2"/>
     </row>
-    <row r="99" ht="13.55" customHeight="1">
+    <row r="99" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C99" t="s" s="10">
+      <c r="B99" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D99" s="17"/>
+      <c r="E99" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F99" s="10" t="s">
         <v>284</v>
-      </c>
-      <c r="D99" s="17"/>
-      <c r="E99" t="s" s="10">
-        <v>285</v>
-      </c>
-      <c r="F99" t="s" s="10">
-        <v>286</v>
       </c>
       <c r="G99" s="16"/>
       <c r="H99" s="2"/>
@@ -7569,20 +7621,20 @@
       <c r="AG99" s="2"/>
       <c r="AH99" s="2"/>
     </row>
-    <row r="100" ht="13.55" customHeight="1">
+    <row r="100" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C100" t="s" s="13">
+      <c r="B100" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D100" s="18"/>
+      <c r="E100" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" s="14" t="s">
         <v>287</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" t="s" s="13">
-        <v>288</v>
-      </c>
-      <c r="F100" t="s" s="14">
-        <v>289</v>
       </c>
       <c r="G100" s="8"/>
       <c r="H100" s="2"/>
@@ -7613,20 +7665,20 @@
       <c r="AG100" s="2"/>
       <c r="AH100" s="2"/>
     </row>
-    <row r="101" ht="13.55" customHeight="1">
+    <row r="101" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C101" t="s" s="10">
+      <c r="B101" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D101" s="17"/>
+      <c r="E101" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F101" s="10" t="s">
         <v>290</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" t="s" s="10">
-        <v>291</v>
-      </c>
-      <c r="F101" t="s" s="10">
-        <v>292</v>
       </c>
       <c r="G101" s="16"/>
       <c r="H101" s="2"/>
@@ -7657,20 +7709,20 @@
       <c r="AG101" s="2"/>
       <c r="AH101" s="2"/>
     </row>
-    <row r="102" ht="13.55" customHeight="1">
+    <row r="102" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C102" t="s" s="13">
+      <c r="B102" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D102" s="18"/>
+      <c r="E102" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F102" s="14" t="s">
         <v>293</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" t="s" s="13">
-        <v>294</v>
-      </c>
-      <c r="F102" t="s" s="14">
-        <v>295</v>
       </c>
       <c r="G102" s="8"/>
       <c r="H102" s="2"/>
@@ -7701,20 +7753,20 @@
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
     </row>
-    <row r="103" ht="30" customHeight="1">
+    <row r="103" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C103" t="s" s="10">
+      <c r="B103" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D103" s="17"/>
+      <c r="E103" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F103" s="10" t="s">
         <v>296</v>
-      </c>
-      <c r="D103" s="17"/>
-      <c r="E103" t="s" s="10">
-        <v>297</v>
-      </c>
-      <c r="F103" t="s" s="10">
-        <v>298</v>
       </c>
       <c r="G103" s="16"/>
       <c r="H103" s="2"/>
@@ -7745,20 +7797,20 @@
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
     </row>
-    <row r="104" ht="13.55" customHeight="1">
+    <row r="104" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C104" t="s" s="13">
+      <c r="B104" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D104" s="18"/>
+      <c r="E104" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F104" s="14" t="s">
         <v>299</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" t="s" s="13">
-        <v>300</v>
-      </c>
-      <c r="F104" t="s" s="14">
-        <v>301</v>
       </c>
       <c r="G104" s="8"/>
       <c r="H104" s="2"/>
@@ -7789,20 +7841,20 @@
       <c r="AG104" s="2"/>
       <c r="AH104" s="2"/>
     </row>
-    <row r="105" ht="13.55" customHeight="1">
+    <row r="105" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C105" t="s" s="10">
+      <c r="B105" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D105" s="17"/>
+      <c r="E105" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F105" s="10" t="s">
         <v>302</v>
-      </c>
-      <c r="D105" s="17"/>
-      <c r="E105" t="s" s="10">
-        <v>303</v>
-      </c>
-      <c r="F105" t="s" s="10">
-        <v>304</v>
       </c>
       <c r="G105" s="16"/>
       <c r="H105" s="2"/>
@@ -7833,20 +7885,20 @@
       <c r="AG105" s="2"/>
       <c r="AH105" s="2"/>
     </row>
-    <row r="106" ht="13.55" customHeight="1">
+    <row r="106" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C106" t="s" s="13">
+      <c r="B106" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D106" s="18"/>
+      <c r="E106" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F106" s="14" t="s">
         <v>305</v>
-      </c>
-      <c r="D106" s="18"/>
-      <c r="E106" t="s" s="13">
-        <v>306</v>
-      </c>
-      <c r="F106" t="s" s="14">
-        <v>307</v>
       </c>
       <c r="G106" s="8"/>
       <c r="H106" s="2"/>
@@ -7877,20 +7929,20 @@
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
     </row>
-    <row r="107" ht="30" customHeight="1">
+    <row r="107" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C107" t="s" s="10">
+      <c r="B107" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D107" s="17"/>
+      <c r="E107" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F107" s="10" t="s">
         <v>308</v>
-      </c>
-      <c r="D107" s="17"/>
-      <c r="E107" t="s" s="10">
-        <v>309</v>
-      </c>
-      <c r="F107" t="s" s="10">
-        <v>310</v>
       </c>
       <c r="G107" s="16"/>
       <c r="H107" s="2"/>
@@ -7921,20 +7973,20 @@
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
-    <row r="108" ht="13.55" customHeight="1">
+    <row r="108" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C108" t="s" s="13">
+      <c r="B108" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D108" s="18"/>
+      <c r="E108" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F108" s="14" t="s">
         <v>311</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" t="s" s="13">
-        <v>312</v>
-      </c>
-      <c r="F108" t="s" s="14">
-        <v>313</v>
       </c>
       <c r="G108" s="8"/>
       <c r="H108" s="2"/>
@@ -7965,20 +8017,20 @@
       <c r="AG108" s="2"/>
       <c r="AH108" s="2"/>
     </row>
-    <row r="109" ht="13.55" customHeight="1">
+    <row r="109" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C109" t="s" s="10">
+      <c r="B109" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D109" s="17"/>
+      <c r="E109" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F109" s="10" t="s">
         <v>314</v>
-      </c>
-      <c r="D109" s="17"/>
-      <c r="E109" t="s" s="10">
-        <v>315</v>
-      </c>
-      <c r="F109" t="s" s="10">
-        <v>316</v>
       </c>
       <c r="G109" s="16"/>
       <c r="H109" s="2"/>
@@ -8009,20 +8061,20 @@
       <c r="AG109" s="2"/>
       <c r="AH109" s="2"/>
     </row>
-    <row r="110" ht="13.55" customHeight="1">
+    <row r="110" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C110" t="s" s="13">
+      <c r="B110" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D110" s="18"/>
+      <c r="E110" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F110" s="14" t="s">
         <v>317</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" t="s" s="13">
-        <v>318</v>
-      </c>
-      <c r="F110" t="s" s="14">
-        <v>319</v>
       </c>
       <c r="G110" s="8"/>
       <c r="H110" s="2"/>
@@ -8053,20 +8105,20 @@
       <c r="AG110" s="2"/>
       <c r="AH110" s="2"/>
     </row>
-    <row r="111" ht="13.55" customHeight="1">
+    <row r="111" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C111" t="s" s="10">
+      <c r="B111" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D111" s="17"/>
+      <c r="E111" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F111" s="10" t="s">
         <v>320</v>
-      </c>
-      <c r="D111" s="17"/>
-      <c r="E111" t="s" s="10">
-        <v>321</v>
-      </c>
-      <c r="F111" t="s" s="10">
-        <v>322</v>
       </c>
       <c r="G111" s="16"/>
       <c r="H111" s="2"/>
@@ -8097,20 +8149,20 @@
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
     </row>
-    <row r="112" ht="60" customHeight="1">
+    <row r="112" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C112" t="s" s="13">
+      <c r="B112" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D112" s="18"/>
+      <c r="E112" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F112" s="14" t="s">
         <v>323</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" t="s" s="13">
-        <v>324</v>
-      </c>
-      <c r="F112" t="s" s="14">
-        <v>325</v>
       </c>
       <c r="G112" s="8"/>
       <c r="H112" s="2"/>
@@ -8141,20 +8193,20 @@
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
     </row>
-    <row r="113" ht="45" customHeight="1">
+    <row r="113" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C113" t="s" s="10">
+      <c r="B113" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D113" s="17"/>
+      <c r="E113" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F113" s="10" t="s">
         <v>326</v>
-      </c>
-      <c r="D113" s="17"/>
-      <c r="E113" t="s" s="10">
-        <v>327</v>
-      </c>
-      <c r="F113" t="s" s="10">
-        <v>328</v>
       </c>
       <c r="G113" s="16"/>
       <c r="H113" s="2"/>
@@ -8185,20 +8237,20 @@
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
     </row>
-    <row r="114" ht="30" customHeight="1">
+    <row r="114" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C114" t="s" s="13">
+      <c r="B114" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D114" s="18"/>
+      <c r="E114" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F114" s="14" t="s">
         <v>329</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" t="s" s="13">
-        <v>330</v>
-      </c>
-      <c r="F114" t="s" s="14">
-        <v>331</v>
       </c>
       <c r="G114" s="8"/>
       <c r="H114" s="2"/>
@@ -8229,20 +8281,20 @@
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
     </row>
-    <row r="115" ht="13.55" customHeight="1">
+    <row r="115" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C115" t="s" s="10">
+      <c r="B115" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D115" s="17"/>
+      <c r="E115" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F115" s="10" t="s">
         <v>332</v>
-      </c>
-      <c r="D115" s="17"/>
-      <c r="E115" t="s" s="10">
-        <v>333</v>
-      </c>
-      <c r="F115" t="s" s="10">
-        <v>334</v>
       </c>
       <c r="G115" s="16"/>
       <c r="H115" s="2"/>
@@ -8273,20 +8325,20 @@
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
     </row>
-    <row r="116" ht="30" customHeight="1">
+    <row r="116" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C116" t="s" s="13">
+      <c r="B116" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D116" s="18"/>
+      <c r="E116" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F116" s="14" t="s">
         <v>335</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" t="s" s="13">
-        <v>336</v>
-      </c>
-      <c r="F116" t="s" s="14">
-        <v>337</v>
       </c>
       <c r="G116" s="8"/>
       <c r="H116" s="2"/>
@@ -8317,20 +8369,20 @@
       <c r="AG116" s="2"/>
       <c r="AH116" s="2"/>
     </row>
-    <row r="117" ht="30" customHeight="1">
+    <row r="117" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C117" t="s" s="10">
+      <c r="B117" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D117" s="17"/>
+      <c r="E117" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F117" s="10" t="s">
         <v>338</v>
-      </c>
-      <c r="D117" s="17"/>
-      <c r="E117" t="s" s="10">
-        <v>339</v>
-      </c>
-      <c r="F117" t="s" s="10">
-        <v>340</v>
       </c>
       <c r="G117" s="16"/>
       <c r="H117" s="2"/>
@@ -8361,20 +8413,20 @@
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
     </row>
-    <row r="118" ht="13.55" customHeight="1">
+    <row r="118" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C118" t="s" s="13">
+      <c r="B118" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D118" s="18"/>
+      <c r="E118" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F118" s="14" t="s">
         <v>341</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" t="s" s="13">
-        <v>342</v>
-      </c>
-      <c r="F118" t="s" s="14">
-        <v>343</v>
       </c>
       <c r="G118" s="8"/>
       <c r="H118" s="2"/>
@@ -8405,20 +8457,20 @@
       <c r="AG118" s="2"/>
       <c r="AH118" s="2"/>
     </row>
-    <row r="119" ht="13.55" customHeight="1">
+    <row r="119" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C119" t="s" s="10">
+      <c r="B119" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D119" s="17"/>
+      <c r="E119" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F119" s="10" t="s">
         <v>344</v>
-      </c>
-      <c r="D119" s="17"/>
-      <c r="E119" t="s" s="10">
-        <v>345</v>
-      </c>
-      <c r="F119" t="s" s="10">
-        <v>346</v>
       </c>
       <c r="G119" s="16"/>
       <c r="H119" s="2"/>
@@ -8449,20 +8501,20 @@
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
     </row>
-    <row r="120" ht="45" customHeight="1">
+    <row r="120" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C120" t="s" s="13">
+      <c r="B120" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D120" s="18"/>
+      <c r="E120" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F120" s="14" t="s">
         <v>347</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" t="s" s="13">
-        <v>348</v>
-      </c>
-      <c r="F120" t="s" s="14">
-        <v>349</v>
       </c>
       <c r="G120" s="8"/>
       <c r="H120" s="2"/>
@@ -8493,20 +8545,20 @@
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
     </row>
-    <row r="121" ht="30" customHeight="1">
+    <row r="121" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C121" t="s" s="10">
+      <c r="B121" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D121" s="17"/>
+      <c r="E121" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F121" s="10" t="s">
         <v>350</v>
-      </c>
-      <c r="D121" s="17"/>
-      <c r="E121" t="s" s="10">
-        <v>351</v>
-      </c>
-      <c r="F121" t="s" s="10">
-        <v>352</v>
       </c>
       <c r="G121" s="16"/>
       <c r="H121" s="2"/>
@@ -8537,20 +8589,20 @@
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
     </row>
-    <row r="122" ht="13.55" customHeight="1">
+    <row r="122" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C122" t="s" s="13">
+      <c r="B122" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D122" s="18"/>
+      <c r="E122" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F122" s="14" t="s">
         <v>353</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" t="s" s="13">
-        <v>354</v>
-      </c>
-      <c r="F122" t="s" s="14">
-        <v>355</v>
       </c>
       <c r="G122" s="8"/>
       <c r="H122" s="2"/>
@@ -8581,20 +8633,20 @@
       <c r="AG122" s="2"/>
       <c r="AH122" s="2"/>
     </row>
-    <row r="123" ht="30" customHeight="1">
+    <row r="123" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C123" t="s" s="10">
+      <c r="B123" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D123" s="17"/>
+      <c r="E123" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F123" s="10" t="s">
         <v>356</v>
-      </c>
-      <c r="D123" s="17"/>
-      <c r="E123" t="s" s="10">
-        <v>357</v>
-      </c>
-      <c r="F123" t="s" s="10">
-        <v>358</v>
       </c>
       <c r="G123" s="16"/>
       <c r="H123" s="2"/>
@@ -8625,20 +8677,20 @@
       <c r="AG123" s="2"/>
       <c r="AH123" s="2"/>
     </row>
-    <row r="124" ht="45" customHeight="1">
+    <row r="124" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C124" t="s" s="13">
+      <c r="B124" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D124" s="18"/>
+      <c r="E124" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F124" s="14" t="s">
         <v>359</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" t="s" s="13">
-        <v>360</v>
-      </c>
-      <c r="F124" t="s" s="14">
-        <v>361</v>
       </c>
       <c r="G124" s="8"/>
       <c r="H124" s="2"/>
@@ -8669,20 +8721,20 @@
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
     </row>
-    <row r="125" ht="30" customHeight="1">
+    <row r="125" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C125" t="s" s="10">
+      <c r="B125" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D125" s="17"/>
+      <c r="E125" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F125" s="10" t="s">
         <v>362</v>
-      </c>
-      <c r="D125" s="17"/>
-      <c r="E125" t="s" s="10">
-        <v>363</v>
-      </c>
-      <c r="F125" t="s" s="10">
-        <v>364</v>
       </c>
       <c r="G125" s="16"/>
       <c r="H125" s="2"/>
@@ -8713,20 +8765,20 @@
       <c r="AG125" s="2"/>
       <c r="AH125" s="2"/>
     </row>
-    <row r="126" ht="30" customHeight="1">
+    <row r="126" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C126" t="s" s="13">
+      <c r="B126" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D126" s="18"/>
+      <c r="E126" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="F126" s="14" t="s">
         <v>365</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" t="s" s="13">
-        <v>366</v>
-      </c>
-      <c r="F126" t="s" s="14">
-        <v>367</v>
       </c>
       <c r="G126" s="8"/>
       <c r="H126" s="2"/>
@@ -8757,20 +8809,20 @@
       <c r="AG126" s="2"/>
       <c r="AH126" s="2"/>
     </row>
-    <row r="127" ht="30" customHeight="1">
+    <row r="127" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C127" t="s" s="10">
-        <v>368</v>
+      <c r="B127" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>366</v>
       </c>
       <c r="D127" s="17"/>
-      <c r="E127" t="s" s="10">
+      <c r="E127" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F127" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="F127" t="s" s="10">
-        <v>107</v>
       </c>
       <c r="G127" s="16"/>
       <c r="H127" s="2"/>
@@ -8801,20 +8853,20 @@
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
     </row>
-    <row r="128" ht="45" customHeight="1">
+    <row r="128" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C128" t="s" s="13">
+      <c r="B128" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D128" s="18"/>
+      <c r="E128" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F128" s="14" t="s">
         <v>369</v>
-      </c>
-      <c r="D128" s="18"/>
-      <c r="E128" t="s" s="13">
-        <v>370</v>
-      </c>
-      <c r="F128" t="s" s="14">
-        <v>371</v>
       </c>
       <c r="G128" s="8"/>
       <c r="H128" s="2"/>
@@ -8845,20 +8897,20 @@
       <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
     </row>
-    <row r="129" ht="30" customHeight="1">
+    <row r="129" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C129" t="s" s="10">
+      <c r="B129" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D129" s="17"/>
+      <c r="E129" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F129" s="10" t="s">
         <v>372</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" t="s" s="10">
-        <v>373</v>
-      </c>
-      <c r="F129" t="s" s="10">
-        <v>374</v>
       </c>
       <c r="G129" s="16"/>
       <c r="H129" s="2"/>
@@ -8889,20 +8941,20 @@
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
     </row>
-    <row r="130" ht="45" customHeight="1">
+    <row r="130" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C130" t="s" s="13">
+      <c r="B130" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D130" s="18"/>
+      <c r="E130" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F130" s="14" t="s">
         <v>375</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" t="s" s="13">
-        <v>376</v>
-      </c>
-      <c r="F130" t="s" s="14">
-        <v>377</v>
       </c>
       <c r="G130" s="8"/>
       <c r="H130" s="2"/>
@@ -8933,20 +8985,20 @@
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
     </row>
-    <row r="131" ht="30" customHeight="1">
+    <row r="131" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C131" t="s" s="10">
+      <c r="B131" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D131" s="17"/>
+      <c r="E131" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F131" s="10" t="s">
         <v>378</v>
-      </c>
-      <c r="D131" s="17"/>
-      <c r="E131" t="s" s="10">
-        <v>379</v>
-      </c>
-      <c r="F131" t="s" s="10">
-        <v>380</v>
       </c>
       <c r="G131" s="16"/>
       <c r="H131" s="2"/>
@@ -8977,20 +9029,20 @@
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
     </row>
-    <row r="132" ht="75" customHeight="1">
+    <row r="132" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C132" t="s" s="13">
-        <v>381</v>
+      <c r="B132" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="13" t="s">
+        <v>379</v>
       </c>
       <c r="D132" s="18"/>
-      <c r="E132" t="s" s="13">
-        <v>103</v>
-      </c>
-      <c r="F132" t="s" s="14">
-        <v>382</v>
+      <c r="E132" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F132" s="14" t="s">
+        <v>380</v>
       </c>
       <c r="G132" s="8"/>
       <c r="H132" s="2"/>
@@ -9021,20 +9073,20 @@
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
     </row>
-    <row r="133" ht="30" customHeight="1">
+    <row r="133" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C133" t="s" s="10">
-        <v>383</v>
+      <c r="B133" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>381</v>
       </c>
       <c r="D133" s="17"/>
-      <c r="E133" t="s" s="10">
+      <c r="E133" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F133" s="10" t="s">
         <v>106</v>
-      </c>
-      <c r="F133" t="s" s="10">
-        <v>107</v>
       </c>
       <c r="G133" s="16"/>
       <c r="H133" s="2"/>
@@ -9065,20 +9117,20 @@
       <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
     </row>
-    <row r="134" ht="45" customHeight="1">
+    <row r="134" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C134" t="s" s="13">
+      <c r="B134" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D134" s="18"/>
+      <c r="E134" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F134" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="D134" s="18"/>
-      <c r="E134" t="s" s="13">
-        <v>385</v>
-      </c>
-      <c r="F134" t="s" s="14">
-        <v>386</v>
       </c>
       <c r="G134" s="8"/>
       <c r="H134" s="2"/>
@@ -9109,20 +9161,20 @@
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
     </row>
-    <row r="135" ht="30" customHeight="1">
+    <row r="135" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C135" t="s" s="10">
+      <c r="B135" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D135" s="17"/>
+      <c r="E135" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F135" s="10" t="s">
         <v>387</v>
-      </c>
-      <c r="D135" s="17"/>
-      <c r="E135" t="s" s="10">
-        <v>388</v>
-      </c>
-      <c r="F135" t="s" s="10">
-        <v>389</v>
       </c>
       <c r="G135" s="16"/>
       <c r="H135" s="2"/>
@@ -9153,20 +9205,20 @@
       <c r="AG135" s="2"/>
       <c r="AH135" s="2"/>
     </row>
-    <row r="136" ht="30" customHeight="1">
+    <row r="136" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C136" t="s" s="13">
+      <c r="B136" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D136" s="18"/>
+      <c r="E136" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F136" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" t="s" s="13">
-        <v>391</v>
-      </c>
-      <c r="F136" t="s" s="14">
-        <v>392</v>
       </c>
       <c r="G136" s="8"/>
       <c r="H136" s="2"/>
@@ -9197,20 +9249,20 @@
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
     </row>
-    <row r="137" ht="13.55" customHeight="1">
+    <row r="137" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C137" t="s" s="10">
+      <c r="B137" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D137" s="17"/>
+      <c r="E137" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F137" s="10" t="s">
         <v>393</v>
-      </c>
-      <c r="D137" s="17"/>
-      <c r="E137" t="s" s="10">
-        <v>394</v>
-      </c>
-      <c r="F137" t="s" s="10">
-        <v>395</v>
       </c>
       <c r="G137" s="16"/>
       <c r="H137" s="2"/>
@@ -9241,20 +9293,20 @@
       <c r="AG137" s="2"/>
       <c r="AH137" s="2"/>
     </row>
-    <row r="138" ht="13.55" customHeight="1">
+    <row r="138" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C138" t="s" s="13">
+      <c r="B138" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D138" s="18"/>
+      <c r="E138" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F138" s="14" t="s">
         <v>396</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" t="s" s="13">
-        <v>397</v>
-      </c>
-      <c r="F138" t="s" s="14">
-        <v>398</v>
       </c>
       <c r="G138" s="8"/>
       <c r="H138" s="2"/>
@@ -9285,20 +9337,20 @@
       <c r="AG138" s="2"/>
       <c r="AH138" s="2"/>
     </row>
-    <row r="139" ht="13.55" customHeight="1">
+    <row r="139" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C139" t="s" s="10">
+      <c r="B139" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D139" s="17"/>
+      <c r="E139" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F139" s="10" t="s">
         <v>399</v>
-      </c>
-      <c r="D139" s="17"/>
-      <c r="E139" t="s" s="10">
-        <v>400</v>
-      </c>
-      <c r="F139" t="s" s="10">
-        <v>401</v>
       </c>
       <c r="G139" s="16"/>
       <c r="H139" s="2"/>
@@ -9329,20 +9381,20 @@
       <c r="AG139" s="2"/>
       <c r="AH139" s="2"/>
     </row>
-    <row r="140" ht="30" customHeight="1">
+    <row r="140" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="B140" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C140" t="s" s="13">
-        <v>402</v>
+      <c r="B140" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="13" t="s">
+        <v>400</v>
       </c>
       <c r="D140" s="18"/>
-      <c r="E140" t="s" s="13">
-        <v>97</v>
-      </c>
-      <c r="F140" t="s" s="14">
-        <v>403</v>
+      <c r="E140" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F140" s="14" t="s">
+        <v>401</v>
       </c>
       <c r="G140" s="8"/>
       <c r="H140" s="2"/>
@@ -9373,20 +9425,20 @@
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
     </row>
-    <row r="141" ht="13.55" customHeight="1">
+    <row r="141" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C141" t="s" s="10">
+      <c r="B141" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D141" s="17"/>
+      <c r="E141" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F141" s="10" t="s">
         <v>404</v>
-      </c>
-      <c r="D141" s="17"/>
-      <c r="E141" t="s" s="10">
-        <v>405</v>
-      </c>
-      <c r="F141" t="s" s="10">
-        <v>406</v>
       </c>
       <c r="G141" s="16"/>
       <c r="H141" s="2"/>
@@ -9417,20 +9469,20 @@
       <c r="AG141" s="2"/>
       <c r="AH141" s="2"/>
     </row>
-    <row r="142" ht="13.55" customHeight="1">
+    <row r="142" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C142" t="s" s="13">
+      <c r="B142" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D142" s="18"/>
+      <c r="E142" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F142" s="14" t="s">
         <v>407</v>
-      </c>
-      <c r="D142" s="18"/>
-      <c r="E142" t="s" s="13">
-        <v>408</v>
-      </c>
-      <c r="F142" t="s" s="14">
-        <v>409</v>
       </c>
       <c r="G142" s="8"/>
       <c r="H142" s="2"/>
@@ -9461,20 +9513,20 @@
       <c r="AG142" s="2"/>
       <c r="AH142" s="2"/>
     </row>
-    <row r="143" ht="13.55" customHeight="1">
+    <row r="143" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C143" t="s" s="10">
+      <c r="B143" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D143" s="17"/>
+      <c r="E143" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F143" s="10" t="s">
         <v>410</v>
-      </c>
-      <c r="D143" s="17"/>
-      <c r="E143" t="s" s="10">
-        <v>411</v>
-      </c>
-      <c r="F143" t="s" s="10">
-        <v>412</v>
       </c>
       <c r="G143" s="16"/>
       <c r="H143" s="2"/>
@@ -9505,20 +9557,20 @@
       <c r="AG143" s="2"/>
       <c r="AH143" s="2"/>
     </row>
-    <row r="144" ht="30" customHeight="1">
+    <row r="144" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C144" t="s" s="13">
+      <c r="B144" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D144" s="18"/>
+      <c r="E144" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F144" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="D144" s="18"/>
-      <c r="E144" t="s" s="13">
-        <v>414</v>
-      </c>
-      <c r="F144" t="s" s="14">
-        <v>415</v>
       </c>
       <c r="G144" s="8"/>
       <c r="H144" s="2"/>
@@ -9549,20 +9601,20 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="2"/>
     </row>
-    <row r="145" ht="13.55" customHeight="1">
+    <row r="145" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C145" t="s" s="10">
+      <c r="B145" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D145" s="17"/>
+      <c r="E145" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F145" s="10" t="s">
         <v>416</v>
-      </c>
-      <c r="D145" s="17"/>
-      <c r="E145" t="s" s="10">
-        <v>417</v>
-      </c>
-      <c r="F145" t="s" s="10">
-        <v>418</v>
       </c>
       <c r="G145" s="16"/>
       <c r="H145" s="2"/>
@@ -9593,20 +9645,20 @@
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
     </row>
-    <row r="146" ht="30" customHeight="1">
+    <row r="146" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C146" t="s" s="13">
+      <c r="B146" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D146" s="18"/>
+      <c r="E146" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F146" s="14" t="s">
         <v>419</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" t="s" s="13">
-        <v>420</v>
-      </c>
-      <c r="F146" t="s" s="14">
-        <v>421</v>
       </c>
       <c r="G146" s="8"/>
       <c r="H146" s="2"/>
@@ -9637,20 +9689,20 @@
       <c r="AG146" s="2"/>
       <c r="AH146" s="2"/>
     </row>
-    <row r="147" ht="13.55" customHeight="1">
+    <row r="147" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C147" t="s" s="10">
+      <c r="B147" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D147" s="17"/>
+      <c r="E147" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F147" s="10" t="s">
         <v>422</v>
-      </c>
-      <c r="D147" s="17"/>
-      <c r="E147" t="s" s="10">
-        <v>423</v>
-      </c>
-      <c r="F147" t="s" s="10">
-        <v>424</v>
       </c>
       <c r="G147" s="16"/>
       <c r="H147" s="2"/>
@@ -9681,20 +9733,20 @@
       <c r="AG147" s="2"/>
       <c r="AH147" s="2"/>
     </row>
-    <row r="148" ht="13.55" customHeight="1">
+    <row r="148" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C148" t="s" s="13">
+      <c r="B148" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D148" s="18"/>
+      <c r="E148" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F148" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" t="s" s="13">
-        <v>426</v>
-      </c>
-      <c r="F148" t="s" s="14">
-        <v>427</v>
       </c>
       <c r="G148" s="8"/>
       <c r="H148" s="2"/>
@@ -9725,20 +9777,20 @@
       <c r="AG148" s="2"/>
       <c r="AH148" s="2"/>
     </row>
-    <row r="149" ht="13.55" customHeight="1">
+    <row r="149" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C149" t="s" s="10">
+      <c r="B149" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D149" s="17"/>
+      <c r="E149" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F149" s="10" t="s">
         <v>428</v>
-      </c>
-      <c r="D149" s="17"/>
-      <c r="E149" t="s" s="10">
-        <v>429</v>
-      </c>
-      <c r="F149" t="s" s="10">
-        <v>430</v>
       </c>
       <c r="G149" s="16"/>
       <c r="H149" s="2"/>
@@ -9769,20 +9821,20 @@
       <c r="AG149" s="2"/>
       <c r="AH149" s="2"/>
     </row>
-    <row r="150" ht="13.55" customHeight="1">
+    <row r="150" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C150" t="s" s="13">
-        <v>431</v>
+      <c r="B150" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="13" t="s">
+        <v>429</v>
       </c>
       <c r="D150" s="18"/>
-      <c r="E150" t="s" s="13">
-        <v>432</v>
-      </c>
-      <c r="F150" t="s" s="14">
-        <v>432</v>
+      <c r="E150" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="F150" s="14" t="s">
+        <v>430</v>
       </c>
       <c r="G150" s="8"/>
       <c r="H150" s="2"/>
@@ -9813,20 +9865,20 @@
       <c r="AG150" s="2"/>
       <c r="AH150" s="2"/>
     </row>
-    <row r="151" ht="13.55" customHeight="1">
+    <row r="151" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C151" t="s" s="10">
-        <v>433</v>
+      <c r="B151" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>431</v>
       </c>
       <c r="D151" s="17"/>
-      <c r="E151" t="s" s="10">
-        <v>434</v>
-      </c>
-      <c r="F151" t="s" s="10">
-        <v>435</v>
+      <c r="E151" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F151" s="10" t="s">
+        <v>563</v>
       </c>
       <c r="G151" s="16"/>
       <c r="H151" s="2"/>
@@ -9857,20 +9909,20 @@
       <c r="AG151" s="2"/>
       <c r="AH151" s="2"/>
     </row>
-    <row r="152" ht="13.55" customHeight="1">
+    <row r="152" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C152" t="s" s="13">
-        <v>436</v>
+      <c r="B152" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="13" t="s">
+        <v>433</v>
       </c>
       <c r="D152" s="18"/>
-      <c r="E152" t="s" s="13">
-        <v>437</v>
-      </c>
-      <c r="F152" t="s" s="14">
-        <v>438</v>
+      <c r="E152" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F152" s="14" t="s">
+        <v>564</v>
       </c>
       <c r="G152" s="8"/>
       <c r="H152" s="2"/>
@@ -9901,20 +9953,20 @@
       <c r="AG152" s="2"/>
       <c r="AH152" s="2"/>
     </row>
-    <row r="153" ht="13.55" customHeight="1">
+    <row r="153" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C153" t="s" s="10">
-        <v>439</v>
+      <c r="B153" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>435</v>
       </c>
       <c r="D153" s="17"/>
-      <c r="E153" t="s" s="10">
-        <v>429</v>
-      </c>
-      <c r="F153" t="s" s="10">
-        <v>440</v>
+      <c r="E153" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F153" s="10" t="s">
+        <v>436</v>
       </c>
       <c r="G153" s="16"/>
       <c r="H153" s="2"/>
@@ -9945,20 +9997,20 @@
       <c r="AG153" s="2"/>
       <c r="AH153" s="2"/>
     </row>
-    <row r="154" ht="13.55" customHeight="1">
+    <row r="154" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C154" t="s" s="13">
-        <v>441</v>
+      <c r="B154" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="13" t="s">
+        <v>437</v>
       </c>
       <c r="D154" s="18"/>
-      <c r="E154" t="s" s="13">
-        <v>442</v>
-      </c>
-      <c r="F154" t="s" s="14">
-        <v>443</v>
+      <c r="E154" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F154" s="14" t="s">
+        <v>439</v>
       </c>
       <c r="G154" s="8"/>
       <c r="H154" s="2"/>
@@ -9989,20 +10041,20 @@
       <c r="AG154" s="2"/>
       <c r="AH154" s="2"/>
     </row>
-    <row r="155" ht="13.55" customHeight="1">
+    <row r="155" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="B155" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C155" t="s" s="10">
-        <v>444</v>
+      <c r="B155" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>440</v>
       </c>
       <c r="D155" s="17"/>
-      <c r="E155" t="s" s="10">
+      <c r="E155" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F155" s="10" t="s">
         <v>150</v>
-      </c>
-      <c r="F155" t="s" s="10">
-        <v>151</v>
       </c>
       <c r="G155" s="16"/>
       <c r="H155" s="2"/>
@@ -10033,20 +10085,20 @@
       <c r="AG155" s="2"/>
       <c r="AH155" s="2"/>
     </row>
-    <row r="156" ht="13.55" customHeight="1">
+    <row r="156" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C156" t="s" s="13">
-        <v>445</v>
+      <c r="B156" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="13" t="s">
+        <v>441</v>
       </c>
       <c r="D156" s="18"/>
-      <c r="E156" t="s" s="13">
-        <v>429</v>
-      </c>
-      <c r="F156" t="s" s="14">
-        <v>430</v>
+      <c r="E156" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F156" s="14" t="s">
+        <v>428</v>
       </c>
       <c r="G156" s="8"/>
       <c r="H156" s="2"/>
@@ -10077,20 +10129,20 @@
       <c r="AG156" s="2"/>
       <c r="AH156" s="2"/>
     </row>
-    <row r="157" ht="13.55" customHeight="1">
+    <row r="157" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C157" t="s" s="10">
-        <v>446</v>
+      <c r="B157" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>442</v>
       </c>
       <c r="D157" s="17"/>
-      <c r="E157" t="s" s="10">
-        <v>432</v>
-      </c>
-      <c r="F157" t="s" s="10">
-        <v>432</v>
+      <c r="E157" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F157" s="10" t="s">
+        <v>430</v>
       </c>
       <c r="G157" s="16"/>
       <c r="H157" s="2"/>
@@ -10121,20 +10173,20 @@
       <c r="AG157" s="2"/>
       <c r="AH157" s="2"/>
     </row>
-    <row r="158" ht="13.55" customHeight="1">
+    <row r="158" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C158" t="s" s="13">
-        <v>447</v>
+      <c r="B158" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="13" t="s">
+        <v>443</v>
       </c>
       <c r="D158" s="18"/>
-      <c r="E158" t="s" s="13">
-        <v>448</v>
-      </c>
-      <c r="F158" t="s" s="14">
-        <v>449</v>
+      <c r="E158" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F158" s="14" t="s">
+        <v>445</v>
       </c>
       <c r="G158" s="8"/>
       <c r="H158" s="2"/>
@@ -10165,20 +10217,20 @@
       <c r="AG158" s="2"/>
       <c r="AH158" s="2"/>
     </row>
-    <row r="159" ht="13.55" customHeight="1">
+    <row r="159" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C159" t="s" s="10">
-        <v>450</v>
+      <c r="B159" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>446</v>
       </c>
       <c r="D159" s="17"/>
-      <c r="E159" t="s" s="10">
-        <v>451</v>
-      </c>
-      <c r="F159" t="s" s="10">
-        <v>452</v>
+      <c r="E159" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F159" s="10" t="s">
+        <v>448</v>
       </c>
       <c r="G159" s="16"/>
       <c r="H159" s="2"/>
@@ -10209,20 +10261,20 @@
       <c r="AG159" s="2"/>
       <c r="AH159" s="2"/>
     </row>
-    <row r="160" ht="13.55" customHeight="1">
+    <row r="160" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C160" t="s" s="13">
-        <v>453</v>
+      <c r="B160" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="13" t="s">
+        <v>449</v>
       </c>
       <c r="D160" s="18"/>
-      <c r="E160" t="s" s="13">
-        <v>454</v>
-      </c>
-      <c r="F160" t="s" s="14">
-        <v>454</v>
+      <c r="E160" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F160" s="14" t="s">
+        <v>450</v>
       </c>
       <c r="G160" s="8"/>
       <c r="H160" s="2"/>
@@ -10253,20 +10305,20 @@
       <c r="AG160" s="2"/>
       <c r="AH160" s="2"/>
     </row>
-    <row r="161" ht="13.55" customHeight="1">
+    <row r="161" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C161" t="s" s="10">
-        <v>455</v>
+      <c r="B161" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>451</v>
       </c>
       <c r="D161" s="17"/>
-      <c r="E161" t="s" s="10">
-        <v>456</v>
-      </c>
-      <c r="F161" t="s" s="10">
-        <v>457</v>
+      <c r="E161" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F161" s="10" t="s">
+        <v>453</v>
       </c>
       <c r="G161" s="16"/>
       <c r="H161" s="2"/>
@@ -10297,20 +10349,20 @@
       <c r="AG161" s="2"/>
       <c r="AH161" s="2"/>
     </row>
-    <row r="162" ht="13.55" customHeight="1">
+    <row r="162" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C162" t="s" s="13">
-        <v>458</v>
+      <c r="B162" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="13" t="s">
+        <v>454</v>
       </c>
       <c r="D162" s="18"/>
-      <c r="E162" t="s" s="13">
-        <v>184</v>
-      </c>
-      <c r="F162" t="s" s="14">
-        <v>459</v>
+      <c r="E162" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F162" s="14" t="s">
+        <v>455</v>
       </c>
       <c r="G162" s="8"/>
       <c r="H162" s="2"/>
@@ -10341,20 +10393,20 @@
       <c r="AG162" s="2"/>
       <c r="AH162" s="2"/>
     </row>
-    <row r="163" ht="30" customHeight="1">
+    <row r="163" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C163" t="s" s="10">
-        <v>460</v>
+      <c r="B163" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>456</v>
       </c>
       <c r="D163" s="17"/>
-      <c r="E163" t="s" s="10">
-        <v>461</v>
-      </c>
-      <c r="F163" t="s" s="10">
-        <v>462</v>
+      <c r="E163" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F163" s="10" t="s">
+        <v>458</v>
       </c>
       <c r="G163" s="16"/>
       <c r="H163" s="2"/>
@@ -10385,20 +10437,20 @@
       <c r="AG163" s="2"/>
       <c r="AH163" s="2"/>
     </row>
-    <row r="164" ht="30" customHeight="1">
+    <row r="164" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C164" t="s" s="13">
-        <v>463</v>
+      <c r="B164" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="13" t="s">
+        <v>459</v>
       </c>
       <c r="D164" s="18"/>
-      <c r="E164" t="s" s="13">
-        <v>464</v>
-      </c>
-      <c r="F164" t="s" s="14">
-        <v>465</v>
+      <c r="E164" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>461</v>
       </c>
       <c r="G164" s="8"/>
       <c r="H164" s="2"/>
@@ -10429,20 +10481,20 @@
       <c r="AG164" s="2"/>
       <c r="AH164" s="2"/>
     </row>
-    <row r="165" ht="30" customHeight="1">
+    <row r="165" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C165" t="s" s="10">
-        <v>466</v>
+      <c r="B165" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>462</v>
       </c>
       <c r="D165" s="17"/>
-      <c r="E165" t="s" s="10">
-        <v>467</v>
-      </c>
-      <c r="F165" t="s" s="10">
-        <v>468</v>
+      <c r="E165" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F165" s="10" t="s">
+        <v>464</v>
       </c>
       <c r="G165" s="16"/>
       <c r="H165" s="2"/>
@@ -10473,20 +10525,20 @@
       <c r="AG165" s="2"/>
       <c r="AH165" s="2"/>
     </row>
-    <row r="166" ht="13.55" customHeight="1">
+    <row r="166" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="B166" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C166" t="s" s="13">
-        <v>469</v>
+      <c r="B166" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="13" t="s">
+        <v>465</v>
       </c>
       <c r="D166" s="18"/>
-      <c r="E166" t="s" s="13">
-        <v>470</v>
-      </c>
-      <c r="F166" t="s" s="14">
-        <v>471</v>
+      <c r="E166" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>467</v>
       </c>
       <c r="G166" s="8"/>
       <c r="H166" s="2"/>
@@ -10517,20 +10569,20 @@
       <c r="AG166" s="2"/>
       <c r="AH166" s="2"/>
     </row>
-    <row r="167" ht="30" customHeight="1">
+    <row r="167" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C167" t="s" s="10">
-        <v>472</v>
+      <c r="B167" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>468</v>
       </c>
       <c r="D167" s="17"/>
-      <c r="E167" t="s" s="10">
-        <v>473</v>
-      </c>
-      <c r="F167" t="s" s="10">
-        <v>474</v>
+      <c r="E167" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F167" s="10" t="s">
+        <v>470</v>
       </c>
       <c r="G167" s="16"/>
       <c r="H167" s="2"/>
@@ -10561,20 +10613,20 @@
       <c r="AG167" s="2"/>
       <c r="AH167" s="2"/>
     </row>
-    <row r="168" ht="13.55" customHeight="1">
+    <row r="168" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C168" t="s" s="13">
-        <v>475</v>
+      <c r="B168" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="13" t="s">
+        <v>471</v>
       </c>
       <c r="D168" s="18"/>
-      <c r="E168" t="s" s="13">
-        <v>363</v>
-      </c>
-      <c r="F168" t="s" s="14">
-        <v>476</v>
+      <c r="E168" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F168" s="14" t="s">
+        <v>472</v>
       </c>
       <c r="G168" s="8"/>
       <c r="H168" s="2"/>
@@ -10605,20 +10657,20 @@
       <c r="AG168" s="2"/>
       <c r="AH168" s="2"/>
     </row>
-    <row r="169" ht="30" customHeight="1">
+    <row r="169" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="B169" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C169" t="s" s="10">
-        <v>477</v>
+      <c r="B169" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>473</v>
       </c>
       <c r="D169" s="17"/>
-      <c r="E169" t="s" s="10">
-        <v>420</v>
-      </c>
-      <c r="F169" t="s" s="10">
-        <v>421</v>
+      <c r="E169" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F169" s="10" t="s">
+        <v>419</v>
       </c>
       <c r="G169" s="16"/>
       <c r="H169" s="2"/>
@@ -10649,20 +10701,20 @@
       <c r="AG169" s="2"/>
       <c r="AH169" s="2"/>
     </row>
-    <row r="170" ht="13.55" customHeight="1">
+    <row r="170" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="B170" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C170" t="s" s="13">
-        <v>478</v>
+      <c r="B170" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="13" t="s">
+        <v>474</v>
       </c>
       <c r="D170" s="18"/>
-      <c r="E170" t="s" s="13">
-        <v>479</v>
-      </c>
-      <c r="F170" t="s" s="14">
-        <v>480</v>
+      <c r="E170" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>476</v>
       </c>
       <c r="G170" s="8"/>
       <c r="H170" s="2"/>
@@ -10693,20 +10745,20 @@
       <c r="AG170" s="2"/>
       <c r="AH170" s="2"/>
     </row>
-    <row r="171" ht="13.55" customHeight="1">
+    <row r="171" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
-      <c r="B171" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C171" t="s" s="10">
-        <v>481</v>
+      <c r="B171" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>477</v>
       </c>
       <c r="D171" s="17"/>
-      <c r="E171" t="s" s="10">
-        <v>482</v>
-      </c>
-      <c r="F171" t="s" s="10">
-        <v>483</v>
+      <c r="E171" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F171" s="10" t="s">
+        <v>479</v>
       </c>
       <c r="G171" s="16"/>
       <c r="H171" s="2"/>
@@ -10737,20 +10789,20 @@
       <c r="AG171" s="2"/>
       <c r="AH171" s="2"/>
     </row>
-    <row r="172" ht="13.55" customHeight="1">
+    <row r="172" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C172" t="s" s="13">
-        <v>484</v>
+      <c r="B172" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="13" t="s">
+        <v>480</v>
       </c>
       <c r="D172" s="18"/>
-      <c r="E172" t="s" s="13">
-        <v>485</v>
-      </c>
-      <c r="F172" t="s" s="14">
-        <v>486</v>
+      <c r="E172" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F172" s="14" t="s">
+        <v>482</v>
       </c>
       <c r="G172" s="8"/>
       <c r="H172" s="2"/>
@@ -10781,20 +10833,20 @@
       <c r="AG172" s="2"/>
       <c r="AH172" s="2"/>
     </row>
-    <row r="173" ht="13.55" customHeight="1">
+    <row r="173" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
-      <c r="B173" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C173" t="s" s="10">
-        <v>487</v>
+      <c r="B173" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>483</v>
       </c>
       <c r="D173" s="17"/>
-      <c r="E173" t="s" s="10">
-        <v>205</v>
-      </c>
-      <c r="F173" t="s" s="10">
-        <v>206</v>
+      <c r="E173" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F173" s="10" t="s">
+        <v>204</v>
       </c>
       <c r="G173" s="16"/>
       <c r="H173" s="2"/>
@@ -10825,20 +10877,20 @@
       <c r="AG173" s="2"/>
       <c r="AH173" s="2"/>
     </row>
-    <row r="174" ht="13.55" customHeight="1">
+    <row r="174" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C174" t="s" s="13">
-        <v>488</v>
+      <c r="B174" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="13" t="s">
+        <v>484</v>
       </c>
       <c r="D174" s="18"/>
-      <c r="E174" t="s" s="13">
-        <v>489</v>
-      </c>
-      <c r="F174" t="s" s="14">
-        <v>490</v>
+      <c r="E174" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>486</v>
       </c>
       <c r="G174" s="8"/>
       <c r="H174" s="2"/>
@@ -10869,20 +10921,20 @@
       <c r="AG174" s="2"/>
       <c r="AH174" s="2"/>
     </row>
-    <row r="175" ht="13.55" customHeight="1">
+    <row r="175" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C175" t="s" s="10">
-        <v>491</v>
+      <c r="B175" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>487</v>
       </c>
       <c r="D175" s="17"/>
-      <c r="E175" t="s" s="10">
-        <v>492</v>
-      </c>
-      <c r="F175" t="s" s="10">
-        <v>493</v>
+      <c r="E175" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F175" s="10" t="s">
+        <v>489</v>
       </c>
       <c r="G175" s="16"/>
       <c r="H175" s="2"/>
@@ -10913,20 +10965,20 @@
       <c r="AG175" s="2"/>
       <c r="AH175" s="2"/>
     </row>
-    <row r="176" ht="13.55" customHeight="1">
+    <row r="176" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C176" t="s" s="13">
-        <v>494</v>
+      <c r="B176" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="13" t="s">
+        <v>490</v>
       </c>
       <c r="D176" s="18"/>
-      <c r="E176" t="s" s="13">
+      <c r="E176" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F176" s="14" t="s">
         <v>85</v>
-      </c>
-      <c r="F176" t="s" s="14">
-        <v>86</v>
       </c>
       <c r="G176" s="8"/>
       <c r="H176" s="2"/>
@@ -10957,20 +11009,20 @@
       <c r="AG176" s="2"/>
       <c r="AH176" s="2"/>
     </row>
-    <row r="177" ht="13.55" customHeight="1">
+    <row r="177" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C177" t="s" s="10">
-        <v>495</v>
+      <c r="B177" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>491</v>
       </c>
       <c r="D177" s="17"/>
-      <c r="E177" t="s" s="10">
-        <v>496</v>
-      </c>
-      <c r="F177" t="s" s="10">
-        <v>497</v>
+      <c r="E177" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F177" s="10" t="s">
+        <v>493</v>
       </c>
       <c r="G177" s="16"/>
       <c r="H177" s="2"/>
@@ -11001,20 +11053,20 @@
       <c r="AG177" s="2"/>
       <c r="AH177" s="2"/>
     </row>
-    <row r="178" ht="13.55" customHeight="1">
+    <row r="178" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C178" t="s" s="13">
-        <v>498</v>
+      <c r="B178" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" s="13" t="s">
+        <v>494</v>
       </c>
       <c r="D178" s="18"/>
-      <c r="E178" t="s" s="13">
-        <v>485</v>
-      </c>
-      <c r="F178" t="s" s="14">
-        <v>486</v>
+      <c r="E178" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>561</v>
       </c>
       <c r="G178" s="8"/>
       <c r="H178" s="2"/>
@@ -11045,20 +11097,20 @@
       <c r="AG178" s="2"/>
       <c r="AH178" s="2"/>
     </row>
-    <row r="179" ht="13.55" customHeight="1">
+    <row r="179" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C179" t="s" s="10">
-        <v>499</v>
+      <c r="B179" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>495</v>
       </c>
       <c r="D179" s="17"/>
-      <c r="E179" t="s" s="10">
-        <v>500</v>
-      </c>
-      <c r="F179" t="s" s="10">
-        <v>501</v>
+      <c r="E179" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F179" s="10" t="s">
+        <v>562</v>
       </c>
       <c r="G179" s="16"/>
       <c r="H179" s="2"/>
@@ -11089,20 +11141,20 @@
       <c r="AG179" s="2"/>
       <c r="AH179" s="2"/>
     </row>
-    <row r="180" ht="13.55" customHeight="1">
+    <row r="180" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C180" t="s" s="13">
-        <v>502</v>
+      <c r="B180" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="13" t="s">
+        <v>497</v>
       </c>
       <c r="D180" s="18"/>
-      <c r="E180" t="s" s="13">
-        <v>503</v>
-      </c>
-      <c r="F180" t="s" s="14">
-        <v>504</v>
+      <c r="E180" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F180" s="14" t="s">
+        <v>499</v>
       </c>
       <c r="G180" s="8"/>
       <c r="H180" s="2"/>
@@ -11133,20 +11185,20 @@
       <c r="AG180" s="2"/>
       <c r="AH180" s="2"/>
     </row>
-    <row r="181" ht="13.55" customHeight="1">
+    <row r="181" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C181" t="s" s="10">
-        <v>505</v>
+      <c r="B181" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>500</v>
       </c>
       <c r="D181" s="17"/>
-      <c r="E181" t="s" s="10">
-        <v>506</v>
-      </c>
-      <c r="F181" t="s" s="10">
-        <v>507</v>
+      <c r="E181" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F181" s="10" t="s">
+        <v>502</v>
       </c>
       <c r="G181" s="16"/>
       <c r="H181" s="2"/>
@@ -11177,20 +11229,20 @@
       <c r="AG181" s="2"/>
       <c r="AH181" s="2"/>
     </row>
-    <row r="182" ht="13.55" customHeight="1">
+    <row r="182" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C182" t="s" s="13">
-        <v>508</v>
+      <c r="B182" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="13" t="s">
+        <v>503</v>
       </c>
       <c r="D182" s="18"/>
-      <c r="E182" t="s" s="13">
-        <v>88</v>
-      </c>
-      <c r="F182" t="s" s="14">
-        <v>509</v>
+      <c r="E182" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>504</v>
       </c>
       <c r="G182" s="8"/>
       <c r="H182" s="2"/>
@@ -11221,20 +11273,20 @@
       <c r="AG182" s="2"/>
       <c r="AH182" s="2"/>
     </row>
-    <row r="183" ht="13.55" customHeight="1">
+    <row r="183" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="B183" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C183" t="s" s="10">
-        <v>510</v>
+      <c r="B183" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>505</v>
       </c>
       <c r="D183" s="17"/>
-      <c r="E183" t="s" s="10">
+      <c r="E183" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F183" s="10" t="s">
         <v>91</v>
-      </c>
-      <c r="F183" t="s" s="10">
-        <v>92</v>
       </c>
       <c r="G183" s="16"/>
       <c r="H183" s="2"/>
@@ -11265,20 +11317,20 @@
       <c r="AG183" s="2"/>
       <c r="AH183" s="2"/>
     </row>
-    <row r="184" ht="13.55" customHeight="1">
+    <row r="184" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="B184" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C184" t="s" s="13">
-        <v>511</v>
+      <c r="B184" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="13" t="s">
+        <v>506</v>
       </c>
       <c r="D184" s="18"/>
-      <c r="E184" t="s" s="13">
-        <v>512</v>
-      </c>
-      <c r="F184" t="s" s="14">
-        <v>513</v>
+      <c r="E184" s="13" t="s">
+        <v>507</v>
+      </c>
+      <c r="F184" s="14" t="s">
+        <v>508</v>
       </c>
       <c r="G184" s="8"/>
       <c r="H184" s="19"/>
@@ -11309,20 +11361,20 @@
       <c r="AG184" s="2"/>
       <c r="AH184" s="2"/>
     </row>
-    <row r="185" ht="13.55" customHeight="1">
+    <row r="185" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="B185" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C185" t="s" s="10">
-        <v>514</v>
+      <c r="B185" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>509</v>
       </c>
       <c r="D185" s="17"/>
-      <c r="E185" t="s" s="10">
-        <v>512</v>
-      </c>
-      <c r="F185" t="s" s="10">
-        <v>513</v>
+      <c r="E185" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F185" s="10" t="s">
+        <v>508</v>
       </c>
       <c r="G185" s="16"/>
       <c r="H185" s="2"/>
@@ -11353,20 +11405,20 @@
       <c r="AG185" s="2"/>
       <c r="AH185" s="2"/>
     </row>
-    <row r="186" ht="13.55" customHeight="1">
+    <row r="186" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C186" t="s" s="13">
-        <v>515</v>
+      <c r="B186" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="13" t="s">
+        <v>510</v>
       </c>
       <c r="D186" s="18"/>
-      <c r="E186" t="s" s="13">
-        <v>516</v>
-      </c>
-      <c r="F186" t="s" s="14">
-        <v>517</v>
+      <c r="E186" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F186" s="14" t="s">
+        <v>512</v>
       </c>
       <c r="G186" s="8"/>
       <c r="H186" s="19"/>
@@ -11397,20 +11449,20 @@
       <c r="AG186" s="2"/>
       <c r="AH186" s="19"/>
     </row>
-    <row r="187" ht="13.55" customHeight="1">
+    <row r="187" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="B187" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C187" t="s" s="10">
-        <v>518</v>
+      <c r="B187" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>513</v>
       </c>
       <c r="D187" s="17"/>
-      <c r="E187" t="s" s="10">
-        <v>519</v>
-      </c>
-      <c r="F187" t="s" s="10">
-        <v>520</v>
+      <c r="E187" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F187" s="10" t="s">
+        <v>515</v>
       </c>
       <c r="G187" s="16"/>
       <c r="H187" s="2"/>
@@ -11441,20 +11493,20 @@
       <c r="AG187" s="2"/>
       <c r="AH187" s="2"/>
     </row>
-    <row r="188" ht="13.55" customHeight="1">
+    <row r="188" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="B188" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C188" t="s" s="13">
-        <v>521</v>
+      <c r="B188" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="13" t="s">
+        <v>516</v>
       </c>
       <c r="D188" s="18"/>
-      <c r="E188" t="s" s="13">
-        <v>522</v>
-      </c>
-      <c r="F188" t="s" s="14">
-        <v>523</v>
+      <c r="E188" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F188" s="14" t="s">
+        <v>518</v>
       </c>
       <c r="G188" s="8"/>
       <c r="H188" s="2"/>
@@ -11485,20 +11537,20 @@
       <c r="AG188" s="2"/>
       <c r="AH188" s="2"/>
     </row>
-    <row r="189" ht="13.55" customHeight="1">
+    <row r="189" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="B189" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C189" t="s" s="10">
-        <v>524</v>
+      <c r="B189" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>519</v>
       </c>
       <c r="D189" s="17"/>
-      <c r="E189" t="s" s="10">
-        <v>525</v>
-      </c>
-      <c r="F189" t="s" s="10">
-        <v>526</v>
+      <c r="E189" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F189" s="10" t="s">
+        <v>521</v>
       </c>
       <c r="G189" s="16"/>
       <c r="H189" s="2"/>
@@ -11529,20 +11581,20 @@
       <c r="AG189" s="2"/>
       <c r="AH189" s="2"/>
     </row>
-    <row r="190" ht="13.55" customHeight="1">
+    <row r="190" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="B190" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C190" t="s" s="13">
-        <v>527</v>
+      <c r="B190" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="13" t="s">
+        <v>522</v>
       </c>
       <c r="D190" s="18"/>
-      <c r="E190" t="s" s="13">
-        <v>528</v>
-      </c>
-      <c r="F190" t="s" s="14">
-        <v>529</v>
+      <c r="E190" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>524</v>
       </c>
       <c r="G190" s="8"/>
       <c r="H190" s="2"/>
@@ -11573,20 +11625,20 @@
       <c r="AG190" s="2"/>
       <c r="AH190" s="2"/>
     </row>
-    <row r="191" ht="13.55" customHeight="1">
+    <row r="191" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C191" t="s" s="10">
-        <v>530</v>
+      <c r="B191" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>525</v>
       </c>
       <c r="D191" s="17"/>
-      <c r="E191" t="s" s="10">
-        <v>531</v>
-      </c>
-      <c r="F191" t="s" s="10">
-        <v>532</v>
+      <c r="E191" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="F191" s="10" t="s">
+        <v>527</v>
       </c>
       <c r="G191" s="16"/>
       <c r="H191" s="2"/>
@@ -11617,20 +11669,20 @@
       <c r="AG191" s="2"/>
       <c r="AH191" s="2"/>
     </row>
-    <row r="192" ht="13.55" customHeight="1">
+    <row r="192" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C192" t="s" s="13">
-        <v>533</v>
+      <c r="B192" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="13" t="s">
+        <v>528</v>
       </c>
       <c r="D192" s="18"/>
-      <c r="E192" t="s" s="13">
-        <v>534</v>
-      </c>
-      <c r="F192" t="s" s="14">
-        <v>535</v>
+      <c r="E192" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F192" s="14" t="s">
+        <v>530</v>
       </c>
       <c r="G192" s="8"/>
       <c r="H192" s="2"/>
@@ -11661,20 +11713,20 @@
       <c r="AG192" s="2"/>
       <c r="AH192" s="2"/>
     </row>
-    <row r="193" ht="13.55" customHeight="1">
+    <row r="193" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C193" t="s" s="10">
-        <v>536</v>
+      <c r="B193" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="10" t="s">
+        <v>531</v>
       </c>
       <c r="D193" s="17"/>
-      <c r="E193" t="s" s="10">
-        <v>537</v>
-      </c>
-      <c r="F193" t="s" s="10">
-        <v>538</v>
+      <c r="E193" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F193" s="10" t="s">
+        <v>533</v>
       </c>
       <c r="G193" s="16"/>
       <c r="H193" s="2"/>
@@ -11705,20 +11757,20 @@
       <c r="AG193" s="2"/>
       <c r="AH193" s="2"/>
     </row>
-    <row r="194" ht="13.55" customHeight="1">
+    <row r="194" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C194" t="s" s="13">
-        <v>539</v>
+      <c r="B194" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="13" t="s">
+        <v>534</v>
       </c>
       <c r="D194" s="18"/>
-      <c r="E194" t="s" s="13">
-        <v>540</v>
-      </c>
-      <c r="F194" t="s" s="14">
-        <v>541</v>
+      <c r="E194" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="F194" s="14" t="s">
+        <v>536</v>
       </c>
       <c r="G194" s="8"/>
       <c r="H194" s="2"/>
@@ -11749,20 +11801,20 @@
       <c r="AG194" s="2"/>
       <c r="AH194" s="2"/>
     </row>
-    <row r="195" ht="13.55" customHeight="1">
+    <row r="195" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C195" t="s" s="10">
-        <v>542</v>
+      <c r="B195" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="10" t="s">
+        <v>537</v>
       </c>
       <c r="D195" s="17"/>
-      <c r="E195" t="s" s="10">
-        <v>187</v>
-      </c>
-      <c r="F195" t="s" s="10">
-        <v>188</v>
+      <c r="E195" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F195" s="10" t="s">
+        <v>186</v>
       </c>
       <c r="G195" s="16"/>
       <c r="H195" s="2"/>
@@ -11793,20 +11845,20 @@
       <c r="AG195" s="2"/>
       <c r="AH195" s="2"/>
     </row>
-    <row r="196" ht="13.55" customHeight="1">
+    <row r="196" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="B196" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C196" t="s" s="13">
-        <v>543</v>
+      <c r="B196" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="13" t="s">
+        <v>538</v>
       </c>
       <c r="D196" s="18"/>
-      <c r="E196" t="s" s="13">
-        <v>544</v>
-      </c>
-      <c r="F196" t="s" s="14">
-        <v>545</v>
+      <c r="E196" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F196" s="14" t="s">
+        <v>540</v>
       </c>
       <c r="G196" s="8"/>
       <c r="H196" s="2"/>
@@ -11837,20 +11889,20 @@
       <c r="AG196" s="2"/>
       <c r="AH196" s="2"/>
     </row>
-    <row r="197" ht="13.55" customHeight="1">
+    <row r="197" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="B197" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C197" t="s" s="10">
-        <v>546</v>
+      <c r="B197" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="10" t="s">
+        <v>541</v>
       </c>
       <c r="D197" s="17"/>
-      <c r="E197" t="s" s="10">
-        <v>547</v>
-      </c>
-      <c r="F197" t="s" s="10">
-        <v>548</v>
+      <c r="E197" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F197" s="10" t="s">
+        <v>543</v>
       </c>
       <c r="G197" s="16"/>
       <c r="H197" s="2"/>
@@ -11881,20 +11933,20 @@
       <c r="AG197" s="2"/>
       <c r="AH197" s="2"/>
     </row>
-    <row r="198" ht="13.55" customHeight="1">
+    <row r="198" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="B198" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C198" t="s" s="13">
-        <v>549</v>
+      <c r="B198" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="13" t="s">
+        <v>544</v>
       </c>
       <c r="D198" s="18"/>
-      <c r="E198" t="s" s="13">
-        <v>550</v>
-      </c>
-      <c r="F198" t="s" s="14">
-        <v>551</v>
+      <c r="E198" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="F198" s="14" t="s">
+        <v>546</v>
       </c>
       <c r="G198" s="8"/>
       <c r="H198" s="2"/>
@@ -11925,20 +11977,20 @@
       <c r="AG198" s="2"/>
       <c r="AH198" s="2"/>
     </row>
-    <row r="199" ht="13.55" customHeight="1">
+    <row r="199" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="B199" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C199" t="s" s="10">
-        <v>552</v>
+      <c r="B199" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="10" t="s">
+        <v>547</v>
       </c>
       <c r="D199" s="17"/>
-      <c r="E199" t="s" s="10">
-        <v>553</v>
-      </c>
-      <c r="F199" t="s" s="10">
-        <v>554</v>
+      <c r="E199" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F199" s="10" t="s">
+        <v>549</v>
       </c>
       <c r="G199" s="16"/>
       <c r="H199" s="2"/>
@@ -11969,20 +12021,20 @@
       <c r="AG199" s="2"/>
       <c r="AH199" s="2"/>
     </row>
-    <row r="200" ht="13.55" customHeight="1">
+    <row r="200" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
-      <c r="B200" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C200" t="s" s="13">
-        <v>555</v>
+      <c r="B200" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="13" t="s">
+        <v>550</v>
       </c>
       <c r="D200" s="18"/>
-      <c r="E200" t="s" s="13">
-        <v>556</v>
-      </c>
-      <c r="F200" t="s" s="14">
-        <v>557</v>
+      <c r="E200" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="F200" s="14" t="s">
+        <v>552</v>
       </c>
       <c r="G200" s="8"/>
       <c r="H200" s="2"/>
@@ -12013,20 +12065,20 @@
       <c r="AG200" s="2"/>
       <c r="AH200" s="2"/>
     </row>
-    <row r="201" ht="13.55" customHeight="1">
+    <row r="201" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
-      <c r="B201" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C201" t="s" s="10">
-        <v>558</v>
+      <c r="B201" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="10" t="s">
+        <v>553</v>
       </c>
       <c r="D201" s="17"/>
-      <c r="E201" t="s" s="10">
-        <v>559</v>
-      </c>
-      <c r="F201" t="s" s="10">
-        <v>412</v>
+      <c r="E201" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F201" s="10" t="s">
+        <v>410</v>
       </c>
       <c r="G201" s="16"/>
       <c r="H201" s="2"/>
@@ -12057,20 +12109,20 @@
       <c r="AG201" s="2"/>
       <c r="AH201" s="2"/>
     </row>
-    <row r="202" ht="13.55" customHeight="1">
+    <row r="202" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
-      <c r="B202" t="s" s="12">
-        <v>34</v>
-      </c>
-      <c r="C202" t="s" s="13">
-        <v>560</v>
+      <c r="B202" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="13" t="s">
+        <v>555</v>
       </c>
       <c r="D202" s="18"/>
-      <c r="E202" t="s" s="13">
-        <v>561</v>
-      </c>
-      <c r="F202" t="s" s="14">
-        <v>562</v>
+      <c r="E202" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="F202" s="14" t="s">
+        <v>557</v>
       </c>
       <c r="G202" s="8"/>
       <c r="H202" s="19"/>
@@ -12101,20 +12153,20 @@
       <c r="AG202" s="2"/>
       <c r="AH202" s="2"/>
     </row>
-    <row r="203" ht="13.55" customHeight="1">
+    <row r="203" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
-      <c r="B203" t="s" s="9">
-        <v>34</v>
-      </c>
-      <c r="C203" t="s" s="10">
-        <v>563</v>
+      <c r="B203" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="10" t="s">
+        <v>558</v>
       </c>
       <c r="D203" s="17"/>
-      <c r="E203" t="s" s="10">
-        <v>564</v>
-      </c>
-      <c r="F203" t="s" s="10">
-        <v>565</v>
+      <c r="E203" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F203" s="10" t="s">
+        <v>560</v>
       </c>
       <c r="G203" s="16"/>
       <c r="H203" s="2"/>
@@ -12145,7 +12197,7 @@
       <c r="AG203" s="2"/>
       <c r="AH203" s="2"/>
     </row>
-    <row r="204" ht="13.55" customHeight="1">
+    <row r="204" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2"/>
       <c r="B204" s="20"/>
       <c r="C204" s="20"/>
@@ -12181,7 +12233,7 @@
       <c r="AG204" s="2"/>
       <c r="AH204" s="2"/>
     </row>
-    <row r="205" ht="13.55" customHeight="1">
+    <row r="205" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
       <c r="B205" s="2"/>
       <c r="C205" s="2"/>
@@ -12217,7 +12269,7 @@
       <c r="AG205" s="2"/>
       <c r="AH205" s="2"/>
     </row>
-    <row r="206" ht="13.55" customHeight="1">
+    <row r="206" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2"/>
       <c r="B206" s="2"/>
       <c r="C206" s="2"/>
@@ -12253,7 +12305,7 @@
       <c r="AG206" s="2"/>
       <c r="AH206" s="2"/>
     </row>
-    <row r="207" ht="13.55" customHeight="1">
+    <row r="207" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2"/>
       <c r="B207" s="2"/>
       <c r="C207" s="2"/>
@@ -12289,7 +12341,7 @@
       <c r="AG207" s="2"/>
       <c r="AH207" s="2"/>
     </row>
-    <row r="208" ht="13.55" customHeight="1">
+    <row r="208" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2"/>
       <c r="B208" s="2"/>
       <c r="C208" s="2"/>
@@ -12325,7 +12377,7 @@
       <c r="AG208" s="2"/>
       <c r="AH208" s="2"/>
     </row>
-    <row r="209" ht="13.55" customHeight="1">
+    <row r="209" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2"/>
       <c r="B209" s="2"/>
       <c r="C209" s="2"/>
@@ -12361,7 +12413,7 @@
       <c r="AG209" s="2"/>
       <c r="AH209" s="2"/>
     </row>
-    <row r="210" ht="13.55" customHeight="1">
+    <row r="210" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2"/>
       <c r="B210" s="2"/>
       <c r="C210" s="2"/>
@@ -12397,7 +12449,7 @@
       <c r="AG210" s="2"/>
       <c r="AH210" s="2"/>
     </row>
-    <row r="211" ht="13.55" customHeight="1">
+    <row r="211" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2"/>
       <c r="B211" s="2"/>
       <c r="C211" s="2"/>
@@ -12433,7 +12485,7 @@
       <c r="AG211" s="2"/>
       <c r="AH211" s="2"/>
     </row>
-    <row r="212" ht="13.55" customHeight="1">
+    <row r="212" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2"/>
       <c r="B212" s="2"/>
       <c r="C212" s="2"/>
@@ -12469,7 +12521,7 @@
       <c r="AG212" s="2"/>
       <c r="AH212" s="2"/>
     </row>
-    <row r="213" ht="13.55" customHeight="1">
+    <row r="213" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2"/>
       <c r="B213" s="2"/>
       <c r="C213" s="2"/>
@@ -12505,7 +12557,7 @@
       <c r="AG213" s="2"/>
       <c r="AH213" s="2"/>
     </row>
-    <row r="214" ht="13.55" customHeight="1">
+    <row r="214" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2"/>
       <c r="B214" s="2"/>
       <c r="C214" s="2"/>
@@ -12541,7 +12593,7 @@
       <c r="AG214" s="2"/>
       <c r="AH214" s="2"/>
     </row>
-    <row r="215" ht="13.55" customHeight="1">
+    <row r="215" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2"/>
       <c r="B215" s="2"/>
       <c r="C215" s="2"/>
@@ -12577,7 +12629,7 @@
       <c r="AG215" s="2"/>
       <c r="AH215" s="2"/>
     </row>
-    <row r="216" ht="13.55" customHeight="1">
+    <row r="216" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2"/>
       <c r="B216" s="2"/>
       <c r="C216" s="2"/>
@@ -12613,7 +12665,7 @@
       <c r="AG216" s="2"/>
       <c r="AH216" s="2"/>
     </row>
-    <row r="217" ht="13.55" customHeight="1">
+    <row r="217" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2"/>
       <c r="B217" s="2"/>
       <c r="C217" s="2"/>
@@ -12649,7 +12701,7 @@
       <c r="AG217" s="2"/>
       <c r="AH217" s="2"/>
     </row>
-    <row r="218" ht="13.55" customHeight="1">
+    <row r="218" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2"/>
       <c r="B218" s="2"/>
       <c r="C218" s="2"/>
@@ -12685,7 +12737,7 @@
       <c r="AG218" s="2"/>
       <c r="AH218" s="2"/>
     </row>
-    <row r="219" ht="13.55" customHeight="1">
+    <row r="219" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2"/>
       <c r="B219" s="2"/>
       <c r="C219" s="2"/>
@@ -12721,7 +12773,7 @@
       <c r="AG219" s="2"/>
       <c r="AH219" s="2"/>
     </row>
-    <row r="220" ht="13.55" customHeight="1">
+    <row r="220" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2"/>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -12757,7 +12809,7 @@
       <c r="AG220" s="2"/>
       <c r="AH220" s="2"/>
     </row>
-    <row r="221" ht="13.55" customHeight="1">
+    <row r="221" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2"/>
       <c r="B221" s="2"/>
       <c r="C221" s="2"/>
@@ -12793,7 +12845,7 @@
       <c r="AG221" s="2"/>
       <c r="AH221" s="2"/>
     </row>
-    <row r="222" ht="13.55" customHeight="1">
+    <row r="222" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2"/>
       <c r="B222" s="2"/>
       <c r="C222" s="2"/>
@@ -12829,7 +12881,7 @@
       <c r="AG222" s="2"/>
       <c r="AH222" s="2"/>
     </row>
-    <row r="223" ht="13.55" customHeight="1">
+    <row r="223" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2"/>
       <c r="B223" s="2"/>
       <c r="C223" s="2"/>
@@ -12865,7 +12917,7 @@
       <c r="AG223" s="2"/>
       <c r="AH223" s="2"/>
     </row>
-    <row r="224" ht="13.55" customHeight="1">
+    <row r="224" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2"/>
       <c r="B224" s="2"/>
       <c r="C224" s="2"/>
@@ -12901,7 +12953,7 @@
       <c r="AG224" s="2"/>
       <c r="AH224" s="2"/>
     </row>
-    <row r="225" ht="13.55" customHeight="1">
+    <row r="225" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2"/>
       <c r="B225" s="2"/>
       <c r="C225" s="2"/>
@@ -12937,7 +12989,7 @@
       <c r="AG225" s="2"/>
       <c r="AH225" s="2"/>
     </row>
-    <row r="226" ht="13.55" customHeight="1">
+    <row r="226" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2"/>
       <c r="B226" s="2"/>
       <c r="C226" s="2"/>
@@ -12973,7 +13025,7 @@
       <c r="AG226" s="2"/>
       <c r="AH226" s="2"/>
     </row>
-    <row r="227" ht="13.55" customHeight="1">
+    <row r="227" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2"/>
       <c r="B227" s="2"/>
       <c r="C227" s="2"/>
@@ -13009,7 +13061,7 @@
       <c r="AG227" s="2"/>
       <c r="AH227" s="2"/>
     </row>
-    <row r="228" ht="13.55" customHeight="1">
+    <row r="228" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2"/>
       <c r="B228" s="2"/>
       <c r="C228" s="2"/>
@@ -13045,7 +13097,7 @@
       <c r="AG228" s="2"/>
       <c r="AH228" s="2"/>
     </row>
-    <row r="229" ht="13.55" customHeight="1">
+    <row r="229" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2"/>
       <c r="B229" s="2"/>
       <c r="C229" s="2"/>
@@ -13081,7 +13133,7 @@
       <c r="AG229" s="2"/>
       <c r="AH229" s="19"/>
     </row>
-    <row r="230" ht="13.55" customHeight="1">
+    <row r="230" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
       <c r="B230" s="2"/>
       <c r="C230" s="2"/>
@@ -13117,7 +13169,7 @@
       <c r="AG230" s="2"/>
       <c r="AH230" s="2"/>
     </row>
-    <row r="231" ht="13.55" customHeight="1">
+    <row r="231" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -13153,7 +13205,7 @@
       <c r="AG231" s="2"/>
       <c r="AH231" s="19"/>
     </row>
-    <row r="232" ht="13.55" customHeight="1">
+    <row r="232" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -13189,7 +13241,7 @@
       <c r="AG232" s="2"/>
       <c r="AH232" s="2"/>
     </row>
-    <row r="233" ht="13.55" customHeight="1">
+    <row r="233" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
       <c r="B233" s="2"/>
       <c r="C233" s="2"/>
@@ -13225,7 +13277,7 @@
       <c r="AG233" s="2"/>
       <c r="AH233" s="19"/>
     </row>
-    <row r="234" ht="13.55" customHeight="1">
+    <row r="234" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
       <c r="B234" s="2"/>
       <c r="C234" s="2"/>
@@ -13261,7 +13313,7 @@
       <c r="AG234" s="2"/>
       <c r="AH234" s="2"/>
     </row>
-    <row r="235" ht="13.55" customHeight="1">
+    <row r="235" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
       <c r="B235" s="2"/>
       <c r="C235" s="2"/>
@@ -13297,7 +13349,7 @@
       <c r="AG235" s="2"/>
       <c r="AH235" s="2"/>
     </row>
-    <row r="236" ht="13.55" customHeight="1">
+    <row r="236" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2"/>
       <c r="B236" s="2"/>
       <c r="C236" s="2"/>
@@ -13333,7 +13385,7 @@
       <c r="AG236" s="2"/>
       <c r="AH236" s="2"/>
     </row>
-    <row r="237" ht="13.55" customHeight="1">
+    <row r="237" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2"/>
       <c r="B237" s="2"/>
       <c r="C237" s="2"/>
@@ -13369,7 +13421,7 @@
       <c r="AG237" s="2"/>
       <c r="AH237" s="19"/>
     </row>
-    <row r="238" ht="13.55" customHeight="1">
+    <row r="238" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
       <c r="B238" s="2"/>
       <c r="C238" s="2"/>
@@ -13405,7 +13457,7 @@
       <c r="AG238" s="2"/>
       <c r="AH238" s="2"/>
     </row>
-    <row r="239" ht="13.55" customHeight="1">
+    <row r="239" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
       <c r="B239" s="2"/>
       <c r="C239" s="2"/>
@@ -13441,7 +13493,7 @@
       <c r="AG239" s="2"/>
       <c r="AH239" s="2"/>
     </row>
-    <row r="240" ht="13.55" customHeight="1">
+    <row r="240" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2"/>
       <c r="B240" s="2"/>
       <c r="C240" s="2"/>
@@ -13477,7 +13529,7 @@
       <c r="AG240" s="2"/>
       <c r="AH240" s="2"/>
     </row>
-    <row r="241" ht="13.55" customHeight="1">
+    <row r="241" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2"/>
       <c r="B241" s="2"/>
       <c r="C241" s="2"/>
@@ -13513,7 +13565,7 @@
       <c r="AG241" s="2"/>
       <c r="AH241" s="2"/>
     </row>
-    <row r="242" ht="13.55" customHeight="1">
+    <row r="242" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2"/>
       <c r="B242" s="2"/>
       <c r="C242" s="2"/>
@@ -13549,7 +13601,7 @@
       <c r="AG242" s="2"/>
       <c r="AH242" s="2"/>
     </row>
-    <row r="243" ht="13.55" customHeight="1">
+    <row r="243" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2"/>
       <c r="B243" s="2"/>
       <c r="C243" s="2"/>
@@ -13585,7 +13637,7 @@
       <c r="AG243" s="2"/>
       <c r="AH243" s="2"/>
     </row>
-    <row r="244" ht="13.55" customHeight="1">
+    <row r="244" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2"/>
       <c r="B244" s="2"/>
       <c r="C244" s="2"/>
@@ -13621,7 +13673,7 @@
       <c r="AG244" s="2"/>
       <c r="AH244" s="2"/>
     </row>
-    <row r="245" ht="13.55" customHeight="1">
+    <row r="245" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2"/>
       <c r="B245" s="2"/>
       <c r="C245" s="2"/>
@@ -13657,7 +13709,7 @@
       <c r="AG245" s="2"/>
       <c r="AH245" s="2"/>
     </row>
-    <row r="246" ht="13.55" customHeight="1">
+    <row r="246" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2"/>
       <c r="B246" s="2"/>
       <c r="C246" s="2"/>
@@ -13693,7 +13745,7 @@
       <c r="AG246" s="2"/>
       <c r="AH246" s="2"/>
     </row>
-    <row r="247" ht="13.55" customHeight="1">
+    <row r="247" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2"/>
       <c r="B247" s="2"/>
       <c r="C247" s="2"/>
@@ -13729,7 +13781,7 @@
       <c r="AG247" s="2"/>
       <c r="AH247" s="2"/>
     </row>
-    <row r="248" ht="13.55" customHeight="1">
+    <row r="248" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2"/>
       <c r="B248" s="2"/>
       <c r="C248" s="2"/>
@@ -13765,7 +13817,7 @@
       <c r="AG248" s="2"/>
       <c r="AH248" s="2"/>
     </row>
-    <row r="249" ht="13.55" customHeight="1">
+    <row r="249" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2"/>
       <c r="B249" s="2"/>
       <c r="C249" s="2"/>
@@ -13801,7 +13853,7 @@
       <c r="AG249" s="2"/>
       <c r="AH249" s="2"/>
     </row>
-    <row r="250" ht="13.55" customHeight="1">
+    <row r="250" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2"/>
       <c r="B250" s="2"/>
       <c r="C250" s="2"/>
@@ -13837,7 +13889,7 @@
       <c r="AG250" s="2"/>
       <c r="AH250" s="2"/>
     </row>
-    <row r="251" ht="13.55" customHeight="1">
+    <row r="251" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2"/>
       <c r="B251" s="2"/>
       <c r="C251" s="2"/>
@@ -13873,7 +13925,7 @@
       <c r="AG251" s="2"/>
       <c r="AH251" s="2"/>
     </row>
-    <row r="252" ht="13.55" customHeight="1">
+    <row r="252" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2"/>
       <c r="B252" s="2"/>
       <c r="C252" s="2"/>
@@ -13909,7 +13961,7 @@
       <c r="AG252" s="2"/>
       <c r="AH252" s="2"/>
     </row>
-    <row r="253" ht="13.55" customHeight="1">
+    <row r="253" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2"/>
       <c r="B253" s="2"/>
       <c r="C253" s="2"/>
@@ -13945,7 +13997,7 @@
       <c r="AG253" s="2"/>
       <c r="AH253" s="2"/>
     </row>
-    <row r="254" ht="13.55" customHeight="1">
+    <row r="254" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2"/>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -13981,7 +14033,7 @@
       <c r="AG254" s="2"/>
       <c r="AH254" s="2"/>
     </row>
-    <row r="255" ht="13.55" customHeight="1">
+    <row r="255" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2"/>
       <c r="B255" s="2"/>
       <c r="C255" s="2"/>
@@ -14017,7 +14069,7 @@
       <c r="AG255" s="2"/>
       <c r="AH255" s="2"/>
     </row>
-    <row r="256" ht="13.55" customHeight="1">
+    <row r="256" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2"/>
       <c r="B256" s="2"/>
       <c r="C256" s="2"/>
@@ -14053,7 +14105,7 @@
       <c r="AG256" s="2"/>
       <c r="AH256" s="2"/>
     </row>
-    <row r="257" ht="13.55" customHeight="1">
+    <row r="257" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2"/>
       <c r="B257" s="2"/>
       <c r="C257" s="2"/>
@@ -14089,7 +14141,7 @@
       <c r="AG257" s="2"/>
       <c r="AH257" s="2"/>
     </row>
-    <row r="258" ht="13.55" customHeight="1">
+    <row r="258" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2"/>
       <c r="B258" s="2"/>
       <c r="C258" s="2"/>
@@ -14125,7 +14177,7 @@
       <c r="AG258" s="2"/>
       <c r="AH258" s="2"/>
     </row>
-    <row r="259" ht="13.55" customHeight="1">
+    <row r="259" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2"/>
       <c r="B259" s="2"/>
       <c r="C259" s="2"/>
@@ -14161,7 +14213,7 @@
       <c r="AG259" s="2"/>
       <c r="AH259" s="2"/>
     </row>
-    <row r="260" ht="13.55" customHeight="1">
+    <row r="260" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2"/>
       <c r="B260" s="2"/>
       <c r="C260" s="2"/>
@@ -14197,7 +14249,7 @@
       <c r="AG260" s="2"/>
       <c r="AH260" s="2"/>
     </row>
-    <row r="261" ht="13.55" customHeight="1">
+    <row r="261" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2"/>
       <c r="B261" s="2"/>
       <c r="C261" s="2"/>
@@ -14233,7 +14285,7 @@
       <c r="AG261" s="2"/>
       <c r="AH261" s="2"/>
     </row>
-    <row r="262" ht="13.55" customHeight="1">
+    <row r="262" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2"/>
       <c r="B262" s="2"/>
       <c r="C262" s="2"/>
@@ -14269,7 +14321,7 @@
       <c r="AG262" s="2"/>
       <c r="AH262" s="2"/>
     </row>
-    <row r="263" ht="13.55" customHeight="1">
+    <row r="263" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2"/>
       <c r="B263" s="2"/>
       <c r="C263" s="2"/>
@@ -14305,7 +14357,7 @@
       <c r="AG263" s="2"/>
       <c r="AH263" s="2"/>
     </row>
-    <row r="264" ht="13.55" customHeight="1">
+    <row r="264" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2"/>
       <c r="B264" s="2"/>
       <c r="C264" s="2"/>
@@ -14341,7 +14393,7 @@
       <c r="AG264" s="2"/>
       <c r="AH264" s="2"/>
     </row>
-    <row r="265" ht="13.55" customHeight="1">
+    <row r="265" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2"/>
       <c r="B265" s="2"/>
       <c r="C265" s="2"/>
@@ -14377,7 +14429,7 @@
       <c r="AG265" s="2"/>
       <c r="AH265" s="2"/>
     </row>
-    <row r="266" ht="13.55" customHeight="1">
+    <row r="266" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2"/>
       <c r="B266" s="2"/>
       <c r="C266" s="2"/>
@@ -14413,7 +14465,7 @@
       <c r="AG266" s="2"/>
       <c r="AH266" s="2"/>
     </row>
-    <row r="267" ht="13.55" customHeight="1">
+    <row r="267" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2"/>
       <c r="B267" s="2"/>
       <c r="C267" s="2"/>
@@ -14449,7 +14501,7 @@
       <c r="AG267" s="2"/>
       <c r="AH267" s="2"/>
     </row>
-    <row r="268" ht="13.55" customHeight="1">
+    <row r="268" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2"/>
       <c r="B268" s="2"/>
       <c r="C268" s="2"/>
@@ -14485,7 +14537,7 @@
       <c r="AG268" s="2"/>
       <c r="AH268" s="2"/>
     </row>
-    <row r="269" ht="13.55" customHeight="1">
+    <row r="269" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2"/>
       <c r="B269" s="2"/>
       <c r="C269" s="2"/>
@@ -14521,7 +14573,7 @@
       <c r="AG269" s="2"/>
       <c r="AH269" s="2"/>
     </row>
-    <row r="270" ht="13.55" customHeight="1">
+    <row r="270" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2"/>
       <c r="B270" s="2"/>
       <c r="C270" s="2"/>
@@ -14557,7 +14609,7 @@
       <c r="AG270" s="2"/>
       <c r="AH270" s="2"/>
     </row>
-    <row r="271" ht="13.55" customHeight="1">
+    <row r="271" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2"/>
       <c r="B271" s="2"/>
       <c r="C271" s="2"/>
@@ -14593,7 +14645,7 @@
       <c r="AG271" s="2"/>
       <c r="AH271" s="2"/>
     </row>
-    <row r="272" ht="13.55" customHeight="1">
+    <row r="272" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2"/>
       <c r="B272" s="2"/>
       <c r="C272" s="2"/>
@@ -14629,7 +14681,7 @@
       <c r="AG272" s="2"/>
       <c r="AH272" s="2"/>
     </row>
-    <row r="273" ht="13.55" customHeight="1">
+    <row r="273" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2"/>
       <c r="B273" s="2"/>
       <c r="C273" s="2"/>
@@ -14665,7 +14717,7 @@
       <c r="AG273" s="2"/>
       <c r="AH273" s="19"/>
     </row>
-    <row r="274" ht="13.55" customHeight="1">
+    <row r="274" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
       <c r="B274" s="2"/>
       <c r="C274" s="2"/>
@@ -14701,7 +14753,7 @@
       <c r="AG274" s="2"/>
       <c r="AH274" s="19"/>
     </row>
-    <row r="275" ht="13.55" customHeight="1">
+    <row r="275" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2"/>
       <c r="B275" s="2"/>
       <c r="C275" s="2"/>
@@ -14737,7 +14789,7 @@
       <c r="AG275" s="2"/>
       <c r="AH275" s="2"/>
     </row>
-    <row r="276" ht="13.55" customHeight="1">
+    <row r="276" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
       <c r="B276" s="2"/>
       <c r="C276" s="2"/>
@@ -14773,7 +14825,7 @@
       <c r="AG276" s="2"/>
       <c r="AH276" s="2"/>
     </row>
-    <row r="277" ht="13.55" customHeight="1">
+    <row r="277" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2"/>
       <c r="B277" s="2"/>
       <c r="C277" s="2"/>
@@ -14809,7 +14861,7 @@
       <c r="AG277" s="2"/>
       <c r="AH277" s="2"/>
     </row>
-    <row r="278" ht="13.55" customHeight="1">
+    <row r="278" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2"/>
       <c r="B278" s="2"/>
       <c r="C278" s="2"/>
@@ -14845,7 +14897,7 @@
       <c r="AG278" s="2"/>
       <c r="AH278" s="2"/>
     </row>
-    <row r="279" ht="13.55" customHeight="1">
+    <row r="279" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2"/>
       <c r="B279" s="2"/>
       <c r="C279" s="2"/>
@@ -14881,7 +14933,7 @@
       <c r="AG279" s="2"/>
       <c r="AH279" s="2"/>
     </row>
-    <row r="280" ht="13.55" customHeight="1">
+    <row r="280" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2"/>
       <c r="B280" s="2"/>
       <c r="C280" s="2"/>
@@ -14917,7 +14969,7 @@
       <c r="AG280" s="2"/>
       <c r="AH280" s="2"/>
     </row>
-    <row r="281" ht="13.55" customHeight="1">
+    <row r="281" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2"/>
       <c r="B281" s="2"/>
       <c r="C281" s="2"/>
@@ -14953,7 +15005,7 @@
       <c r="AG281" s="2"/>
       <c r="AH281" s="2"/>
     </row>
-    <row r="282" ht="13.55" customHeight="1">
+    <row r="282" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2"/>
       <c r="B282" s="2"/>
       <c r="C282" s="2"/>
@@ -14989,7 +15041,7 @@
       <c r="AG282" s="2"/>
       <c r="AH282" s="2"/>
     </row>
-    <row r="283" ht="13.55" customHeight="1">
+    <row r="283" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2"/>
       <c r="B283" s="2"/>
       <c r="C283" s="2"/>
@@ -15025,7 +15077,7 @@
       <c r="AG283" s="2"/>
       <c r="AH283" s="2"/>
     </row>
-    <row r="284" ht="13.55" customHeight="1">
+    <row r="284" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2"/>
       <c r="B284" s="2"/>
       <c r="C284" s="2"/>
@@ -15061,7 +15113,7 @@
       <c r="AG284" s="2"/>
       <c r="AH284" s="2"/>
     </row>
-    <row r="285" ht="13.55" customHeight="1">
+    <row r="285" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2"/>
       <c r="B285" s="2"/>
       <c r="C285" s="2"/>
@@ -15097,7 +15149,7 @@
       <c r="AG285" s="2"/>
       <c r="AH285" s="2"/>
     </row>
-    <row r="286" ht="13.55" customHeight="1">
+    <row r="286" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2"/>
       <c r="B286" s="2"/>
       <c r="C286" s="2"/>
@@ -15133,7 +15185,7 @@
       <c r="AG286" s="2"/>
       <c r="AH286" s="2"/>
     </row>
-    <row r="287" ht="13.55" customHeight="1">
+    <row r="287" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2"/>
       <c r="B287" s="2"/>
       <c r="C287" s="2"/>
@@ -15169,7 +15221,7 @@
       <c r="AG287" s="2"/>
       <c r="AH287" s="2"/>
     </row>
-    <row r="288" ht="13.55" customHeight="1">
+    <row r="288" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2"/>
       <c r="B288" s="2"/>
       <c r="C288" s="2"/>
@@ -15205,7 +15257,7 @@
       <c r="AG288" s="2"/>
       <c r="AH288" s="2"/>
     </row>
-    <row r="289" ht="13.55" customHeight="1">
+    <row r="289" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2"/>
       <c r="B289" s="2"/>
       <c r="C289" s="2"/>
@@ -15241,7 +15293,7 @@
       <c r="AG289" s="2"/>
       <c r="AH289" s="2"/>
     </row>
-    <row r="290" ht="13.55" customHeight="1">
+    <row r="290" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2"/>
       <c r="B290" s="2"/>
       <c r="C290" s="2"/>
@@ -15277,7 +15329,7 @@
       <c r="AG290" s="2"/>
       <c r="AH290" s="2"/>
     </row>
-    <row r="291" ht="13.55" customHeight="1">
+    <row r="291" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2"/>
       <c r="B291" s="2"/>
       <c r="C291" s="2"/>
@@ -15313,7 +15365,7 @@
       <c r="AG291" s="2"/>
       <c r="AH291" s="2"/>
     </row>
-    <row r="292" ht="13.55" customHeight="1">
+    <row r="292" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2"/>
       <c r="B292" s="2"/>
       <c r="C292" s="2"/>
@@ -15349,7 +15401,7 @@
       <c r="AG292" s="2"/>
       <c r="AH292" s="2"/>
     </row>
-    <row r="293" ht="13.55" customHeight="1">
+    <row r="293" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2"/>
       <c r="B293" s="2"/>
       <c r="C293" s="2"/>
@@ -15385,7 +15437,7 @@
       <c r="AG293" s="2"/>
       <c r="AH293" s="2"/>
     </row>
-    <row r="294" ht="13.55" customHeight="1">
+    <row r="294" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2"/>
       <c r="B294" s="2"/>
       <c r="C294" s="2"/>
@@ -15421,7 +15473,7 @@
       <c r="AG294" s="2"/>
       <c r="AH294" s="2"/>
     </row>
-    <row r="295" ht="13.55" customHeight="1">
+    <row r="295" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2"/>
       <c r="B295" s="2"/>
       <c r="C295" s="2"/>
@@ -15457,7 +15509,7 @@
       <c r="AG295" s="2"/>
       <c r="AH295" s="2"/>
     </row>
-    <row r="296" ht="13.55" customHeight="1">
+    <row r="296" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2"/>
       <c r="B296" s="2"/>
       <c r="C296" s="2"/>
@@ -15493,7 +15545,7 @@
       <c r="AG296" s="2"/>
       <c r="AH296" s="2"/>
     </row>
-    <row r="297" ht="13.55" customHeight="1">
+    <row r="297" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2"/>
       <c r="B297" s="2"/>
       <c r="C297" s="2"/>
@@ -15529,7 +15581,7 @@
       <c r="AG297" s="2"/>
       <c r="AH297" s="2"/>
     </row>
-    <row r="298" ht="13.55" customHeight="1">
+    <row r="298" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2"/>
       <c r="B298" s="2"/>
       <c r="C298" s="2"/>
@@ -15565,7 +15617,7 @@
       <c r="AG298" s="2"/>
       <c r="AH298" s="2"/>
     </row>
-    <row r="299" ht="13.55" customHeight="1">
+    <row r="299" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2"/>
       <c r="B299" s="2"/>
       <c r="C299" s="2"/>
@@ -15601,7 +15653,7 @@
       <c r="AG299" s="2"/>
       <c r="AH299" s="2"/>
     </row>
-    <row r="300" ht="13.55" customHeight="1">
+    <row r="300" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2"/>
       <c r="B300" s="2"/>
       <c r="C300" s="2"/>
@@ -15637,7 +15689,7 @@
       <c r="AG300" s="2"/>
       <c r="AH300" s="2"/>
     </row>
-    <row r="301" ht="13.55" customHeight="1">
+    <row r="301" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2"/>
       <c r="B301" s="2"/>
       <c r="C301" s="2"/>
@@ -15673,7 +15725,7 @@
       <c r="AG301" s="2"/>
       <c r="AH301" s="2"/>
     </row>
-    <row r="302" ht="13.55" customHeight="1">
+    <row r="302" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2"/>
       <c r="B302" s="2"/>
       <c r="C302" s="2"/>
@@ -15709,7 +15761,7 @@
       <c r="AG302" s="2"/>
       <c r="AH302" s="2"/>
     </row>
-    <row r="303" ht="13.55" customHeight="1">
+    <row r="303" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2"/>
       <c r="B303" s="2"/>
       <c r="C303" s="2"/>
@@ -15745,7 +15797,7 @@
       <c r="AG303" s="2"/>
       <c r="AH303" s="2"/>
     </row>
-    <row r="304" ht="13.55" customHeight="1">
+    <row r="304" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2"/>
       <c r="B304" s="2"/>
       <c r="C304" s="2"/>
@@ -15781,7 +15833,7 @@
       <c r="AG304" s="2"/>
       <c r="AH304" s="2"/>
     </row>
-    <row r="305" ht="13.55" customHeight="1">
+    <row r="305" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2"/>
       <c r="B305" s="2"/>
       <c r="C305" s="2"/>
@@ -15817,7 +15869,7 @@
       <c r="AG305" s="2"/>
       <c r="AH305" s="2"/>
     </row>
-    <row r="306" ht="13.55" customHeight="1">
+    <row r="306" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2"/>
       <c r="B306" s="2"/>
       <c r="C306" s="2"/>
@@ -15853,7 +15905,7 @@
       <c r="AG306" s="2"/>
       <c r="AH306" s="2"/>
     </row>
-    <row r="307" ht="13.55" customHeight="1">
+    <row r="307" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2"/>
       <c r="B307" s="2"/>
       <c r="C307" s="2"/>
@@ -15889,7 +15941,7 @@
       <c r="AG307" s="2"/>
       <c r="AH307" s="2"/>
     </row>
-    <row r="308" ht="13.55" customHeight="1">
+    <row r="308" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2"/>
       <c r="B308" s="2"/>
       <c r="C308" s="2"/>
@@ -15925,7 +15977,7 @@
       <c r="AG308" s="2"/>
       <c r="AH308" s="2"/>
     </row>
-    <row r="309" ht="13.55" customHeight="1">
+    <row r="309" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2"/>
       <c r="B309" s="2"/>
       <c r="C309" s="2"/>
@@ -15961,7 +16013,7 @@
       <c r="AG309" s="2"/>
       <c r="AH309" s="2"/>
     </row>
-    <row r="310" ht="13.55" customHeight="1">
+    <row r="310" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2"/>
       <c r="B310" s="2"/>
       <c r="C310" s="2"/>
@@ -15997,7 +16049,7 @@
       <c r="AG310" s="2"/>
       <c r="AH310" s="2"/>
     </row>
-    <row r="311" ht="13.55" customHeight="1">
+    <row r="311" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2"/>
       <c r="B311" s="2"/>
       <c r="C311" s="2"/>
@@ -16033,7 +16085,7 @@
       <c r="AG311" s="2"/>
       <c r="AH311" s="2"/>
     </row>
-    <row r="312" ht="13.55" customHeight="1">
+    <row r="312" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2"/>
       <c r="B312" s="2"/>
       <c r="C312" s="2"/>
@@ -16069,7 +16121,7 @@
       <c r="AG312" s="2"/>
       <c r="AH312" s="2"/>
     </row>
-    <row r="313" ht="13.55" customHeight="1">
+    <row r="313" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2"/>
       <c r="B313" s="2"/>
       <c r="C313" s="2"/>
@@ -16105,7 +16157,7 @@
       <c r="AG313" s="2"/>
       <c r="AH313" s="2"/>
     </row>
-    <row r="314" ht="13.55" customHeight="1">
+    <row r="314" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2"/>
       <c r="B314" s="2"/>
       <c r="C314" s="2"/>
@@ -16141,7 +16193,7 @@
       <c r="AG314" s="2"/>
       <c r="AH314" s="2"/>
     </row>
-    <row r="315" ht="13.55" customHeight="1">
+    <row r="315" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2"/>
       <c r="B315" s="2"/>
       <c r="C315" s="2"/>
@@ -16177,7 +16229,7 @@
       <c r="AG315" s="2"/>
       <c r="AH315" s="2"/>
     </row>
-    <row r="316" ht="13.55" customHeight="1">
+    <row r="316" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2"/>
       <c r="B316" s="2"/>
       <c r="C316" s="2"/>
@@ -16213,7 +16265,7 @@
       <c r="AG316" s="2"/>
       <c r="AH316" s="2"/>
     </row>
-    <row r="317" ht="13.55" customHeight="1">
+    <row r="317" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2"/>
       <c r="B317" s="2"/>
       <c r="C317" s="2"/>
@@ -16249,7 +16301,7 @@
       <c r="AG317" s="2"/>
       <c r="AH317" s="2"/>
     </row>
-    <row r="318" ht="13.55" customHeight="1">
+    <row r="318" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2"/>
       <c r="B318" s="2"/>
       <c r="C318" s="2"/>
@@ -16285,7 +16337,7 @@
       <c r="AG318" s="2"/>
       <c r="AH318" s="2"/>
     </row>
-    <row r="319" ht="13.55" customHeight="1">
+    <row r="319" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2"/>
       <c r="B319" s="2"/>
       <c r="C319" s="2"/>
@@ -16321,7 +16373,7 @@
       <c r="AG319" s="2"/>
       <c r="AH319" s="2"/>
     </row>
-    <row r="320" ht="13.55" customHeight="1">
+    <row r="320" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2"/>
       <c r="B320" s="2"/>
       <c r="C320" s="2"/>
@@ -16357,7 +16409,7 @@
       <c r="AG320" s="2"/>
       <c r="AH320" s="19"/>
     </row>
-    <row r="321" ht="13.55" customHeight="1">
+    <row r="321" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
       <c r="B321" s="2"/>
       <c r="C321" s="2"/>
@@ -16393,7 +16445,7 @@
       <c r="AG321" s="2"/>
       <c r="AH321" s="2"/>
     </row>
-    <row r="322" ht="13.55" customHeight="1">
+    <row r="322" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
       <c r="B322" s="2"/>
       <c r="C322" s="2"/>
@@ -16429,7 +16481,7 @@
       <c r="AG322" s="2"/>
       <c r="AH322" s="2"/>
     </row>
-    <row r="323" ht="13.55" customHeight="1">
+    <row r="323" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2"/>
       <c r="B323" s="2"/>
       <c r="C323" s="2"/>
@@ -16465,7 +16517,7 @@
       <c r="AG323" s="2"/>
       <c r="AH323" s="19"/>
     </row>
-    <row r="324" ht="13.55" customHeight="1">
+    <row r="324" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
       <c r="B324" s="2"/>
       <c r="C324" s="2"/>
@@ -16501,7 +16553,7 @@
       <c r="AG324" s="2"/>
       <c r="AH324" s="19"/>
     </row>
-    <row r="325" ht="13.55" customHeight="1">
+    <row r="325" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2"/>
       <c r="B325" s="2"/>
       <c r="C325" s="2"/>
@@ -16537,7 +16589,7 @@
       <c r="AG325" s="2"/>
       <c r="AH325" s="2"/>
     </row>
-    <row r="326" ht="13.55" customHeight="1">
+    <row r="326" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
       <c r="B326" s="2"/>
       <c r="C326" s="2"/>
@@ -16573,7 +16625,7 @@
       <c r="AG326" s="2"/>
       <c r="AH326" s="19"/>
     </row>
-    <row r="327" ht="13.55" customHeight="1">
+    <row r="327" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
       <c r="B327" s="2"/>
       <c r="C327" s="2"/>
@@ -16609,7 +16661,7 @@
       <c r="AG327" s="2"/>
       <c r="AH327" s="2"/>
     </row>
-    <row r="328" ht="13.55" customHeight="1">
+    <row r="328" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
       <c r="B328" s="2"/>
       <c r="C328" s="2"/>
@@ -16645,7 +16697,7 @@
       <c r="AG328" s="2"/>
       <c r="AH328" s="2"/>
     </row>
-    <row r="329" ht="13.55" customHeight="1">
+    <row r="329" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2"/>
       <c r="B329" s="2"/>
       <c r="C329" s="2"/>
@@ -16681,7 +16733,7 @@
       <c r="AG329" s="2"/>
       <c r="AH329" s="2"/>
     </row>
-    <row r="330" ht="13.55" customHeight="1">
+    <row r="330" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2"/>
       <c r="B330" s="2"/>
       <c r="C330" s="2"/>
@@ -16717,7 +16769,7 @@
       <c r="AG330" s="2"/>
       <c r="AH330" s="2"/>
     </row>
-    <row r="331" ht="13.55" customHeight="1">
+    <row r="331" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2"/>
       <c r="B331" s="2"/>
       <c r="C331" s="2"/>
@@ -16753,7 +16805,7 @@
       <c r="AG331" s="2"/>
       <c r="AH331" s="2"/>
     </row>
-    <row r="332" ht="13.55" customHeight="1">
+    <row r="332" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2"/>
       <c r="B332" s="2"/>
       <c r="C332" s="2"/>
@@ -16791,7 +16843,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
+  <pageSetup orientation="portrait"/>
   <headerFooter>
     <oddFooter>&amp;C&amp;"Helvetica Neue,Regular"&amp;12&amp;K000000&amp;P</oddFooter>
   </headerFooter>

--- a/ErgoLux/localization/Portuguese (pt-BR) translation.xlsx
+++ b/ErgoLux/localization/Portuguese (pt-BR) translation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44993843R\source\repos\ErgoLux\ErgoLux\localization\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C868183D-CB56-447A-828A-DFC689B7B9B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2BD2F5-252D-486B-97EF-FBE2C825B237}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="823" uniqueCount="567">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="828" uniqueCount="570">
   <si>
     <t>File</t>
   </si>
@@ -1773,6 +1773,15 @@
   </si>
   <si>
     <t>Projeção.png</t>
+  </si>
+  <si>
+    <t>strWindowPos</t>
+  </si>
+  <si>
+    <t>In "settings" form, tab "User interface"</t>
+  </si>
+  <si>
+    <t>Remember window position and size on startup</t>
   </si>
 </sst>
 </file>
@@ -1790,6 +1799,7 @@
       <sz val="11"/>
       <color indexed="9"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="5">
@@ -3202,7 +3212,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AH332"/>
+  <dimension ref="A1:AH333"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3211,7 +3221,7 @@
     <col min="1" max="1" width="10.85546875" style="1" customWidth="1"/>
     <col min="2" max="2" width="30.28515625" style="1" customWidth="1"/>
     <col min="3" max="3" width="25.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="32.7109375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="35.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="67.140625" style="1" customWidth="1"/>
     <col min="6" max="6" width="67.42578125" style="1" customWidth="1"/>
     <col min="7" max="7" width="17.85546875" style="1" customWidth="1"/>
@@ -4329,7 +4339,9 @@
       <c r="C25" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="D25" s="17"/>
+      <c r="D25" s="17" t="s">
+        <v>568</v>
+      </c>
       <c r="E25" s="10" t="s">
         <v>75</v>
       </c>
@@ -4629,22 +4641,22 @@
       <c r="AG31" s="2"/>
       <c r="AH31" s="2"/>
     </row>
-    <row r="32" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="D32" s="18"/>
-      <c r="E32" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F32" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="G32" s="8"/>
+      <c r="B32" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>567</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>568</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>569</v>
+      </c>
+      <c r="F32" s="10"/>
+      <c r="G32" s="16"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -4673,22 +4685,22 @@
       <c r="AG32" s="2"/>
       <c r="AH32" s="2"/>
     </row>
-    <row r="33" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C33" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="D33" s="17"/>
-      <c r="E33" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="F33" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="G33" s="16"/>
+      <c r="B33" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="18"/>
+      <c r="E33" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>97</v>
+      </c>
+      <c r="G33" s="8"/>
       <c r="H33" s="2"/>
       <c r="I33" s="2"/>
       <c r="J33" s="2"/>
@@ -4717,22 +4729,22 @@
       <c r="AG33" s="2"/>
       <c r="AH33" s="2"/>
     </row>
-    <row r="34" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C34" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" s="18"/>
-      <c r="E34" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F34" s="14" t="s">
-        <v>103</v>
-      </c>
-      <c r="G34" s="8"/>
+      <c r="B34" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="G34" s="16"/>
       <c r="H34" s="2"/>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -4761,22 +4773,22 @@
       <c r="AG34" s="2"/>
       <c r="AH34" s="2"/>
     </row>
-    <row r="35" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C35" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="D35" s="17"/>
-      <c r="E35" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F35" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G35" s="16"/>
+      <c r="B35" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>101</v>
+      </c>
+      <c r="D35" s="18"/>
+      <c r="E35" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G35" s="8"/>
       <c r="H35" s="2"/>
       <c r="I35" s="2"/>
       <c r="J35" s="2"/>
@@ -4807,20 +4819,20 @@
     </row>
     <row r="36" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C36" s="13" t="s">
-        <v>107</v>
-      </c>
-      <c r="D36" s="18"/>
-      <c r="E36" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="F36" s="14" t="s">
-        <v>109</v>
-      </c>
-      <c r="G36" s="8"/>
+      <c r="B36" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="D36" s="17"/>
+      <c r="E36" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G36" s="16"/>
       <c r="H36" s="2"/>
       <c r="I36" s="2"/>
       <c r="J36" s="2"/>
@@ -4851,20 +4863,20 @@
     </row>
     <row r="37" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C37" s="10" t="s">
-        <v>110</v>
-      </c>
-      <c r="D37" s="17"/>
-      <c r="E37" s="10" t="s">
-        <v>111</v>
-      </c>
-      <c r="F37" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="G37" s="16"/>
+      <c r="B37" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="13" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="18"/>
+      <c r="E37" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>109</v>
+      </c>
+      <c r="G37" s="8"/>
       <c r="H37" s="2"/>
       <c r="I37" s="2"/>
       <c r="J37" s="2"/>
@@ -4895,20 +4907,20 @@
     </row>
     <row r="38" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C38" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="D38" s="18"/>
-      <c r="E38" s="13" t="s">
-        <v>114</v>
-      </c>
-      <c r="F38" s="14" t="s">
-        <v>115</v>
-      </c>
-      <c r="G38" s="8"/>
+      <c r="B38" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="D38" s="17"/>
+      <c r="E38" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G38" s="16"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
       <c r="J38" s="2"/>
@@ -4939,20 +4951,20 @@
     </row>
     <row r="39" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C39" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="D39" s="17"/>
-      <c r="E39" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="F39" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="G39" s="16"/>
+      <c r="B39" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C39" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G39" s="8"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
@@ -4983,20 +4995,20 @@
     </row>
     <row r="40" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
-      <c r="B40" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C40" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D40" s="18"/>
-      <c r="E40" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F40" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G40" s="8"/>
+      <c r="B40" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="D40" s="17"/>
+      <c r="E40" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="16"/>
       <c r="H40" s="2"/>
       <c r="I40" s="2"/>
       <c r="J40" s="2"/>
@@ -5027,20 +5039,20 @@
     </row>
     <row r="41" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C41" s="10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D41" s="17"/>
-      <c r="E41" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="F41" s="10" t="s">
-        <v>124</v>
-      </c>
-      <c r="G41" s="16"/>
+      <c r="B41" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C41" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="D41" s="18"/>
+      <c r="E41" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G41" s="8"/>
       <c r="H41" s="2"/>
       <c r="I41" s="2"/>
       <c r="J41" s="2"/>
@@ -5071,20 +5083,20 @@
     </row>
     <row r="42" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="18"/>
-      <c r="E42" s="13" t="s">
-        <v>126</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="8"/>
+      <c r="B42" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C42" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D42" s="17"/>
+      <c r="E42" s="10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="16"/>
       <c r="H42" s="2"/>
       <c r="I42" s="2"/>
       <c r="J42" s="2"/>
@@ -5115,20 +5127,20 @@
     </row>
     <row r="43" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C43" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="D43" s="17"/>
-      <c r="E43" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F43" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G43" s="16"/>
+      <c r="B43" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C43" s="13" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="18"/>
+      <c r="E43" s="13" t="s">
+        <v>126</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>127</v>
+      </c>
+      <c r="G43" s="8"/>
       <c r="H43" s="2"/>
       <c r="I43" s="2"/>
       <c r="J43" s="2"/>
@@ -5159,20 +5171,20 @@
     </row>
     <row r="44" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C44" s="13" t="s">
-        <v>130</v>
-      </c>
-      <c r="D44" s="18"/>
-      <c r="E44" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="F44" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G44" s="8"/>
+      <c r="B44" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C44" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="17"/>
+      <c r="E44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="F44" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G44" s="16"/>
       <c r="H44" s="2"/>
       <c r="I44" s="2"/>
       <c r="J44" s="2"/>
@@ -5203,20 +5215,20 @@
     </row>
     <row r="45" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C45" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="D45" s="17"/>
-      <c r="E45" s="10" t="s">
-        <v>134</v>
-      </c>
-      <c r="F45" s="10" t="s">
-        <v>135</v>
-      </c>
-      <c r="G45" s="16"/>
+      <c r="B45" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D45" s="18"/>
+      <c r="E45" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="F45" s="14" t="s">
+        <v>132</v>
+      </c>
+      <c r="G45" s="8"/>
       <c r="H45" s="2"/>
       <c r="I45" s="2"/>
       <c r="J45" s="2"/>
@@ -5247,20 +5259,20 @@
     </row>
     <row r="46" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C46" s="13" t="s">
-        <v>136</v>
-      </c>
-      <c r="D46" s="18"/>
-      <c r="E46" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="F46" s="14" t="s">
-        <v>138</v>
-      </c>
-      <c r="G46" s="8"/>
+      <c r="B46" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="D46" s="17"/>
+      <c r="E46" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="F46" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="G46" s="16"/>
       <c r="H46" s="2"/>
       <c r="I46" s="2"/>
       <c r="J46" s="2"/>
@@ -5291,20 +5303,20 @@
     </row>
     <row r="47" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C47" s="10" t="s">
-        <v>139</v>
-      </c>
-      <c r="D47" s="17"/>
-      <c r="E47" s="10" t="s">
-        <v>140</v>
-      </c>
-      <c r="F47" s="10" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="16"/>
+      <c r="B47" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="13" t="s">
+        <v>136</v>
+      </c>
+      <c r="D47" s="18"/>
+      <c r="E47" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="F47" s="14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G47" s="8"/>
       <c r="H47" s="2"/>
       <c r="I47" s="2"/>
       <c r="J47" s="2"/>
@@ -5335,20 +5347,20 @@
     </row>
     <row r="48" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C48" s="13" t="s">
-        <v>142</v>
-      </c>
-      <c r="D48" s="18"/>
-      <c r="E48" s="13" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="G48" s="8"/>
+      <c r="B48" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C48" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="17"/>
+      <c r="E48" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="F48" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="16"/>
       <c r="H48" s="2"/>
       <c r="I48" s="2"/>
       <c r="J48" s="2"/>
@@ -5379,20 +5391,20 @@
     </row>
     <row r="49" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C49" s="10" t="s">
-        <v>144</v>
-      </c>
-      <c r="D49" s="17"/>
-      <c r="E49" s="10" t="s">
-        <v>145</v>
-      </c>
-      <c r="F49" s="10" t="s">
-        <v>146</v>
-      </c>
-      <c r="G49" s="16"/>
+      <c r="B49" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D49" s="18"/>
+      <c r="E49" s="13" t="s">
+        <v>143</v>
+      </c>
+      <c r="F49" s="14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G49" s="8"/>
       <c r="H49" s="2"/>
       <c r="I49" s="2"/>
       <c r="J49" s="2"/>
@@ -5423,20 +5435,20 @@
     </row>
     <row r="50" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C50" s="13" t="s">
-        <v>147</v>
-      </c>
-      <c r="D50" s="18"/>
-      <c r="E50" s="13" t="s">
-        <v>134</v>
-      </c>
-      <c r="F50" s="14" t="s">
-        <v>135</v>
-      </c>
-      <c r="G50" s="8"/>
+      <c r="B50" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="D50" s="17"/>
+      <c r="E50" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="F50" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="G50" s="16"/>
       <c r="H50" s="2"/>
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
@@ -5467,20 +5479,20 @@
     </row>
     <row r="51" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C51" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="D51" s="17"/>
-      <c r="E51" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F51" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G51" s="16"/>
+      <c r="B51" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C51" s="13" t="s">
+        <v>147</v>
+      </c>
+      <c r="D51" s="18"/>
+      <c r="E51" s="13" t="s">
+        <v>134</v>
+      </c>
+      <c r="F51" s="14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G51" s="8"/>
       <c r="H51" s="2"/>
       <c r="I51" s="2"/>
       <c r="J51" s="2"/>
@@ -5511,20 +5523,20 @@
     </row>
     <row r="52" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="4"/>
-      <c r="B52" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>151</v>
-      </c>
-      <c r="D52" s="18"/>
-      <c r="E52" s="13" t="s">
-        <v>152</v>
-      </c>
-      <c r="F52" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="G52" s="8"/>
+      <c r="B52" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D52" s="17"/>
+      <c r="E52" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F52" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G52" s="16"/>
       <c r="H52" s="2"/>
       <c r="I52" s="2"/>
       <c r="J52" s="2"/>
@@ -5555,20 +5567,20 @@
     </row>
     <row r="53" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C53" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="D53" s="17"/>
-      <c r="E53" s="10" t="s">
-        <v>155</v>
-      </c>
-      <c r="F53" s="10" t="s">
-        <v>565</v>
-      </c>
-      <c r="G53" s="16"/>
+      <c r="B53" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C53" s="13" t="s">
+        <v>151</v>
+      </c>
+      <c r="D53" s="18"/>
+      <c r="E53" s="13" t="s">
+        <v>152</v>
+      </c>
+      <c r="F53" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G53" s="8"/>
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
@@ -5599,20 +5611,20 @@
     </row>
     <row r="54" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C54" s="13" t="s">
-        <v>156</v>
-      </c>
-      <c r="D54" s="18"/>
-      <c r="E54" s="13" t="s">
-        <v>157</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="G54" s="8"/>
+      <c r="B54" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="D54" s="17"/>
+      <c r="E54" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="F54" s="10" t="s">
+        <v>565</v>
+      </c>
+      <c r="G54" s="16"/>
       <c r="H54" s="2"/>
       <c r="I54" s="2"/>
       <c r="J54" s="2"/>
@@ -5643,20 +5655,20 @@
     </row>
     <row r="55" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C55" s="10" t="s">
-        <v>159</v>
-      </c>
-      <c r="D55" s="17"/>
-      <c r="E55" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="F55" s="10" t="s">
-        <v>161</v>
-      </c>
-      <c r="G55" s="16"/>
+      <c r="B55" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C55" s="13" t="s">
+        <v>156</v>
+      </c>
+      <c r="D55" s="18"/>
+      <c r="E55" s="13" t="s">
+        <v>157</v>
+      </c>
+      <c r="F55" s="14" t="s">
+        <v>158</v>
+      </c>
+      <c r="G55" s="8"/>
       <c r="H55" s="2"/>
       <c r="I55" s="2"/>
       <c r="J55" s="2"/>
@@ -5687,20 +5699,20 @@
     </row>
     <row r="56" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C56" s="13" t="s">
-        <v>162</v>
-      </c>
-      <c r="D56" s="18"/>
-      <c r="E56" s="13" t="s">
-        <v>163</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>164</v>
-      </c>
-      <c r="G56" s="8"/>
+      <c r="B56" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="D56" s="17"/>
+      <c r="E56" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G56" s="16"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2"/>
@@ -5731,20 +5743,20 @@
     </row>
     <row r="57" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C57" s="10" t="s">
-        <v>165</v>
-      </c>
-      <c r="D57" s="17"/>
-      <c r="E57" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>167</v>
-      </c>
-      <c r="G57" s="16"/>
+      <c r="B57" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C57" s="13" t="s">
+        <v>162</v>
+      </c>
+      <c r="D57" s="18"/>
+      <c r="E57" s="13" t="s">
+        <v>163</v>
+      </c>
+      <c r="F57" s="14" t="s">
+        <v>164</v>
+      </c>
+      <c r="G57" s="8"/>
       <c r="H57" s="2"/>
       <c r="I57" s="2"/>
       <c r="J57" s="2"/>
@@ -5775,20 +5787,20 @@
     </row>
     <row r="58" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C58" s="13" t="s">
-        <v>168</v>
-      </c>
-      <c r="D58" s="18"/>
-      <c r="E58" s="13" t="s">
-        <v>169</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G58" s="8"/>
+      <c r="B58" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D58" s="17"/>
+      <c r="E58" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F58" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G58" s="16"/>
       <c r="H58" s="2"/>
       <c r="I58" s="2"/>
       <c r="J58" s="2"/>
@@ -5819,20 +5831,20 @@
     </row>
     <row r="59" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C59" s="10" t="s">
-        <v>171</v>
-      </c>
-      <c r="D59" s="17"/>
-      <c r="E59" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="F59" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="G59" s="16"/>
+      <c r="B59" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C59" s="13" t="s">
+        <v>168</v>
+      </c>
+      <c r="D59" s="18"/>
+      <c r="E59" s="13" t="s">
+        <v>169</v>
+      </c>
+      <c r="F59" s="14" t="s">
+        <v>170</v>
+      </c>
+      <c r="G59" s="8"/>
       <c r="H59" s="2"/>
       <c r="I59" s="2"/>
       <c r="J59" s="2"/>
@@ -5863,20 +5875,20 @@
     </row>
     <row r="60" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>174</v>
-      </c>
-      <c r="D60" s="18"/>
-      <c r="E60" s="13" t="s">
-        <v>175</v>
-      </c>
-      <c r="F60" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G60" s="8"/>
+      <c r="B60" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="D60" s="17"/>
+      <c r="E60" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="F60" s="10" t="s">
+        <v>173</v>
+      </c>
+      <c r="G60" s="16"/>
       <c r="H60" s="2"/>
       <c r="I60" s="2"/>
       <c r="J60" s="2"/>
@@ -5907,20 +5919,20 @@
     </row>
     <row r="61" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>176</v>
-      </c>
-      <c r="D61" s="17"/>
-      <c r="E61" s="10" t="s">
-        <v>177</v>
-      </c>
-      <c r="F61" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="G61" s="16"/>
+      <c r="B61" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="13" t="s">
+        <v>174</v>
+      </c>
+      <c r="D61" s="18"/>
+      <c r="E61" s="13" t="s">
+        <v>175</v>
+      </c>
+      <c r="F61" s="14" t="s">
+        <v>175</v>
+      </c>
+      <c r="G61" s="8"/>
       <c r="H61" s="2"/>
       <c r="I61" s="2"/>
       <c r="J61" s="2"/>
@@ -5951,20 +5963,20 @@
     </row>
     <row r="62" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C62" s="13" t="s">
-        <v>179</v>
-      </c>
-      <c r="D62" s="18"/>
-      <c r="E62" s="13" t="s">
-        <v>180</v>
-      </c>
-      <c r="F62" s="14" t="s">
-        <v>180</v>
-      </c>
-      <c r="G62" s="8"/>
+      <c r="B62" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="17"/>
+      <c r="E62" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="F62" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="G62" s="16"/>
       <c r="H62" s="2"/>
       <c r="I62" s="2"/>
       <c r="J62" s="2"/>
@@ -5995,20 +6007,20 @@
     </row>
     <row r="63" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="4"/>
-      <c r="B63" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63" s="10" t="s">
-        <v>181</v>
-      </c>
-      <c r="D63" s="17"/>
-      <c r="E63" s="10" t="s">
-        <v>182</v>
-      </c>
-      <c r="F63" s="10" t="s">
-        <v>183</v>
-      </c>
-      <c r="G63" s="16"/>
+      <c r="B63" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63" s="13" t="s">
+        <v>179</v>
+      </c>
+      <c r="D63" s="18"/>
+      <c r="E63" s="13" t="s">
+        <v>180</v>
+      </c>
+      <c r="F63" s="14" t="s">
+        <v>180</v>
+      </c>
+      <c r="G63" s="8"/>
       <c r="H63" s="2"/>
       <c r="I63" s="2"/>
       <c r="J63" s="2"/>
@@ -6039,20 +6051,20 @@
     </row>
     <row r="64" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="4"/>
-      <c r="B64" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>184</v>
-      </c>
-      <c r="D64" s="18"/>
-      <c r="E64" s="13" t="s">
-        <v>185</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>186</v>
-      </c>
-      <c r="G64" s="8"/>
+      <c r="B64" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C64" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="D64" s="17"/>
+      <c r="E64" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="F64" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="G64" s="16"/>
       <c r="H64" s="2"/>
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
@@ -6083,20 +6095,20 @@
     </row>
     <row r="65" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="4"/>
-      <c r="B65" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C65" s="10" t="s">
-        <v>187</v>
-      </c>
-      <c r="D65" s="17"/>
-      <c r="E65" s="10" t="s">
-        <v>188</v>
-      </c>
-      <c r="F65" s="10" t="s">
-        <v>189</v>
-      </c>
-      <c r="G65" s="16"/>
+      <c r="B65" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C65" s="13" t="s">
+        <v>184</v>
+      </c>
+      <c r="D65" s="18"/>
+      <c r="E65" s="13" t="s">
+        <v>185</v>
+      </c>
+      <c r="F65" s="14" t="s">
+        <v>186</v>
+      </c>
+      <c r="G65" s="8"/>
       <c r="H65" s="2"/>
       <c r="I65" s="2"/>
       <c r="J65" s="2"/>
@@ -6127,20 +6139,20 @@
     </row>
     <row r="66" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="4"/>
-      <c r="B66" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>190</v>
-      </c>
-      <c r="D66" s="18"/>
-      <c r="E66" s="13" t="s">
-        <v>191</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G66" s="8"/>
+      <c r="B66" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C66" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="D66" s="17"/>
+      <c r="E66" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="F66" s="10" t="s">
+        <v>189</v>
+      </c>
+      <c r="G66" s="16"/>
       <c r="H66" s="2"/>
       <c r="I66" s="2"/>
       <c r="J66" s="2"/>
@@ -6171,20 +6183,20 @@
     </row>
     <row r="67" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="4"/>
-      <c r="B67" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C67" s="10" t="s">
-        <v>192</v>
-      </c>
-      <c r="D67" s="17"/>
-      <c r="E67" s="10" t="s">
-        <v>193</v>
-      </c>
-      <c r="F67" s="10" t="s">
-        <v>194</v>
-      </c>
-      <c r="G67" s="16"/>
+      <c r="B67" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="18"/>
+      <c r="E67" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G67" s="8"/>
       <c r="H67" s="2"/>
       <c r="I67" s="2"/>
       <c r="J67" s="2"/>
@@ -6215,20 +6227,20 @@
     </row>
     <row r="68" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="4"/>
-      <c r="B68" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>195</v>
-      </c>
-      <c r="D68" s="18"/>
-      <c r="E68" s="13" t="s">
-        <v>196</v>
-      </c>
-      <c r="F68" s="14" t="s">
-        <v>197</v>
-      </c>
-      <c r="G68" s="8"/>
+      <c r="B68" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D68" s="17"/>
+      <c r="E68" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F68" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G68" s="16"/>
       <c r="H68" s="2"/>
       <c r="I68" s="2"/>
       <c r="J68" s="2"/>
@@ -6259,20 +6271,20 @@
     </row>
     <row r="69" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="4"/>
-      <c r="B69" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C69" s="10" t="s">
-        <v>198</v>
-      </c>
-      <c r="D69" s="17"/>
-      <c r="E69" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="F69" s="10" t="s">
-        <v>199</v>
-      </c>
-      <c r="G69" s="16"/>
+      <c r="B69" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>195</v>
+      </c>
+      <c r="D69" s="18"/>
+      <c r="E69" s="13" t="s">
+        <v>196</v>
+      </c>
+      <c r="F69" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G69" s="8"/>
       <c r="H69" s="2"/>
       <c r="I69" s="2"/>
       <c r="J69" s="2"/>
@@ -6303,20 +6315,20 @@
     </row>
     <row r="70" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="4"/>
-      <c r="B70" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>200</v>
-      </c>
-      <c r="D70" s="18"/>
-      <c r="E70" s="13" t="s">
-        <v>201</v>
-      </c>
-      <c r="F70" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G70" s="8"/>
+      <c r="B70" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="D70" s="17"/>
+      <c r="E70" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="F70" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G70" s="16"/>
       <c r="H70" s="2"/>
       <c r="I70" s="2"/>
       <c r="J70" s="2"/>
@@ -6347,20 +6359,20 @@
     </row>
     <row r="71" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="4"/>
-      <c r="B71" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C71" s="10" t="s">
-        <v>202</v>
-      </c>
-      <c r="D71" s="17"/>
-      <c r="E71" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F71" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G71" s="16"/>
+      <c r="B71" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>200</v>
+      </c>
+      <c r="D71" s="18"/>
+      <c r="E71" s="13" t="s">
+        <v>201</v>
+      </c>
+      <c r="F71" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G71" s="8"/>
       <c r="H71" s="2"/>
       <c r="I71" s="2"/>
       <c r="J71" s="2"/>
@@ -6391,20 +6403,20 @@
     </row>
     <row r="72" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="4"/>
-      <c r="B72" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>205</v>
-      </c>
-      <c r="D72" s="18"/>
-      <c r="E72" s="13" t="s">
-        <v>206</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G72" s="8"/>
+      <c r="B72" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D72" s="17"/>
+      <c r="E72" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F72" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G72" s="16"/>
       <c r="H72" s="2"/>
       <c r="I72" s="2"/>
       <c r="J72" s="2"/>
@@ -6435,20 +6447,20 @@
     </row>
     <row r="73" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="4"/>
-      <c r="B73" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C73" s="10" t="s">
-        <v>208</v>
-      </c>
-      <c r="D73" s="17"/>
-      <c r="E73" s="10" t="s">
-        <v>209</v>
-      </c>
-      <c r="F73" s="10" t="s">
-        <v>210</v>
-      </c>
-      <c r="G73" s="16"/>
+      <c r="B73" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="13" t="s">
+        <v>205</v>
+      </c>
+      <c r="D73" s="18"/>
+      <c r="E73" s="13" t="s">
+        <v>206</v>
+      </c>
+      <c r="F73" s="14" t="s">
+        <v>207</v>
+      </c>
+      <c r="G73" s="8"/>
       <c r="H73" s="2"/>
       <c r="I73" s="2"/>
       <c r="J73" s="2"/>
@@ -6479,20 +6491,20 @@
     </row>
     <row r="74" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="4"/>
-      <c r="B74" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C74" s="13" t="s">
-        <v>211</v>
-      </c>
-      <c r="D74" s="18"/>
-      <c r="E74" s="13" t="s">
-        <v>212</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>213</v>
-      </c>
-      <c r="G74" s="8"/>
+      <c r="B74" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D74" s="17"/>
+      <c r="E74" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="F74" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="G74" s="16"/>
       <c r="H74" s="2"/>
       <c r="I74" s="2"/>
       <c r="J74" s="2"/>
@@ -6523,20 +6535,20 @@
     </row>
     <row r="75" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="4"/>
-      <c r="B75" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C75" s="10" t="s">
-        <v>214</v>
-      </c>
-      <c r="D75" s="17"/>
-      <c r="E75" s="10" t="s">
-        <v>215</v>
-      </c>
-      <c r="F75" s="10" t="s">
-        <v>216</v>
-      </c>
-      <c r="G75" s="16"/>
+      <c r="B75" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C75" s="13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D75" s="18"/>
+      <c r="E75" s="13" t="s">
+        <v>212</v>
+      </c>
+      <c r="F75" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G75" s="8"/>
       <c r="H75" s="2"/>
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
@@ -6567,20 +6579,20 @@
     </row>
     <row r="76" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="4"/>
-      <c r="B76" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C76" s="13" t="s">
-        <v>217</v>
-      </c>
-      <c r="D76" s="18"/>
-      <c r="E76" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G76" s="8"/>
+      <c r="B76" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>214</v>
+      </c>
+      <c r="D76" s="17"/>
+      <c r="E76" s="10" t="s">
+        <v>215</v>
+      </c>
+      <c r="F76" s="10" t="s">
+        <v>216</v>
+      </c>
+      <c r="G76" s="16"/>
       <c r="H76" s="2"/>
       <c r="I76" s="2"/>
       <c r="J76" s="2"/>
@@ -6611,20 +6623,20 @@
     </row>
     <row r="77" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="4"/>
-      <c r="B77" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="10" t="s">
-        <v>218</v>
-      </c>
-      <c r="D77" s="17"/>
-      <c r="E77" s="10" t="s">
-        <v>219</v>
-      </c>
-      <c r="F77" s="10" t="s">
-        <v>220</v>
-      </c>
-      <c r="G77" s="16"/>
+      <c r="B77" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>217</v>
+      </c>
+      <c r="D77" s="18"/>
+      <c r="E77" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G77" s="8"/>
       <c r="H77" s="2"/>
       <c r="I77" s="2"/>
       <c r="J77" s="2"/>
@@ -6655,20 +6667,20 @@
     </row>
     <row r="78" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="4"/>
-      <c r="B78" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>221</v>
-      </c>
-      <c r="D78" s="18"/>
-      <c r="E78" s="13" t="s">
-        <v>222</v>
-      </c>
-      <c r="F78" s="14" t="s">
-        <v>223</v>
-      </c>
-      <c r="G78" s="8"/>
+      <c r="B78" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>218</v>
+      </c>
+      <c r="D78" s="17"/>
+      <c r="E78" s="10" t="s">
+        <v>219</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>220</v>
+      </c>
+      <c r="G78" s="16"/>
       <c r="H78" s="2"/>
       <c r="I78" s="2"/>
       <c r="J78" s="2"/>
@@ -6699,20 +6711,20 @@
     </row>
     <row r="79" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="4"/>
-      <c r="B79" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C79" s="10" t="s">
-        <v>224</v>
-      </c>
-      <c r="D79" s="17"/>
-      <c r="E79" s="10" t="s">
-        <v>225</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>226</v>
-      </c>
-      <c r="G79" s="16"/>
+      <c r="B79" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C79" s="13" t="s">
+        <v>221</v>
+      </c>
+      <c r="D79" s="18"/>
+      <c r="E79" s="13" t="s">
+        <v>222</v>
+      </c>
+      <c r="F79" s="14" t="s">
+        <v>223</v>
+      </c>
+      <c r="G79" s="8"/>
       <c r="H79" s="2"/>
       <c r="I79" s="2"/>
       <c r="J79" s="2"/>
@@ -6743,20 +6755,20 @@
     </row>
     <row r="80" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="4"/>
-      <c r="B80" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>227</v>
-      </c>
-      <c r="D80" s="18"/>
-      <c r="E80" s="13" t="s">
-        <v>228</v>
-      </c>
-      <c r="F80" s="14" t="s">
-        <v>229</v>
-      </c>
-      <c r="G80" s="8"/>
+      <c r="B80" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>224</v>
+      </c>
+      <c r="D80" s="17"/>
+      <c r="E80" s="10" t="s">
+        <v>225</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>226</v>
+      </c>
+      <c r="G80" s="16"/>
       <c r="H80" s="2"/>
       <c r="I80" s="2"/>
       <c r="J80" s="2"/>
@@ -6787,20 +6799,20 @@
     </row>
     <row r="81" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="4"/>
-      <c r="B81" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C81" s="10" t="s">
-        <v>230</v>
-      </c>
-      <c r="D81" s="17"/>
-      <c r="E81" s="10" t="s">
-        <v>231</v>
-      </c>
-      <c r="F81" s="10" t="s">
-        <v>232</v>
-      </c>
-      <c r="G81" s="16"/>
+      <c r="B81" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>227</v>
+      </c>
+      <c r="D81" s="18"/>
+      <c r="E81" s="13" t="s">
+        <v>228</v>
+      </c>
+      <c r="F81" s="14" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" s="8"/>
       <c r="H81" s="2"/>
       <c r="I81" s="2"/>
       <c r="J81" s="2"/>
@@ -6831,20 +6843,20 @@
     </row>
     <row r="82" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="4"/>
-      <c r="B82" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C82" s="13" t="s">
-        <v>233</v>
-      </c>
-      <c r="D82" s="18"/>
-      <c r="E82" s="13" t="s">
-        <v>234</v>
-      </c>
-      <c r="F82" s="14" t="s">
-        <v>235</v>
-      </c>
-      <c r="G82" s="8"/>
+      <c r="B82" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>230</v>
+      </c>
+      <c r="D82" s="17"/>
+      <c r="E82" s="10" t="s">
+        <v>231</v>
+      </c>
+      <c r="F82" s="10" t="s">
+        <v>232</v>
+      </c>
+      <c r="G82" s="16"/>
       <c r="H82" s="2"/>
       <c r="I82" s="2"/>
       <c r="J82" s="2"/>
@@ -6875,20 +6887,20 @@
     </row>
     <row r="83" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="4"/>
-      <c r="B83" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C83" s="10" t="s">
-        <v>236</v>
-      </c>
-      <c r="D83" s="17"/>
-      <c r="E83" s="10" t="s">
-        <v>237</v>
-      </c>
-      <c r="F83" s="10" t="s">
-        <v>238</v>
-      </c>
-      <c r="G83" s="16"/>
+      <c r="B83" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>233</v>
+      </c>
+      <c r="D83" s="18"/>
+      <c r="E83" s="13" t="s">
+        <v>234</v>
+      </c>
+      <c r="F83" s="14" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" s="8"/>
       <c r="H83" s="2"/>
       <c r="I83" s="2"/>
       <c r="J83" s="2"/>
@@ -6919,20 +6931,20 @@
     </row>
     <row r="84" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="4"/>
-      <c r="B84" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>239</v>
-      </c>
-      <c r="D84" s="18"/>
-      <c r="E84" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>241</v>
-      </c>
-      <c r="G84" s="8"/>
+      <c r="B84" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>236</v>
+      </c>
+      <c r="D84" s="17"/>
+      <c r="E84" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="F84" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="G84" s="16"/>
       <c r="H84" s="2"/>
       <c r="I84" s="2"/>
       <c r="J84" s="2"/>
@@ -6963,20 +6975,20 @@
     </row>
     <row r="85" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="4"/>
-      <c r="B85" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C85" s="10" t="s">
-        <v>242</v>
-      </c>
-      <c r="D85" s="17"/>
-      <c r="E85" s="10" t="s">
-        <v>243</v>
-      </c>
-      <c r="F85" s="10" t="s">
-        <v>244</v>
-      </c>
-      <c r="G85" s="16"/>
+      <c r="B85" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="D85" s="18"/>
+      <c r="E85" s="13" t="s">
+        <v>240</v>
+      </c>
+      <c r="F85" s="14" t="s">
+        <v>241</v>
+      </c>
+      <c r="G85" s="8"/>
       <c r="H85" s="2"/>
       <c r="I85" s="2"/>
       <c r="J85" s="2"/>
@@ -7007,20 +7019,20 @@
     </row>
     <row r="86" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="4"/>
-      <c r="B86" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C86" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="D86" s="18"/>
-      <c r="E86" s="13" t="s">
-        <v>246</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>247</v>
-      </c>
-      <c r="G86" s="8"/>
+      <c r="B86" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="D86" s="17"/>
+      <c r="E86" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="F86" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="G86" s="16"/>
       <c r="H86" s="2"/>
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
@@ -7051,20 +7063,20 @@
     </row>
     <row r="87" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="4"/>
-      <c r="B87" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C87" s="10" t="s">
-        <v>248</v>
-      </c>
-      <c r="D87" s="17"/>
-      <c r="E87" s="10" t="s">
-        <v>249</v>
-      </c>
-      <c r="F87" s="10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G87" s="16"/>
+      <c r="B87" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>245</v>
+      </c>
+      <c r="D87" s="18"/>
+      <c r="E87" s="13" t="s">
+        <v>246</v>
+      </c>
+      <c r="F87" s="14" t="s">
+        <v>247</v>
+      </c>
+      <c r="G87" s="8"/>
       <c r="H87" s="2"/>
       <c r="I87" s="2"/>
       <c r="J87" s="2"/>
@@ -7095,20 +7107,20 @@
     </row>
     <row r="88" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="4"/>
-      <c r="B88" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>251</v>
-      </c>
-      <c r="D88" s="18"/>
-      <c r="E88" s="13" t="s">
-        <v>252</v>
-      </c>
-      <c r="F88" s="14" t="s">
-        <v>253</v>
-      </c>
-      <c r="G88" s="8"/>
+      <c r="B88" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C88" s="10" t="s">
+        <v>248</v>
+      </c>
+      <c r="D88" s="17"/>
+      <c r="E88" s="10" t="s">
+        <v>249</v>
+      </c>
+      <c r="F88" s="10" t="s">
+        <v>250</v>
+      </c>
+      <c r="G88" s="16"/>
       <c r="H88" s="2"/>
       <c r="I88" s="2"/>
       <c r="J88" s="2"/>
@@ -7139,20 +7151,20 @@
     </row>
     <row r="89" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="4"/>
-      <c r="B89" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C89" s="10" t="s">
-        <v>254</v>
-      </c>
-      <c r="D89" s="17"/>
-      <c r="E89" s="10" t="s">
-        <v>255</v>
-      </c>
-      <c r="F89" s="10" t="s">
-        <v>256</v>
-      </c>
-      <c r="G89" s="16"/>
+      <c r="B89" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C89" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="D89" s="18"/>
+      <c r="E89" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="F89" s="14" t="s">
+        <v>253</v>
+      </c>
+      <c r="G89" s="8"/>
       <c r="H89" s="2"/>
       <c r="I89" s="2"/>
       <c r="J89" s="2"/>
@@ -7183,20 +7195,20 @@
     </row>
     <row r="90" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="4"/>
-      <c r="B90" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>257</v>
-      </c>
-      <c r="D90" s="18"/>
-      <c r="E90" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="F90" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G90" s="8"/>
+      <c r="B90" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C90" s="10" t="s">
+        <v>254</v>
+      </c>
+      <c r="D90" s="17"/>
+      <c r="E90" s="10" t="s">
+        <v>255</v>
+      </c>
+      <c r="F90" s="10" t="s">
+        <v>256</v>
+      </c>
+      <c r="G90" s="16"/>
       <c r="H90" s="2"/>
       <c r="I90" s="2"/>
       <c r="J90" s="2"/>
@@ -7227,20 +7239,20 @@
     </row>
     <row r="91" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="4"/>
-      <c r="B91" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C91" s="10" t="s">
-        <v>258</v>
-      </c>
-      <c r="D91" s="17"/>
-      <c r="E91" s="10" t="s">
-        <v>259</v>
-      </c>
-      <c r="F91" s="10" t="s">
-        <v>260</v>
-      </c>
-      <c r="G91" s="16"/>
+      <c r="B91" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="D91" s="18"/>
+      <c r="E91" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="F91" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G91" s="8"/>
       <c r="H91" s="2"/>
       <c r="I91" s="2"/>
       <c r="J91" s="2"/>
@@ -7271,20 +7283,20 @@
     </row>
     <row r="92" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="4"/>
-      <c r="B92" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>261</v>
-      </c>
-      <c r="D92" s="18"/>
-      <c r="E92" s="13" t="s">
-        <v>262</v>
-      </c>
-      <c r="F92" s="14" t="s">
-        <v>263</v>
-      </c>
-      <c r="G92" s="8"/>
+      <c r="B92" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C92" s="10" t="s">
+        <v>258</v>
+      </c>
+      <c r="D92" s="17"/>
+      <c r="E92" s="10" t="s">
+        <v>259</v>
+      </c>
+      <c r="F92" s="10" t="s">
+        <v>260</v>
+      </c>
+      <c r="G92" s="16"/>
       <c r="H92" s="2"/>
       <c r="I92" s="2"/>
       <c r="J92" s="2"/>
@@ -7315,20 +7327,20 @@
     </row>
     <row r="93" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="4"/>
-      <c r="B93" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C93" s="10" t="s">
-        <v>264</v>
-      </c>
-      <c r="D93" s="17"/>
-      <c r="E93" s="10" t="s">
-        <v>265</v>
-      </c>
-      <c r="F93" s="10" t="s">
-        <v>266</v>
-      </c>
-      <c r="G93" s="16"/>
+      <c r="B93" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="D93" s="18"/>
+      <c r="E93" s="13" t="s">
+        <v>262</v>
+      </c>
+      <c r="F93" s="14" t="s">
+        <v>263</v>
+      </c>
+      <c r="G93" s="8"/>
       <c r="H93" s="2"/>
       <c r="I93" s="2"/>
       <c r="J93" s="2"/>
@@ -7359,20 +7371,20 @@
     </row>
     <row r="94" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="4"/>
-      <c r="B94" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="D94" s="18"/>
-      <c r="E94" s="13" t="s">
-        <v>268</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>269</v>
-      </c>
-      <c r="G94" s="8"/>
+      <c r="B94" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" s="10" t="s">
+        <v>264</v>
+      </c>
+      <c r="D94" s="17"/>
+      <c r="E94" s="10" t="s">
+        <v>265</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="G94" s="16"/>
       <c r="H94" s="2"/>
       <c r="I94" s="2"/>
       <c r="J94" s="2"/>
@@ -7403,20 +7415,20 @@
     </row>
     <row r="95" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="4"/>
-      <c r="B95" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C95" s="10" t="s">
-        <v>270</v>
-      </c>
-      <c r="D95" s="17"/>
-      <c r="E95" s="10" t="s">
-        <v>271</v>
-      </c>
-      <c r="F95" s="10" t="s">
-        <v>272</v>
-      </c>
-      <c r="G95" s="16"/>
+      <c r="B95" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="D95" s="18"/>
+      <c r="E95" s="13" t="s">
+        <v>268</v>
+      </c>
+      <c r="F95" s="14" t="s">
+        <v>269</v>
+      </c>
+      <c r="G95" s="8"/>
       <c r="H95" s="2"/>
       <c r="I95" s="2"/>
       <c r="J95" s="2"/>
@@ -7447,20 +7459,20 @@
     </row>
     <row r="96" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="4"/>
-      <c r="B96" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C96" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="D96" s="18"/>
-      <c r="E96" s="13" t="s">
-        <v>274</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>275</v>
-      </c>
-      <c r="G96" s="8"/>
+      <c r="B96" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C96" s="10" t="s">
+        <v>270</v>
+      </c>
+      <c r="D96" s="17"/>
+      <c r="E96" s="10" t="s">
+        <v>271</v>
+      </c>
+      <c r="F96" s="10" t="s">
+        <v>272</v>
+      </c>
+      <c r="G96" s="16"/>
       <c r="H96" s="2"/>
       <c r="I96" s="2"/>
       <c r="J96" s="2"/>
@@ -7491,20 +7503,20 @@
     </row>
     <row r="97" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="4"/>
-      <c r="B97" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C97" s="10" t="s">
-        <v>276</v>
-      </c>
-      <c r="D97" s="17"/>
-      <c r="E97" s="10" t="s">
-        <v>277</v>
-      </c>
-      <c r="F97" s="10" t="s">
-        <v>278</v>
-      </c>
-      <c r="G97" s="16"/>
+      <c r="B97" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="D97" s="18"/>
+      <c r="E97" s="13" t="s">
+        <v>274</v>
+      </c>
+      <c r="F97" s="14" t="s">
+        <v>275</v>
+      </c>
+      <c r="G97" s="8"/>
       <c r="H97" s="2"/>
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
@@ -7535,20 +7547,20 @@
     </row>
     <row r="98" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="4"/>
-      <c r="B98" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C98" s="13" t="s">
-        <v>279</v>
-      </c>
-      <c r="D98" s="18"/>
-      <c r="E98" s="13" t="s">
-        <v>280</v>
-      </c>
-      <c r="F98" s="14" t="s">
-        <v>281</v>
-      </c>
-      <c r="G98" s="8"/>
+      <c r="B98" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C98" s="10" t="s">
+        <v>276</v>
+      </c>
+      <c r="D98" s="17"/>
+      <c r="E98" s="10" t="s">
+        <v>277</v>
+      </c>
+      <c r="F98" s="10" t="s">
+        <v>278</v>
+      </c>
+      <c r="G98" s="16"/>
       <c r="H98" s="2"/>
       <c r="I98" s="2"/>
       <c r="J98" s="2"/>
@@ -7579,20 +7591,20 @@
     </row>
     <row r="99" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="4"/>
-      <c r="B99" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C99" s="10" t="s">
-        <v>282</v>
-      </c>
-      <c r="D99" s="17"/>
-      <c r="E99" s="10" t="s">
-        <v>283</v>
-      </c>
-      <c r="F99" s="10" t="s">
-        <v>284</v>
-      </c>
-      <c r="G99" s="16"/>
+      <c r="B99" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>279</v>
+      </c>
+      <c r="D99" s="18"/>
+      <c r="E99" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="F99" s="14" t="s">
+        <v>281</v>
+      </c>
+      <c r="G99" s="8"/>
       <c r="H99" s="2"/>
       <c r="I99" s="2"/>
       <c r="J99" s="2"/>
@@ -7623,20 +7635,20 @@
     </row>
     <row r="100" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="4"/>
-      <c r="B100" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="D100" s="18"/>
-      <c r="E100" s="13" t="s">
-        <v>286</v>
-      </c>
-      <c r="F100" s="14" t="s">
-        <v>287</v>
-      </c>
-      <c r="G100" s="8"/>
+      <c r="B100" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C100" s="10" t="s">
+        <v>282</v>
+      </c>
+      <c r="D100" s="17"/>
+      <c r="E100" s="10" t="s">
+        <v>283</v>
+      </c>
+      <c r="F100" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="G100" s="16"/>
       <c r="H100" s="2"/>
       <c r="I100" s="2"/>
       <c r="J100" s="2"/>
@@ -7667,20 +7679,20 @@
     </row>
     <row r="101" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="4"/>
-      <c r="B101" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C101" s="10" t="s">
-        <v>288</v>
-      </c>
-      <c r="D101" s="17"/>
-      <c r="E101" s="10" t="s">
-        <v>289</v>
-      </c>
-      <c r="F101" s="10" t="s">
-        <v>290</v>
-      </c>
-      <c r="G101" s="16"/>
+      <c r="B101" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="D101" s="18"/>
+      <c r="E101" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="F101" s="14" t="s">
+        <v>287</v>
+      </c>
+      <c r="G101" s="8"/>
       <c r="H101" s="2"/>
       <c r="I101" s="2"/>
       <c r="J101" s="2"/>
@@ -7711,20 +7723,20 @@
     </row>
     <row r="102" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="4"/>
-      <c r="B102" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>291</v>
-      </c>
-      <c r="D102" s="18"/>
-      <c r="E102" s="13" t="s">
-        <v>292</v>
-      </c>
-      <c r="F102" s="14" t="s">
-        <v>293</v>
-      </c>
-      <c r="G102" s="8"/>
+      <c r="B102" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C102" s="10" t="s">
+        <v>288</v>
+      </c>
+      <c r="D102" s="17"/>
+      <c r="E102" s="10" t="s">
+        <v>289</v>
+      </c>
+      <c r="F102" s="10" t="s">
+        <v>290</v>
+      </c>
+      <c r="G102" s="16"/>
       <c r="H102" s="2"/>
       <c r="I102" s="2"/>
       <c r="J102" s="2"/>
@@ -7753,22 +7765,22 @@
       <c r="AG102" s="2"/>
       <c r="AH102" s="2"/>
     </row>
-    <row r="103" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="4"/>
-      <c r="B103" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C103" s="10" t="s">
-        <v>294</v>
-      </c>
-      <c r="D103" s="17"/>
-      <c r="E103" s="10" t="s">
-        <v>295</v>
-      </c>
-      <c r="F103" s="10" t="s">
-        <v>296</v>
-      </c>
-      <c r="G103" s="16"/>
+      <c r="B103" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C103" s="13" t="s">
+        <v>291</v>
+      </c>
+      <c r="D103" s="18"/>
+      <c r="E103" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F103" s="14" t="s">
+        <v>293</v>
+      </c>
+      <c r="G103" s="8"/>
       <c r="H103" s="2"/>
       <c r="I103" s="2"/>
       <c r="J103" s="2"/>
@@ -7797,22 +7809,22 @@
       <c r="AG103" s="2"/>
       <c r="AH103" s="2"/>
     </row>
-    <row r="104" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="4"/>
-      <c r="B104" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>297</v>
-      </c>
-      <c r="D104" s="18"/>
-      <c r="E104" s="13" t="s">
-        <v>298</v>
-      </c>
-      <c r="F104" s="14" t="s">
-        <v>299</v>
-      </c>
-      <c r="G104" s="8"/>
+      <c r="B104" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C104" s="10" t="s">
+        <v>294</v>
+      </c>
+      <c r="D104" s="17"/>
+      <c r="E104" s="10" t="s">
+        <v>295</v>
+      </c>
+      <c r="F104" s="10" t="s">
+        <v>296</v>
+      </c>
+      <c r="G104" s="16"/>
       <c r="H104" s="2"/>
       <c r="I104" s="2"/>
       <c r="J104" s="2"/>
@@ -7843,20 +7855,20 @@
     </row>
     <row r="105" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="4"/>
-      <c r="B105" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C105" s="10" t="s">
-        <v>300</v>
-      </c>
-      <c r="D105" s="17"/>
-      <c r="E105" s="10" t="s">
-        <v>301</v>
-      </c>
-      <c r="F105" s="10" t="s">
-        <v>302</v>
-      </c>
-      <c r="G105" s="16"/>
+      <c r="B105" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C105" s="13" t="s">
+        <v>297</v>
+      </c>
+      <c r="D105" s="18"/>
+      <c r="E105" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="F105" s="14" t="s">
+        <v>299</v>
+      </c>
+      <c r="G105" s="8"/>
       <c r="H105" s="2"/>
       <c r="I105" s="2"/>
       <c r="J105" s="2"/>
@@ -7887,20 +7899,20 @@
     </row>
     <row r="106" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="4"/>
-      <c r="B106" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C106" s="13" t="s">
-        <v>303</v>
-      </c>
-      <c r="D106" s="18"/>
-      <c r="E106" s="13" t="s">
-        <v>304</v>
-      </c>
-      <c r="F106" s="14" t="s">
-        <v>305</v>
-      </c>
-      <c r="G106" s="8"/>
+      <c r="B106" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C106" s="10" t="s">
+        <v>300</v>
+      </c>
+      <c r="D106" s="17"/>
+      <c r="E106" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="F106" s="10" t="s">
+        <v>302</v>
+      </c>
+      <c r="G106" s="16"/>
       <c r="H106" s="2"/>
       <c r="I106" s="2"/>
       <c r="J106" s="2"/>
@@ -7929,22 +7941,22 @@
       <c r="AG106" s="2"/>
       <c r="AH106" s="2"/>
     </row>
-    <row r="107" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="4"/>
-      <c r="B107" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C107" s="10" t="s">
-        <v>306</v>
-      </c>
-      <c r="D107" s="17"/>
-      <c r="E107" s="10" t="s">
-        <v>307</v>
-      </c>
-      <c r="F107" s="10" t="s">
-        <v>308</v>
-      </c>
-      <c r="G107" s="16"/>
+      <c r="B107" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>303</v>
+      </c>
+      <c r="D107" s="18"/>
+      <c r="E107" s="13" t="s">
+        <v>304</v>
+      </c>
+      <c r="F107" s="14" t="s">
+        <v>305</v>
+      </c>
+      <c r="G107" s="8"/>
       <c r="H107" s="2"/>
       <c r="I107" s="2"/>
       <c r="J107" s="2"/>
@@ -7973,22 +7985,22 @@
       <c r="AG107" s="2"/>
       <c r="AH107" s="2"/>
     </row>
-    <row r="108" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="4"/>
-      <c r="B108" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C108" s="13" t="s">
-        <v>309</v>
-      </c>
-      <c r="D108" s="18"/>
-      <c r="E108" s="13" t="s">
-        <v>310</v>
-      </c>
-      <c r="F108" s="14" t="s">
-        <v>311</v>
-      </c>
-      <c r="G108" s="8"/>
+      <c r="B108" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C108" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="D108" s="17"/>
+      <c r="E108" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="F108" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="G108" s="16"/>
       <c r="H108" s="2"/>
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
@@ -8019,20 +8031,20 @@
     </row>
     <row r="109" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="4"/>
-      <c r="B109" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C109" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="D109" s="17"/>
-      <c r="E109" s="10" t="s">
-        <v>313</v>
-      </c>
-      <c r="F109" s="10" t="s">
-        <v>314</v>
-      </c>
-      <c r="G109" s="16"/>
+      <c r="B109" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>309</v>
+      </c>
+      <c r="D109" s="18"/>
+      <c r="E109" s="13" t="s">
+        <v>310</v>
+      </c>
+      <c r="F109" s="14" t="s">
+        <v>311</v>
+      </c>
+      <c r="G109" s="8"/>
       <c r="H109" s="2"/>
       <c r="I109" s="2"/>
       <c r="J109" s="2"/>
@@ -8063,20 +8075,20 @@
     </row>
     <row r="110" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="4"/>
-      <c r="B110" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C110" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="D110" s="18"/>
-      <c r="E110" s="13" t="s">
-        <v>316</v>
-      </c>
-      <c r="F110" s="14" t="s">
-        <v>317</v>
-      </c>
-      <c r="G110" s="8"/>
+      <c r="B110" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="10" t="s">
+        <v>312</v>
+      </c>
+      <c r="D110" s="17"/>
+      <c r="E110" s="10" t="s">
+        <v>313</v>
+      </c>
+      <c r="F110" s="10" t="s">
+        <v>314</v>
+      </c>
+      <c r="G110" s="16"/>
       <c r="H110" s="2"/>
       <c r="I110" s="2"/>
       <c r="J110" s="2"/>
@@ -8107,20 +8119,20 @@
     </row>
     <row r="111" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="4"/>
-      <c r="B111" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C111" s="10" t="s">
-        <v>318</v>
-      </c>
-      <c r="D111" s="17"/>
-      <c r="E111" s="10" t="s">
-        <v>319</v>
-      </c>
-      <c r="F111" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="G111" s="16"/>
+      <c r="B111" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>315</v>
+      </c>
+      <c r="D111" s="18"/>
+      <c r="E111" s="13" t="s">
+        <v>316</v>
+      </c>
+      <c r="F111" s="14" t="s">
+        <v>317</v>
+      </c>
+      <c r="G111" s="8"/>
       <c r="H111" s="2"/>
       <c r="I111" s="2"/>
       <c r="J111" s="2"/>
@@ -8149,22 +8161,22 @@
       <c r="AG111" s="2"/>
       <c r="AH111" s="2"/>
     </row>
-    <row r="112" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="4"/>
-      <c r="B112" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="D112" s="18"/>
-      <c r="E112" s="13" t="s">
-        <v>322</v>
-      </c>
-      <c r="F112" s="14" t="s">
-        <v>323</v>
-      </c>
-      <c r="G112" s="8"/>
+      <c r="B112" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C112" s="10" t="s">
+        <v>318</v>
+      </c>
+      <c r="D112" s="17"/>
+      <c r="E112" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="F112" s="10" t="s">
+        <v>320</v>
+      </c>
+      <c r="G112" s="16"/>
       <c r="H112" s="2"/>
       <c r="I112" s="2"/>
       <c r="J112" s="2"/>
@@ -8193,22 +8205,22 @@
       <c r="AG112" s="2"/>
       <c r="AH112" s="2"/>
     </row>
-    <row r="113" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:34" ht="60" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="4"/>
-      <c r="B113" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C113" s="10" t="s">
-        <v>324</v>
-      </c>
-      <c r="D113" s="17"/>
-      <c r="E113" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="F113" s="10" t="s">
-        <v>326</v>
-      </c>
-      <c r="G113" s="16"/>
+      <c r="B113" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>321</v>
+      </c>
+      <c r="D113" s="18"/>
+      <c r="E113" s="13" t="s">
+        <v>322</v>
+      </c>
+      <c r="F113" s="14" t="s">
+        <v>323</v>
+      </c>
+      <c r="G113" s="8"/>
       <c r="H113" s="2"/>
       <c r="I113" s="2"/>
       <c r="J113" s="2"/>
@@ -8237,22 +8249,22 @@
       <c r="AG113" s="2"/>
       <c r="AH113" s="2"/>
     </row>
-    <row r="114" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="4"/>
-      <c r="B114" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="D114" s="18"/>
-      <c r="E114" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="F114" s="14" t="s">
-        <v>329</v>
-      </c>
-      <c r="G114" s="8"/>
+      <c r="B114" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>324</v>
+      </c>
+      <c r="D114" s="17"/>
+      <c r="E114" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="F114" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G114" s="16"/>
       <c r="H114" s="2"/>
       <c r="I114" s="2"/>
       <c r="J114" s="2"/>
@@ -8281,22 +8293,22 @@
       <c r="AG114" s="2"/>
       <c r="AH114" s="2"/>
     </row>
-    <row r="115" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="4"/>
-      <c r="B115" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C115" s="10" t="s">
-        <v>330</v>
-      </c>
-      <c r="D115" s="17"/>
-      <c r="E115" s="10" t="s">
-        <v>331</v>
-      </c>
-      <c r="F115" s="10" t="s">
-        <v>332</v>
-      </c>
-      <c r="G115" s="16"/>
+      <c r="B115" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>327</v>
+      </c>
+      <c r="D115" s="18"/>
+      <c r="E115" s="13" t="s">
+        <v>328</v>
+      </c>
+      <c r="F115" s="14" t="s">
+        <v>329</v>
+      </c>
+      <c r="G115" s="8"/>
       <c r="H115" s="2"/>
       <c r="I115" s="2"/>
       <c r="J115" s="2"/>
@@ -8325,22 +8337,22 @@
       <c r="AG115" s="2"/>
       <c r="AH115" s="2"/>
     </row>
-    <row r="116" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="4"/>
-      <c r="B116" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C116" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="D116" s="18"/>
-      <c r="E116" s="13" t="s">
-        <v>334</v>
-      </c>
-      <c r="F116" s="14" t="s">
-        <v>335</v>
-      </c>
-      <c r="G116" s="8"/>
+      <c r="B116" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>330</v>
+      </c>
+      <c r="D116" s="17"/>
+      <c r="E116" s="10" t="s">
+        <v>331</v>
+      </c>
+      <c r="F116" s="10" t="s">
+        <v>332</v>
+      </c>
+      <c r="G116" s="16"/>
       <c r="H116" s="2"/>
       <c r="I116" s="2"/>
       <c r="J116" s="2"/>
@@ -8371,20 +8383,20 @@
     </row>
     <row r="117" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="4"/>
-      <c r="B117" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" s="10" t="s">
-        <v>336</v>
-      </c>
-      <c r="D117" s="17"/>
-      <c r="E117" s="10" t="s">
-        <v>337</v>
-      </c>
-      <c r="F117" s="10" t="s">
-        <v>338</v>
-      </c>
-      <c r="G117" s="16"/>
+      <c r="B117" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>333</v>
+      </c>
+      <c r="D117" s="18"/>
+      <c r="E117" s="13" t="s">
+        <v>334</v>
+      </c>
+      <c r="F117" s="14" t="s">
+        <v>335</v>
+      </c>
+      <c r="G117" s="8"/>
       <c r="H117" s="2"/>
       <c r="I117" s="2"/>
       <c r="J117" s="2"/>
@@ -8413,22 +8425,22 @@
       <c r="AG117" s="2"/>
       <c r="AH117" s="2"/>
     </row>
-    <row r="118" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="4"/>
-      <c r="B118" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>339</v>
-      </c>
-      <c r="D118" s="18"/>
-      <c r="E118" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="F118" s="14" t="s">
-        <v>341</v>
-      </c>
-      <c r="G118" s="8"/>
+      <c r="B118" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>336</v>
+      </c>
+      <c r="D118" s="17"/>
+      <c r="E118" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F118" s="10" t="s">
+        <v>338</v>
+      </c>
+      <c r="G118" s="16"/>
       <c r="H118" s="2"/>
       <c r="I118" s="2"/>
       <c r="J118" s="2"/>
@@ -8459,20 +8471,20 @@
     </row>
     <row r="119" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="4"/>
-      <c r="B119" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C119" s="10" t="s">
-        <v>342</v>
-      </c>
-      <c r="D119" s="17"/>
-      <c r="E119" s="10" t="s">
-        <v>343</v>
-      </c>
-      <c r="F119" s="10" t="s">
-        <v>344</v>
-      </c>
-      <c r="G119" s="16"/>
+      <c r="B119" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C119" s="13" t="s">
+        <v>339</v>
+      </c>
+      <c r="D119" s="18"/>
+      <c r="E119" s="13" t="s">
+        <v>340</v>
+      </c>
+      <c r="F119" s="14" t="s">
+        <v>341</v>
+      </c>
+      <c r="G119" s="8"/>
       <c r="H119" s="2"/>
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
@@ -8501,22 +8513,22 @@
       <c r="AG119" s="2"/>
       <c r="AH119" s="2"/>
     </row>
-    <row r="120" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="4"/>
-      <c r="B120" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C120" s="13" t="s">
-        <v>345</v>
-      </c>
-      <c r="D120" s="18"/>
-      <c r="E120" s="13" t="s">
-        <v>346</v>
-      </c>
-      <c r="F120" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G120" s="8"/>
+      <c r="B120" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>342</v>
+      </c>
+      <c r="D120" s="17"/>
+      <c r="E120" s="10" t="s">
+        <v>343</v>
+      </c>
+      <c r="F120" s="10" t="s">
+        <v>344</v>
+      </c>
+      <c r="G120" s="16"/>
       <c r="H120" s="2"/>
       <c r="I120" s="2"/>
       <c r="J120" s="2"/>
@@ -8545,22 +8557,22 @@
       <c r="AG120" s="2"/>
       <c r="AH120" s="2"/>
     </row>
-    <row r="121" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="4"/>
-      <c r="B121" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C121" s="10" t="s">
-        <v>348</v>
-      </c>
-      <c r="D121" s="17"/>
-      <c r="E121" s="10" t="s">
-        <v>349</v>
-      </c>
-      <c r="F121" s="10" t="s">
-        <v>350</v>
-      </c>
-      <c r="G121" s="16"/>
+      <c r="B121" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C121" s="13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D121" s="18"/>
+      <c r="E121" s="13" t="s">
+        <v>346</v>
+      </c>
+      <c r="F121" s="14" t="s">
+        <v>347</v>
+      </c>
+      <c r="G121" s="8"/>
       <c r="H121" s="2"/>
       <c r="I121" s="2"/>
       <c r="J121" s="2"/>
@@ -8589,22 +8601,22 @@
       <c r="AG121" s="2"/>
       <c r="AH121" s="2"/>
     </row>
-    <row r="122" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="4"/>
-      <c r="B122" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C122" s="13" t="s">
-        <v>351</v>
-      </c>
-      <c r="D122" s="18"/>
-      <c r="E122" s="13" t="s">
-        <v>352</v>
-      </c>
-      <c r="F122" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="G122" s="8"/>
+      <c r="B122" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>348</v>
+      </c>
+      <c r="D122" s="17"/>
+      <c r="E122" s="10" t="s">
+        <v>349</v>
+      </c>
+      <c r="F122" s="10" t="s">
+        <v>350</v>
+      </c>
+      <c r="G122" s="16"/>
       <c r="H122" s="2"/>
       <c r="I122" s="2"/>
       <c r="J122" s="2"/>
@@ -8633,22 +8645,22 @@
       <c r="AG122" s="2"/>
       <c r="AH122" s="2"/>
     </row>
-    <row r="123" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="4"/>
-      <c r="B123" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C123" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="D123" s="17"/>
-      <c r="E123" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="F123" s="10" t="s">
-        <v>356</v>
-      </c>
-      <c r="G123" s="16"/>
+      <c r="B123" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>351</v>
+      </c>
+      <c r="D123" s="18"/>
+      <c r="E123" s="13" t="s">
+        <v>352</v>
+      </c>
+      <c r="F123" s="14" t="s">
+        <v>353</v>
+      </c>
+      <c r="G123" s="8"/>
       <c r="H123" s="2"/>
       <c r="I123" s="2"/>
       <c r="J123" s="2"/>
@@ -8677,22 +8689,22 @@
       <c r="AG123" s="2"/>
       <c r="AH123" s="2"/>
     </row>
-    <row r="124" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="4"/>
-      <c r="B124" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>357</v>
-      </c>
-      <c r="D124" s="18"/>
-      <c r="E124" s="13" t="s">
-        <v>358</v>
-      </c>
-      <c r="F124" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="G124" s="8"/>
+      <c r="B124" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>354</v>
+      </c>
+      <c r="D124" s="17"/>
+      <c r="E124" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="F124" s="10" t="s">
+        <v>356</v>
+      </c>
+      <c r="G124" s="16"/>
       <c r="H124" s="2"/>
       <c r="I124" s="2"/>
       <c r="J124" s="2"/>
@@ -8721,22 +8733,22 @@
       <c r="AG124" s="2"/>
       <c r="AH124" s="2"/>
     </row>
-    <row r="125" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="4"/>
-      <c r="B125" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C125" s="10" t="s">
-        <v>360</v>
-      </c>
-      <c r="D125" s="17"/>
-      <c r="E125" s="10" t="s">
-        <v>361</v>
-      </c>
-      <c r="F125" s="10" t="s">
-        <v>362</v>
-      </c>
-      <c r="G125" s="16"/>
+      <c r="B125" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C125" s="13" t="s">
+        <v>357</v>
+      </c>
+      <c r="D125" s="18"/>
+      <c r="E125" s="13" t="s">
+        <v>358</v>
+      </c>
+      <c r="F125" s="14" t="s">
+        <v>359</v>
+      </c>
+      <c r="G125" s="8"/>
       <c r="H125" s="2"/>
       <c r="I125" s="2"/>
       <c r="J125" s="2"/>
@@ -8767,20 +8779,20 @@
     </row>
     <row r="126" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="4"/>
-      <c r="B126" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>363</v>
-      </c>
-      <c r="D126" s="18"/>
-      <c r="E126" s="13" t="s">
-        <v>364</v>
-      </c>
-      <c r="F126" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="G126" s="8"/>
+      <c r="B126" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>360</v>
+      </c>
+      <c r="D126" s="17"/>
+      <c r="E126" s="10" t="s">
+        <v>361</v>
+      </c>
+      <c r="F126" s="10" t="s">
+        <v>362</v>
+      </c>
+      <c r="G126" s="16"/>
       <c r="H126" s="2"/>
       <c r="I126" s="2"/>
       <c r="J126" s="2"/>
@@ -8811,20 +8823,20 @@
     </row>
     <row r="127" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="4"/>
-      <c r="B127" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C127" s="10" t="s">
-        <v>366</v>
-      </c>
-      <c r="D127" s="17"/>
-      <c r="E127" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F127" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G127" s="16"/>
+      <c r="B127" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C127" s="13" t="s">
+        <v>363</v>
+      </c>
+      <c r="D127" s="18"/>
+      <c r="E127" s="13" t="s">
+        <v>364</v>
+      </c>
+      <c r="F127" s="14" t="s">
+        <v>365</v>
+      </c>
+      <c r="G127" s="8"/>
       <c r="H127" s="2"/>
       <c r="I127" s="2"/>
       <c r="J127" s="2"/>
@@ -8853,22 +8865,22 @@
       <c r="AG127" s="2"/>
       <c r="AH127" s="2"/>
     </row>
-    <row r="128" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="4"/>
-      <c r="B128" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C128" s="13" t="s">
-        <v>367</v>
-      </c>
-      <c r="D128" s="18"/>
-      <c r="E128" s="13" t="s">
-        <v>368</v>
-      </c>
-      <c r="F128" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="G128" s="8"/>
+      <c r="B128" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>366</v>
+      </c>
+      <c r="D128" s="17"/>
+      <c r="E128" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F128" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G128" s="16"/>
       <c r="H128" s="2"/>
       <c r="I128" s="2"/>
       <c r="J128" s="2"/>
@@ -8897,22 +8909,22 @@
       <c r="AG128" s="2"/>
       <c r="AH128" s="2"/>
     </row>
-    <row r="129" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="4"/>
-      <c r="B129" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C129" s="10" t="s">
-        <v>370</v>
-      </c>
-      <c r="D129" s="17"/>
-      <c r="E129" s="10" t="s">
-        <v>371</v>
-      </c>
-      <c r="F129" s="10" t="s">
-        <v>372</v>
-      </c>
-      <c r="G129" s="16"/>
+      <c r="B129" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C129" s="13" t="s">
+        <v>367</v>
+      </c>
+      <c r="D129" s="18"/>
+      <c r="E129" s="13" t="s">
+        <v>368</v>
+      </c>
+      <c r="F129" s="14" t="s">
+        <v>369</v>
+      </c>
+      <c r="G129" s="8"/>
       <c r="H129" s="2"/>
       <c r="I129" s="2"/>
       <c r="J129" s="2"/>
@@ -8941,22 +8953,22 @@
       <c r="AG129" s="2"/>
       <c r="AH129" s="2"/>
     </row>
-    <row r="130" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="4"/>
-      <c r="B130" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C130" s="13" t="s">
-        <v>373</v>
-      </c>
-      <c r="D130" s="18"/>
-      <c r="E130" s="13" t="s">
-        <v>374</v>
-      </c>
-      <c r="F130" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="G130" s="8"/>
+      <c r="B130" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D130" s="17"/>
+      <c r="E130" s="10" t="s">
+        <v>371</v>
+      </c>
+      <c r="F130" s="10" t="s">
+        <v>372</v>
+      </c>
+      <c r="G130" s="16"/>
       <c r="H130" s="2"/>
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
@@ -8985,22 +8997,22 @@
       <c r="AG130" s="2"/>
       <c r="AH130" s="2"/>
     </row>
-    <row r="131" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="4"/>
-      <c r="B131" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C131" s="10" t="s">
-        <v>376</v>
-      </c>
-      <c r="D131" s="17"/>
-      <c r="E131" s="10" t="s">
-        <v>377</v>
-      </c>
-      <c r="F131" s="10" t="s">
-        <v>378</v>
-      </c>
-      <c r="G131" s="16"/>
+      <c r="B131" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C131" s="13" t="s">
+        <v>373</v>
+      </c>
+      <c r="D131" s="18"/>
+      <c r="E131" s="13" t="s">
+        <v>374</v>
+      </c>
+      <c r="F131" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="G131" s="8"/>
       <c r="H131" s="2"/>
       <c r="I131" s="2"/>
       <c r="J131" s="2"/>
@@ -9029,22 +9041,22 @@
       <c r="AG131" s="2"/>
       <c r="AH131" s="2"/>
     </row>
-    <row r="132" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="4"/>
-      <c r="B132" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C132" s="13" t="s">
-        <v>379</v>
-      </c>
-      <c r="D132" s="18"/>
-      <c r="E132" s="13" t="s">
-        <v>102</v>
-      </c>
-      <c r="F132" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="G132" s="8"/>
+      <c r="B132" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>376</v>
+      </c>
+      <c r="D132" s="17"/>
+      <c r="E132" s="10" t="s">
+        <v>377</v>
+      </c>
+      <c r="F132" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="G132" s="16"/>
       <c r="H132" s="2"/>
       <c r="I132" s="2"/>
       <c r="J132" s="2"/>
@@ -9073,22 +9085,22 @@
       <c r="AG132" s="2"/>
       <c r="AH132" s="2"/>
     </row>
-    <row r="133" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:34" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="4"/>
-      <c r="B133" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C133" s="10" t="s">
-        <v>381</v>
-      </c>
-      <c r="D133" s="17"/>
-      <c r="E133" s="10" t="s">
-        <v>105</v>
-      </c>
-      <c r="F133" s="10" t="s">
-        <v>106</v>
-      </c>
-      <c r="G133" s="16"/>
+      <c r="B133" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C133" s="13" t="s">
+        <v>379</v>
+      </c>
+      <c r="D133" s="18"/>
+      <c r="E133" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F133" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G133" s="8"/>
       <c r="H133" s="2"/>
       <c r="I133" s="2"/>
       <c r="J133" s="2"/>
@@ -9117,22 +9129,22 @@
       <c r="AG133" s="2"/>
       <c r="AH133" s="2"/>
     </row>
-    <row r="134" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="4"/>
-      <c r="B134" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C134" s="13" t="s">
-        <v>382</v>
-      </c>
-      <c r="D134" s="18"/>
-      <c r="E134" s="13" t="s">
-        <v>383</v>
-      </c>
-      <c r="F134" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="G134" s="8"/>
+      <c r="B134" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>381</v>
+      </c>
+      <c r="D134" s="17"/>
+      <c r="E134" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="F134" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="G134" s="16"/>
       <c r="H134" s="2"/>
       <c r="I134" s="2"/>
       <c r="J134" s="2"/>
@@ -9161,22 +9173,22 @@
       <c r="AG134" s="2"/>
       <c r="AH134" s="2"/>
     </row>
-    <row r="135" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:34" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="4"/>
-      <c r="B135" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C135" s="10" t="s">
-        <v>385</v>
-      </c>
-      <c r="D135" s="17"/>
-      <c r="E135" s="10" t="s">
-        <v>386</v>
-      </c>
-      <c r="F135" s="10" t="s">
-        <v>387</v>
-      </c>
-      <c r="G135" s="16"/>
+      <c r="B135" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>382</v>
+      </c>
+      <c r="D135" s="18"/>
+      <c r="E135" s="13" t="s">
+        <v>383</v>
+      </c>
+      <c r="F135" s="14" t="s">
+        <v>384</v>
+      </c>
+      <c r="G135" s="8"/>
       <c r="H135" s="2"/>
       <c r="I135" s="2"/>
       <c r="J135" s="2"/>
@@ -9207,20 +9219,20 @@
     </row>
     <row r="136" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="4"/>
-      <c r="B136" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C136" s="13" t="s">
-        <v>388</v>
-      </c>
-      <c r="D136" s="18"/>
-      <c r="E136" s="13" t="s">
-        <v>389</v>
-      </c>
-      <c r="F136" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="G136" s="8"/>
+      <c r="B136" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>385</v>
+      </c>
+      <c r="D136" s="17"/>
+      <c r="E136" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="F136" s="10" t="s">
+        <v>387</v>
+      </c>
+      <c r="G136" s="16"/>
       <c r="H136" s="2"/>
       <c r="I136" s="2"/>
       <c r="J136" s="2"/>
@@ -9249,22 +9261,22 @@
       <c r="AG136" s="2"/>
       <c r="AH136" s="2"/>
     </row>
-    <row r="137" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="4"/>
-      <c r="B137" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C137" s="10" t="s">
-        <v>391</v>
-      </c>
-      <c r="D137" s="17"/>
-      <c r="E137" s="10" t="s">
-        <v>392</v>
-      </c>
-      <c r="F137" s="10" t="s">
-        <v>393</v>
-      </c>
-      <c r="G137" s="16"/>
+      <c r="B137" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C137" s="13" t="s">
+        <v>388</v>
+      </c>
+      <c r="D137" s="18"/>
+      <c r="E137" s="13" t="s">
+        <v>389</v>
+      </c>
+      <c r="F137" s="14" t="s">
+        <v>390</v>
+      </c>
+      <c r="G137" s="8"/>
       <c r="H137" s="2"/>
       <c r="I137" s="2"/>
       <c r="J137" s="2"/>
@@ -9295,20 +9307,20 @@
     </row>
     <row r="138" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="4"/>
-      <c r="B138" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C138" s="13" t="s">
-        <v>394</v>
-      </c>
-      <c r="D138" s="18"/>
-      <c r="E138" s="13" t="s">
-        <v>395</v>
-      </c>
-      <c r="F138" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="G138" s="8"/>
+      <c r="B138" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>391</v>
+      </c>
+      <c r="D138" s="17"/>
+      <c r="E138" s="10" t="s">
+        <v>392</v>
+      </c>
+      <c r="F138" s="10" t="s">
+        <v>393</v>
+      </c>
+      <c r="G138" s="16"/>
       <c r="H138" s="2"/>
       <c r="I138" s="2"/>
       <c r="J138" s="2"/>
@@ -9339,20 +9351,20 @@
     </row>
     <row r="139" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="4"/>
-      <c r="B139" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C139" s="10" t="s">
-        <v>397</v>
-      </c>
-      <c r="D139" s="17"/>
-      <c r="E139" s="10" t="s">
-        <v>398</v>
-      </c>
-      <c r="F139" s="10" t="s">
-        <v>399</v>
-      </c>
-      <c r="G139" s="16"/>
+      <c r="B139" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C139" s="13" t="s">
+        <v>394</v>
+      </c>
+      <c r="D139" s="18"/>
+      <c r="E139" s="13" t="s">
+        <v>395</v>
+      </c>
+      <c r="F139" s="14" t="s">
+        <v>396</v>
+      </c>
+      <c r="G139" s="8"/>
       <c r="H139" s="2"/>
       <c r="I139" s="2"/>
       <c r="J139" s="2"/>
@@ -9381,22 +9393,22 @@
       <c r="AG139" s="2"/>
       <c r="AH139" s="2"/>
     </row>
-    <row r="140" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="4"/>
-      <c r="B140" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C140" s="13" t="s">
-        <v>400</v>
-      </c>
-      <c r="D140" s="18"/>
-      <c r="E140" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="F140" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="G140" s="8"/>
+      <c r="B140" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>397</v>
+      </c>
+      <c r="D140" s="17"/>
+      <c r="E140" s="10" t="s">
+        <v>398</v>
+      </c>
+      <c r="F140" s="10" t="s">
+        <v>399</v>
+      </c>
+      <c r="G140" s="16"/>
       <c r="H140" s="2"/>
       <c r="I140" s="2"/>
       <c r="J140" s="2"/>
@@ -9425,22 +9437,22 @@
       <c r="AG140" s="2"/>
       <c r="AH140" s="2"/>
     </row>
-    <row r="141" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="4"/>
-      <c r="B141" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C141" s="10" t="s">
-        <v>402</v>
-      </c>
-      <c r="D141" s="17"/>
-      <c r="E141" s="10" t="s">
-        <v>403</v>
-      </c>
-      <c r="F141" s="10" t="s">
-        <v>404</v>
-      </c>
-      <c r="G141" s="16"/>
+      <c r="B141" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>400</v>
+      </c>
+      <c r="D141" s="18"/>
+      <c r="E141" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="F141" s="14" t="s">
+        <v>401</v>
+      </c>
+      <c r="G141" s="8"/>
       <c r="H141" s="2"/>
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
@@ -9471,20 +9483,20 @@
     </row>
     <row r="142" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="4"/>
-      <c r="B142" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>405</v>
-      </c>
-      <c r="D142" s="18"/>
-      <c r="E142" s="13" t="s">
-        <v>406</v>
-      </c>
-      <c r="F142" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="G142" s="8"/>
+      <c r="B142" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>402</v>
+      </c>
+      <c r="D142" s="17"/>
+      <c r="E142" s="10" t="s">
+        <v>403</v>
+      </c>
+      <c r="F142" s="10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G142" s="16"/>
       <c r="H142" s="2"/>
       <c r="I142" s="2"/>
       <c r="J142" s="2"/>
@@ -9515,20 +9527,20 @@
     </row>
     <row r="143" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="4"/>
-      <c r="B143" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C143" s="10" t="s">
-        <v>408</v>
-      </c>
-      <c r="D143" s="17"/>
-      <c r="E143" s="10" t="s">
-        <v>409</v>
-      </c>
-      <c r="F143" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G143" s="16"/>
+      <c r="B143" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C143" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="D143" s="18"/>
+      <c r="E143" s="13" t="s">
+        <v>406</v>
+      </c>
+      <c r="F143" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="G143" s="8"/>
       <c r="H143" s="2"/>
       <c r="I143" s="2"/>
       <c r="J143" s="2"/>
@@ -9557,22 +9569,22 @@
       <c r="AG143" s="2"/>
       <c r="AH143" s="2"/>
     </row>
-    <row r="144" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="4"/>
-      <c r="B144" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C144" s="13" t="s">
-        <v>411</v>
-      </c>
-      <c r="D144" s="18"/>
-      <c r="E144" s="13" t="s">
-        <v>412</v>
-      </c>
-      <c r="F144" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="G144" s="8"/>
+      <c r="B144" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>408</v>
+      </c>
+      <c r="D144" s="17"/>
+      <c r="E144" s="10" t="s">
+        <v>409</v>
+      </c>
+      <c r="F144" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G144" s="16"/>
       <c r="H144" s="2"/>
       <c r="I144" s="2"/>
       <c r="J144" s="2"/>
@@ -9601,22 +9613,22 @@
       <c r="AG144" s="2"/>
       <c r="AH144" s="2"/>
     </row>
-    <row r="145" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="4"/>
-      <c r="B145" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C145" s="10" t="s">
-        <v>414</v>
-      </c>
-      <c r="D145" s="17"/>
-      <c r="E145" s="10" t="s">
-        <v>415</v>
-      </c>
-      <c r="F145" s="10" t="s">
-        <v>416</v>
-      </c>
-      <c r="G145" s="16"/>
+      <c r="B145" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C145" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="D145" s="18"/>
+      <c r="E145" s="13" t="s">
+        <v>412</v>
+      </c>
+      <c r="F145" s="14" t="s">
+        <v>413</v>
+      </c>
+      <c r="G145" s="8"/>
       <c r="H145" s="2"/>
       <c r="I145" s="2"/>
       <c r="J145" s="2"/>
@@ -9645,22 +9657,22 @@
       <c r="AG145" s="2"/>
       <c r="AH145" s="2"/>
     </row>
-    <row r="146" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="4"/>
-      <c r="B146" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C146" s="13" t="s">
-        <v>417</v>
-      </c>
-      <c r="D146" s="18"/>
-      <c r="E146" s="13" t="s">
-        <v>418</v>
-      </c>
-      <c r="F146" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="G146" s="8"/>
+      <c r="B146" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>414</v>
+      </c>
+      <c r="D146" s="17"/>
+      <c r="E146" s="10" t="s">
+        <v>415</v>
+      </c>
+      <c r="F146" s="10" t="s">
+        <v>416</v>
+      </c>
+      <c r="G146" s="16"/>
       <c r="H146" s="2"/>
       <c r="I146" s="2"/>
       <c r="J146" s="2"/>
@@ -9689,22 +9701,22 @@
       <c r="AG146" s="2"/>
       <c r="AH146" s="2"/>
     </row>
-    <row r="147" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="4"/>
-      <c r="B147" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C147" s="10" t="s">
-        <v>420</v>
-      </c>
-      <c r="D147" s="17"/>
-      <c r="E147" s="10" t="s">
-        <v>421</v>
-      </c>
-      <c r="F147" s="10" t="s">
-        <v>422</v>
-      </c>
-      <c r="G147" s="16"/>
+      <c r="B147" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C147" s="13" t="s">
+        <v>417</v>
+      </c>
+      <c r="D147" s="18"/>
+      <c r="E147" s="13" t="s">
+        <v>418</v>
+      </c>
+      <c r="F147" s="14" t="s">
+        <v>419</v>
+      </c>
+      <c r="G147" s="8"/>
       <c r="H147" s="2"/>
       <c r="I147" s="2"/>
       <c r="J147" s="2"/>
@@ -9735,20 +9747,20 @@
     </row>
     <row r="148" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="4"/>
-      <c r="B148" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C148" s="13" t="s">
-        <v>423</v>
-      </c>
-      <c r="D148" s="18"/>
-      <c r="E148" s="13" t="s">
-        <v>424</v>
-      </c>
-      <c r="F148" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="G148" s="8"/>
+      <c r="B148" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>420</v>
+      </c>
+      <c r="D148" s="17"/>
+      <c r="E148" s="10" t="s">
+        <v>421</v>
+      </c>
+      <c r="F148" s="10" t="s">
+        <v>422</v>
+      </c>
+      <c r="G148" s="16"/>
       <c r="H148" s="2"/>
       <c r="I148" s="2"/>
       <c r="J148" s="2"/>
@@ -9779,20 +9791,20 @@
     </row>
     <row r="149" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="4"/>
-      <c r="B149" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C149" s="10" t="s">
-        <v>426</v>
-      </c>
-      <c r="D149" s="17"/>
-      <c r="E149" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F149" s="10" t="s">
-        <v>428</v>
-      </c>
-      <c r="G149" s="16"/>
+      <c r="B149" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C149" s="13" t="s">
+        <v>423</v>
+      </c>
+      <c r="D149" s="18"/>
+      <c r="E149" s="13" t="s">
+        <v>424</v>
+      </c>
+      <c r="F149" s="14" t="s">
+        <v>425</v>
+      </c>
+      <c r="G149" s="8"/>
       <c r="H149" s="2"/>
       <c r="I149" s="2"/>
       <c r="J149" s="2"/>
@@ -9823,20 +9835,20 @@
     </row>
     <row r="150" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="4"/>
-      <c r="B150" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C150" s="13" t="s">
-        <v>429</v>
-      </c>
-      <c r="D150" s="18"/>
-      <c r="E150" s="13" t="s">
-        <v>430</v>
-      </c>
-      <c r="F150" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="G150" s="8"/>
+      <c r="B150" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>426</v>
+      </c>
+      <c r="D150" s="17"/>
+      <c r="E150" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F150" s="10" t="s">
+        <v>428</v>
+      </c>
+      <c r="G150" s="16"/>
       <c r="H150" s="2"/>
       <c r="I150" s="2"/>
       <c r="J150" s="2"/>
@@ -9867,20 +9879,20 @@
     </row>
     <row r="151" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="4"/>
-      <c r="B151" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C151" s="10" t="s">
-        <v>431</v>
-      </c>
-      <c r="D151" s="17"/>
-      <c r="E151" s="10" t="s">
-        <v>432</v>
-      </c>
-      <c r="F151" s="10" t="s">
-        <v>563</v>
-      </c>
-      <c r="G151" s="16"/>
+      <c r="B151" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C151" s="13" t="s">
+        <v>429</v>
+      </c>
+      <c r="D151" s="18"/>
+      <c r="E151" s="13" t="s">
+        <v>430</v>
+      </c>
+      <c r="F151" s="14" t="s">
+        <v>430</v>
+      </c>
+      <c r="G151" s="8"/>
       <c r="H151" s="2"/>
       <c r="I151" s="2"/>
       <c r="J151" s="2"/>
@@ -9911,20 +9923,20 @@
     </row>
     <row r="152" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="4"/>
-      <c r="B152" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C152" s="13" t="s">
-        <v>433</v>
-      </c>
-      <c r="D152" s="18"/>
-      <c r="E152" s="13" t="s">
-        <v>434</v>
-      </c>
-      <c r="F152" s="14" t="s">
-        <v>564</v>
-      </c>
-      <c r="G152" s="8"/>
+      <c r="B152" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>431</v>
+      </c>
+      <c r="D152" s="17"/>
+      <c r="E152" s="10" t="s">
+        <v>432</v>
+      </c>
+      <c r="F152" s="10" t="s">
+        <v>563</v>
+      </c>
+      <c r="G152" s="16"/>
       <c r="H152" s="2"/>
       <c r="I152" s="2"/>
       <c r="J152" s="2"/>
@@ -9955,20 +9967,20 @@
     </row>
     <row r="153" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="4"/>
-      <c r="B153" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C153" s="10" t="s">
-        <v>435</v>
-      </c>
-      <c r="D153" s="17"/>
-      <c r="E153" s="10" t="s">
-        <v>427</v>
-      </c>
-      <c r="F153" s="10" t="s">
-        <v>436</v>
-      </c>
-      <c r="G153" s="16"/>
+      <c r="B153" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C153" s="13" t="s">
+        <v>433</v>
+      </c>
+      <c r="D153" s="18"/>
+      <c r="E153" s="13" t="s">
+        <v>434</v>
+      </c>
+      <c r="F153" s="14" t="s">
+        <v>564</v>
+      </c>
+      <c r="G153" s="8"/>
       <c r="H153" s="2"/>
       <c r="I153" s="2"/>
       <c r="J153" s="2"/>
@@ -9999,20 +10011,20 @@
     </row>
     <row r="154" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="4"/>
-      <c r="B154" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C154" s="13" t="s">
-        <v>437</v>
-      </c>
-      <c r="D154" s="18"/>
-      <c r="E154" s="13" t="s">
-        <v>438</v>
-      </c>
-      <c r="F154" s="14" t="s">
-        <v>439</v>
-      </c>
-      <c r="G154" s="8"/>
+      <c r="B154" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>435</v>
+      </c>
+      <c r="D154" s="17"/>
+      <c r="E154" s="10" t="s">
+        <v>427</v>
+      </c>
+      <c r="F154" s="10" t="s">
+        <v>436</v>
+      </c>
+      <c r="G154" s="16"/>
       <c r="H154" s="2"/>
       <c r="I154" s="2"/>
       <c r="J154" s="2"/>
@@ -10043,20 +10055,20 @@
     </row>
     <row r="155" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="4"/>
-      <c r="B155" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C155" s="10" t="s">
-        <v>440</v>
-      </c>
-      <c r="D155" s="17"/>
-      <c r="E155" s="10" t="s">
-        <v>149</v>
-      </c>
-      <c r="F155" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="G155" s="16"/>
+      <c r="B155" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C155" s="13" t="s">
+        <v>437</v>
+      </c>
+      <c r="D155" s="18"/>
+      <c r="E155" s="13" t="s">
+        <v>438</v>
+      </c>
+      <c r="F155" s="14" t="s">
+        <v>439</v>
+      </c>
+      <c r="G155" s="8"/>
       <c r="H155" s="2"/>
       <c r="I155" s="2"/>
       <c r="J155" s="2"/>
@@ -10087,20 +10099,20 @@
     </row>
     <row r="156" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="4"/>
-      <c r="B156" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C156" s="13" t="s">
-        <v>441</v>
-      </c>
-      <c r="D156" s="18"/>
-      <c r="E156" s="13" t="s">
-        <v>427</v>
-      </c>
-      <c r="F156" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="G156" s="8"/>
+      <c r="B156" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>440</v>
+      </c>
+      <c r="D156" s="17"/>
+      <c r="E156" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="F156" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="G156" s="16"/>
       <c r="H156" s="2"/>
       <c r="I156" s="2"/>
       <c r="J156" s="2"/>
@@ -10131,20 +10143,20 @@
     </row>
     <row r="157" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="4"/>
-      <c r="B157" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C157" s="10" t="s">
-        <v>442</v>
-      </c>
-      <c r="D157" s="17"/>
-      <c r="E157" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="F157" s="10" t="s">
-        <v>430</v>
-      </c>
-      <c r="G157" s="16"/>
+      <c r="B157" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C157" s="13" t="s">
+        <v>441</v>
+      </c>
+      <c r="D157" s="18"/>
+      <c r="E157" s="13" t="s">
+        <v>427</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>428</v>
+      </c>
+      <c r="G157" s="8"/>
       <c r="H157" s="2"/>
       <c r="I157" s="2"/>
       <c r="J157" s="2"/>
@@ -10175,20 +10187,20 @@
     </row>
     <row r="158" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="4"/>
-      <c r="B158" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C158" s="13" t="s">
-        <v>443</v>
-      </c>
-      <c r="D158" s="18"/>
-      <c r="E158" s="13" t="s">
-        <v>444</v>
-      </c>
-      <c r="F158" s="14" t="s">
-        <v>445</v>
-      </c>
-      <c r="G158" s="8"/>
+      <c r="B158" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>442</v>
+      </c>
+      <c r="D158" s="17"/>
+      <c r="E158" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="F158" s="10" t="s">
+        <v>430</v>
+      </c>
+      <c r="G158" s="16"/>
       <c r="H158" s="2"/>
       <c r="I158" s="2"/>
       <c r="J158" s="2"/>
@@ -10219,20 +10231,20 @@
     </row>
     <row r="159" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="4"/>
-      <c r="B159" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C159" s="10" t="s">
-        <v>446</v>
-      </c>
-      <c r="D159" s="17"/>
-      <c r="E159" s="10" t="s">
-        <v>447</v>
-      </c>
-      <c r="F159" s="10" t="s">
-        <v>448</v>
-      </c>
-      <c r="G159" s="16"/>
+      <c r="B159" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C159" s="13" t="s">
+        <v>443</v>
+      </c>
+      <c r="D159" s="18"/>
+      <c r="E159" s="13" t="s">
+        <v>444</v>
+      </c>
+      <c r="F159" s="14" t="s">
+        <v>445</v>
+      </c>
+      <c r="G159" s="8"/>
       <c r="H159" s="2"/>
       <c r="I159" s="2"/>
       <c r="J159" s="2"/>
@@ -10263,20 +10275,20 @@
     </row>
     <row r="160" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="4"/>
-      <c r="B160" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C160" s="13" t="s">
-        <v>449</v>
-      </c>
-      <c r="D160" s="18"/>
-      <c r="E160" s="13" t="s">
-        <v>450</v>
-      </c>
-      <c r="F160" s="14" t="s">
-        <v>450</v>
-      </c>
-      <c r="G160" s="8"/>
+      <c r="B160" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="D160" s="17"/>
+      <c r="E160" s="10" t="s">
+        <v>447</v>
+      </c>
+      <c r="F160" s="10" t="s">
+        <v>448</v>
+      </c>
+      <c r="G160" s="16"/>
       <c r="H160" s="2"/>
       <c r="I160" s="2"/>
       <c r="J160" s="2"/>
@@ -10307,20 +10319,20 @@
     </row>
     <row r="161" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="4"/>
-      <c r="B161" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C161" s="10" t="s">
-        <v>451</v>
-      </c>
-      <c r="D161" s="17"/>
-      <c r="E161" s="10" t="s">
-        <v>452</v>
-      </c>
-      <c r="F161" s="10" t="s">
-        <v>453</v>
-      </c>
-      <c r="G161" s="16"/>
+      <c r="B161" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C161" s="13" t="s">
+        <v>449</v>
+      </c>
+      <c r="D161" s="18"/>
+      <c r="E161" s="13" t="s">
+        <v>450</v>
+      </c>
+      <c r="F161" s="14" t="s">
+        <v>450</v>
+      </c>
+      <c r="G161" s="8"/>
       <c r="H161" s="2"/>
       <c r="I161" s="2"/>
       <c r="J161" s="2"/>
@@ -10351,20 +10363,20 @@
     </row>
     <row r="162" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="4"/>
-      <c r="B162" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C162" s="13" t="s">
-        <v>454</v>
-      </c>
-      <c r="D162" s="18"/>
-      <c r="E162" s="13" t="s">
-        <v>182</v>
-      </c>
-      <c r="F162" s="14" t="s">
-        <v>455</v>
-      </c>
-      <c r="G162" s="8"/>
+      <c r="B162" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>451</v>
+      </c>
+      <c r="D162" s="17"/>
+      <c r="E162" s="10" t="s">
+        <v>452</v>
+      </c>
+      <c r="F162" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="G162" s="16"/>
       <c r="H162" s="2"/>
       <c r="I162" s="2"/>
       <c r="J162" s="2"/>
@@ -10393,22 +10405,22 @@
       <c r="AG162" s="2"/>
       <c r="AH162" s="2"/>
     </row>
-    <row r="163" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="4"/>
-      <c r="B163" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C163" s="10" t="s">
-        <v>456</v>
-      </c>
-      <c r="D163" s="17"/>
-      <c r="E163" s="10" t="s">
-        <v>457</v>
-      </c>
-      <c r="F163" s="10" t="s">
-        <v>458</v>
-      </c>
-      <c r="G163" s="16"/>
+      <c r="B163" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C163" s="13" t="s">
+        <v>454</v>
+      </c>
+      <c r="D163" s="18"/>
+      <c r="E163" s="13" t="s">
+        <v>182</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>455</v>
+      </c>
+      <c r="G163" s="8"/>
       <c r="H163" s="2"/>
       <c r="I163" s="2"/>
       <c r="J163" s="2"/>
@@ -10439,20 +10451,20 @@
     </row>
     <row r="164" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="4"/>
-      <c r="B164" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C164" s="13" t="s">
-        <v>459</v>
-      </c>
-      <c r="D164" s="18"/>
-      <c r="E164" s="13" t="s">
-        <v>460</v>
-      </c>
-      <c r="F164" s="14" t="s">
-        <v>461</v>
-      </c>
-      <c r="G164" s="8"/>
+      <c r="B164" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>456</v>
+      </c>
+      <c r="D164" s="17"/>
+      <c r="E164" s="10" t="s">
+        <v>457</v>
+      </c>
+      <c r="F164" s="10" t="s">
+        <v>458</v>
+      </c>
+      <c r="G164" s="16"/>
       <c r="H164" s="2"/>
       <c r="I164" s="2"/>
       <c r="J164" s="2"/>
@@ -10483,20 +10495,20 @@
     </row>
     <row r="165" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="4"/>
-      <c r="B165" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C165" s="10" t="s">
-        <v>462</v>
-      </c>
-      <c r="D165" s="17"/>
-      <c r="E165" s="10" t="s">
-        <v>463</v>
-      </c>
-      <c r="F165" s="10" t="s">
-        <v>464</v>
-      </c>
-      <c r="G165" s="16"/>
+      <c r="B165" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C165" s="13" t="s">
+        <v>459</v>
+      </c>
+      <c r="D165" s="18"/>
+      <c r="E165" s="13" t="s">
+        <v>460</v>
+      </c>
+      <c r="F165" s="14" t="s">
+        <v>461</v>
+      </c>
+      <c r="G165" s="8"/>
       <c r="H165" s="2"/>
       <c r="I165" s="2"/>
       <c r="J165" s="2"/>
@@ -10525,22 +10537,22 @@
       <c r="AG165" s="2"/>
       <c r="AH165" s="2"/>
     </row>
-    <row r="166" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="4"/>
-      <c r="B166" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C166" s="13" t="s">
-        <v>465</v>
-      </c>
-      <c r="D166" s="18"/>
-      <c r="E166" s="13" t="s">
-        <v>466</v>
-      </c>
-      <c r="F166" s="14" t="s">
-        <v>467</v>
-      </c>
-      <c r="G166" s="8"/>
+      <c r="B166" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>462</v>
+      </c>
+      <c r="D166" s="17"/>
+      <c r="E166" s="10" t="s">
+        <v>463</v>
+      </c>
+      <c r="F166" s="10" t="s">
+        <v>464</v>
+      </c>
+      <c r="G166" s="16"/>
       <c r="H166" s="2"/>
       <c r="I166" s="2"/>
       <c r="J166" s="2"/>
@@ -10569,22 +10581,22 @@
       <c r="AG166" s="2"/>
       <c r="AH166" s="2"/>
     </row>
-    <row r="167" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="4"/>
-      <c r="B167" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C167" s="10" t="s">
-        <v>468</v>
-      </c>
-      <c r="D167" s="17"/>
-      <c r="E167" s="10" t="s">
-        <v>469</v>
-      </c>
-      <c r="F167" s="10" t="s">
-        <v>470</v>
-      </c>
-      <c r="G167" s="16"/>
+      <c r="B167" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C167" s="13" t="s">
+        <v>465</v>
+      </c>
+      <c r="D167" s="18"/>
+      <c r="E167" s="13" t="s">
+        <v>466</v>
+      </c>
+      <c r="F167" s="14" t="s">
+        <v>467</v>
+      </c>
+      <c r="G167" s="8"/>
       <c r="H167" s="2"/>
       <c r="I167" s="2"/>
       <c r="J167" s="2"/>
@@ -10613,22 +10625,22 @@
       <c r="AG167" s="2"/>
       <c r="AH167" s="2"/>
     </row>
-    <row r="168" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="4"/>
-      <c r="B168" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C168" s="13" t="s">
-        <v>471</v>
-      </c>
-      <c r="D168" s="18"/>
-      <c r="E168" s="13" t="s">
-        <v>361</v>
-      </c>
-      <c r="F168" s="14" t="s">
-        <v>472</v>
-      </c>
-      <c r="G168" s="8"/>
+      <c r="B168" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>468</v>
+      </c>
+      <c r="D168" s="17"/>
+      <c r="E168" s="10" t="s">
+        <v>469</v>
+      </c>
+      <c r="F168" s="10" t="s">
+        <v>470</v>
+      </c>
+      <c r="G168" s="16"/>
       <c r="H168" s="2"/>
       <c r="I168" s="2"/>
       <c r="J168" s="2"/>
@@ -10657,22 +10669,22 @@
       <c r="AG168" s="2"/>
       <c r="AH168" s="2"/>
     </row>
-    <row r="169" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="4"/>
-      <c r="B169" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C169" s="10" t="s">
-        <v>473</v>
-      </c>
-      <c r="D169" s="17"/>
-      <c r="E169" s="10" t="s">
-        <v>418</v>
-      </c>
-      <c r="F169" s="10" t="s">
-        <v>419</v>
-      </c>
-      <c r="G169" s="16"/>
+      <c r="B169" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C169" s="13" t="s">
+        <v>471</v>
+      </c>
+      <c r="D169" s="18"/>
+      <c r="E169" s="13" t="s">
+        <v>361</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>472</v>
+      </c>
+      <c r="G169" s="8"/>
       <c r="H169" s="2"/>
       <c r="I169" s="2"/>
       <c r="J169" s="2"/>
@@ -10701,22 +10713,22 @@
       <c r="AG169" s="2"/>
       <c r="AH169" s="2"/>
     </row>
-    <row r="170" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="4"/>
-      <c r="B170" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C170" s="13" t="s">
-        <v>474</v>
-      </c>
-      <c r="D170" s="18"/>
-      <c r="E170" s="13" t="s">
-        <v>475</v>
-      </c>
-      <c r="F170" s="14" t="s">
-        <v>476</v>
-      </c>
-      <c r="G170" s="8"/>
+      <c r="B170" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>473</v>
+      </c>
+      <c r="D170" s="17"/>
+      <c r="E170" s="10" t="s">
+        <v>418</v>
+      </c>
+      <c r="F170" s="10" t="s">
+        <v>419</v>
+      </c>
+      <c r="G170" s="16"/>
       <c r="H170" s="2"/>
       <c r="I170" s="2"/>
       <c r="J170" s="2"/>
@@ -10747,20 +10759,20 @@
     </row>
     <row r="171" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="4"/>
-      <c r="B171" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C171" s="10" t="s">
-        <v>477</v>
-      </c>
-      <c r="D171" s="17"/>
-      <c r="E171" s="10" t="s">
-        <v>478</v>
-      </c>
-      <c r="F171" s="10" t="s">
-        <v>479</v>
-      </c>
-      <c r="G171" s="16"/>
+      <c r="B171" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C171" s="13" t="s">
+        <v>474</v>
+      </c>
+      <c r="D171" s="18"/>
+      <c r="E171" s="13" t="s">
+        <v>475</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>476</v>
+      </c>
+      <c r="G171" s="8"/>
       <c r="H171" s="2"/>
       <c r="I171" s="2"/>
       <c r="J171" s="2"/>
@@ -10791,20 +10803,20 @@
     </row>
     <row r="172" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="4"/>
-      <c r="B172" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C172" s="13" t="s">
-        <v>480</v>
-      </c>
-      <c r="D172" s="18"/>
-      <c r="E172" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="F172" s="14" t="s">
-        <v>482</v>
-      </c>
-      <c r="G172" s="8"/>
+      <c r="B172" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>477</v>
+      </c>
+      <c r="D172" s="17"/>
+      <c r="E172" s="10" t="s">
+        <v>478</v>
+      </c>
+      <c r="F172" s="10" t="s">
+        <v>479</v>
+      </c>
+      <c r="G172" s="16"/>
       <c r="H172" s="2"/>
       <c r="I172" s="2"/>
       <c r="J172" s="2"/>
@@ -10835,20 +10847,20 @@
     </row>
     <row r="173" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="4"/>
-      <c r="B173" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C173" s="10" t="s">
-        <v>483</v>
-      </c>
-      <c r="D173" s="17"/>
-      <c r="E173" s="10" t="s">
-        <v>203</v>
-      </c>
-      <c r="F173" s="10" t="s">
-        <v>204</v>
-      </c>
-      <c r="G173" s="16"/>
+      <c r="B173" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C173" s="13" t="s">
+        <v>480</v>
+      </c>
+      <c r="D173" s="18"/>
+      <c r="E173" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>482</v>
+      </c>
+      <c r="G173" s="8"/>
       <c r="H173" s="2"/>
       <c r="I173" s="2"/>
       <c r="J173" s="2"/>
@@ -10879,20 +10891,20 @@
     </row>
     <row r="174" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="4"/>
-      <c r="B174" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C174" s="13" t="s">
-        <v>484</v>
-      </c>
-      <c r="D174" s="18"/>
-      <c r="E174" s="13" t="s">
-        <v>485</v>
-      </c>
-      <c r="F174" s="14" t="s">
-        <v>486</v>
-      </c>
-      <c r="G174" s="8"/>
+      <c r="B174" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>483</v>
+      </c>
+      <c r="D174" s="17"/>
+      <c r="E174" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F174" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G174" s="16"/>
       <c r="H174" s="2"/>
       <c r="I174" s="2"/>
       <c r="J174" s="2"/>
@@ -10923,20 +10935,20 @@
     </row>
     <row r="175" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="4"/>
-      <c r="B175" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C175" s="10" t="s">
-        <v>487</v>
-      </c>
-      <c r="D175" s="17"/>
-      <c r="E175" s="10" t="s">
-        <v>488</v>
-      </c>
-      <c r="F175" s="10" t="s">
-        <v>489</v>
-      </c>
-      <c r="G175" s="16"/>
+      <c r="B175" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C175" s="13" t="s">
+        <v>484</v>
+      </c>
+      <c r="D175" s="18"/>
+      <c r="E175" s="13" t="s">
+        <v>485</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>486</v>
+      </c>
+      <c r="G175" s="8"/>
       <c r="H175" s="2"/>
       <c r="I175" s="2"/>
       <c r="J175" s="2"/>
@@ -10967,20 +10979,20 @@
     </row>
     <row r="176" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="4"/>
-      <c r="B176" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C176" s="13" t="s">
-        <v>490</v>
-      </c>
-      <c r="D176" s="18"/>
-      <c r="E176" s="13" t="s">
-        <v>84</v>
-      </c>
-      <c r="F176" s="14" t="s">
-        <v>85</v>
-      </c>
-      <c r="G176" s="8"/>
+      <c r="B176" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>487</v>
+      </c>
+      <c r="D176" s="17"/>
+      <c r="E176" s="10" t="s">
+        <v>488</v>
+      </c>
+      <c r="F176" s="10" t="s">
+        <v>489</v>
+      </c>
+      <c r="G176" s="16"/>
       <c r="H176" s="2"/>
       <c r="I176" s="2"/>
       <c r="J176" s="2"/>
@@ -11011,20 +11023,20 @@
     </row>
     <row r="177" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="4"/>
-      <c r="B177" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C177" s="10" t="s">
-        <v>491</v>
-      </c>
-      <c r="D177" s="17"/>
-      <c r="E177" s="10" t="s">
-        <v>492</v>
-      </c>
-      <c r="F177" s="10" t="s">
-        <v>493</v>
-      </c>
-      <c r="G177" s="16"/>
+      <c r="B177" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C177" s="13" t="s">
+        <v>490</v>
+      </c>
+      <c r="D177" s="18"/>
+      <c r="E177" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="G177" s="8"/>
       <c r="H177" s="2"/>
       <c r="I177" s="2"/>
       <c r="J177" s="2"/>
@@ -11055,20 +11067,20 @@
     </row>
     <row r="178" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="4"/>
-      <c r="B178" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C178" s="13" t="s">
-        <v>494</v>
-      </c>
-      <c r="D178" s="18"/>
-      <c r="E178" s="13" t="s">
-        <v>481</v>
-      </c>
-      <c r="F178" s="14" t="s">
-        <v>561</v>
-      </c>
-      <c r="G178" s="8"/>
+      <c r="B178" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>491</v>
+      </c>
+      <c r="D178" s="17"/>
+      <c r="E178" s="10" t="s">
+        <v>492</v>
+      </c>
+      <c r="F178" s="10" t="s">
+        <v>493</v>
+      </c>
+      <c r="G178" s="16"/>
       <c r="H178" s="2"/>
       <c r="I178" s="2"/>
       <c r="J178" s="2"/>
@@ -11099,20 +11111,20 @@
     </row>
     <row r="179" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="4"/>
-      <c r="B179" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C179" s="10" t="s">
-        <v>495</v>
-      </c>
-      <c r="D179" s="17"/>
-      <c r="E179" s="10" t="s">
-        <v>496</v>
-      </c>
-      <c r="F179" s="10" t="s">
-        <v>562</v>
-      </c>
-      <c r="G179" s="16"/>
+      <c r="B179" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C179" s="13" t="s">
+        <v>494</v>
+      </c>
+      <c r="D179" s="18"/>
+      <c r="E179" s="13" t="s">
+        <v>481</v>
+      </c>
+      <c r="F179" s="14" t="s">
+        <v>561</v>
+      </c>
+      <c r="G179" s="8"/>
       <c r="H179" s="2"/>
       <c r="I179" s="2"/>
       <c r="J179" s="2"/>
@@ -11143,20 +11155,20 @@
     </row>
     <row r="180" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="4"/>
-      <c r="B180" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C180" s="13" t="s">
-        <v>497</v>
-      </c>
-      <c r="D180" s="18"/>
-      <c r="E180" s="13" t="s">
-        <v>498</v>
-      </c>
-      <c r="F180" s="14" t="s">
-        <v>499</v>
-      </c>
-      <c r="G180" s="8"/>
+      <c r="B180" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>495</v>
+      </c>
+      <c r="D180" s="17"/>
+      <c r="E180" s="10" t="s">
+        <v>496</v>
+      </c>
+      <c r="F180" s="10" t="s">
+        <v>562</v>
+      </c>
+      <c r="G180" s="16"/>
       <c r="H180" s="2"/>
       <c r="I180" s="2"/>
       <c r="J180" s="2"/>
@@ -11187,20 +11199,20 @@
     </row>
     <row r="181" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="4"/>
-      <c r="B181" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C181" s="10" t="s">
-        <v>500</v>
-      </c>
-      <c r="D181" s="17"/>
-      <c r="E181" s="10" t="s">
-        <v>501</v>
-      </c>
-      <c r="F181" s="10" t="s">
-        <v>502</v>
-      </c>
-      <c r="G181" s="16"/>
+      <c r="B181" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C181" s="13" t="s">
+        <v>497</v>
+      </c>
+      <c r="D181" s="18"/>
+      <c r="E181" s="13" t="s">
+        <v>498</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>499</v>
+      </c>
+      <c r="G181" s="8"/>
       <c r="H181" s="2"/>
       <c r="I181" s="2"/>
       <c r="J181" s="2"/>
@@ -11231,29 +11243,29 @@
     </row>
     <row r="182" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="4"/>
-      <c r="B182" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C182" s="13" t="s">
-        <v>503</v>
-      </c>
-      <c r="D182" s="18"/>
-      <c r="E182" s="13" t="s">
-        <v>87</v>
-      </c>
-      <c r="F182" s="14" t="s">
-        <v>504</v>
-      </c>
-      <c r="G182" s="8"/>
+      <c r="B182" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>500</v>
+      </c>
+      <c r="D182" s="17"/>
+      <c r="E182" s="10" t="s">
+        <v>501</v>
+      </c>
+      <c r="F182" s="10" t="s">
+        <v>502</v>
+      </c>
+      <c r="G182" s="16"/>
       <c r="H182" s="2"/>
       <c r="I182" s="2"/>
       <c r="J182" s="2"/>
       <c r="K182" s="2"/>
       <c r="L182" s="2"/>
       <c r="M182" s="2"/>
-      <c r="N182" s="19"/>
+      <c r="N182" s="2"/>
       <c r="O182" s="2"/>
-      <c r="P182" s="19"/>
+      <c r="P182" s="2"/>
       <c r="Q182" s="2"/>
       <c r="R182" s="2"/>
       <c r="S182" s="2"/>
@@ -11275,29 +11287,29 @@
     </row>
     <row r="183" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="4"/>
-      <c r="B183" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C183" s="10" t="s">
-        <v>505</v>
-      </c>
-      <c r="D183" s="17"/>
-      <c r="E183" s="10" t="s">
-        <v>90</v>
-      </c>
-      <c r="F183" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="G183" s="16"/>
+      <c r="B183" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C183" s="13" t="s">
+        <v>503</v>
+      </c>
+      <c r="D183" s="18"/>
+      <c r="E183" s="13" t="s">
+        <v>87</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>504</v>
+      </c>
+      <c r="G183" s="8"/>
       <c r="H183" s="2"/>
       <c r="I183" s="2"/>
       <c r="J183" s="2"/>
       <c r="K183" s="2"/>
       <c r="L183" s="2"/>
       <c r="M183" s="2"/>
-      <c r="N183" s="2"/>
+      <c r="N183" s="19"/>
       <c r="O183" s="2"/>
-      <c r="P183" s="2"/>
+      <c r="P183" s="19"/>
       <c r="Q183" s="2"/>
       <c r="R183" s="2"/>
       <c r="S183" s="2"/>
@@ -11319,196 +11331,196 @@
     </row>
     <row r="184" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="4"/>
-      <c r="B184" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C184" s="13" t="s">
-        <v>506</v>
-      </c>
-      <c r="D184" s="18"/>
-      <c r="E184" s="13" t="s">
-        <v>507</v>
-      </c>
-      <c r="F184" s="14" t="s">
-        <v>508</v>
-      </c>
-      <c r="G184" s="8"/>
-      <c r="H184" s="19"/>
+      <c r="B184" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>505</v>
+      </c>
+      <c r="D184" s="17"/>
+      <c r="E184" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F184" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="G184" s="16"/>
+      <c r="H184" s="2"/>
       <c r="I184" s="2"/>
       <c r="J184" s="2"/>
       <c r="K184" s="2"/>
       <c r="L184" s="2"/>
       <c r="M184" s="2"/>
-      <c r="N184" s="19"/>
+      <c r="N184" s="2"/>
       <c r="O184" s="2"/>
-      <c r="P184" s="19"/>
+      <c r="P184" s="2"/>
       <c r="Q184" s="2"/>
       <c r="R184" s="2"/>
       <c r="S184" s="2"/>
       <c r="T184" s="2"/>
       <c r="U184" s="2"/>
-      <c r="V184" s="19"/>
+      <c r="V184" s="2"/>
       <c r="W184" s="2"/>
-      <c r="X184" s="19"/>
+      <c r="X184" s="2"/>
       <c r="Y184" s="2"/>
-      <c r="Z184" s="19"/>
+      <c r="Z184" s="2"/>
       <c r="AA184" s="2"/>
-      <c r="AB184" s="19"/>
+      <c r="AB184" s="2"/>
       <c r="AC184" s="2"/>
-      <c r="AD184" s="19"/>
+      <c r="AD184" s="2"/>
       <c r="AE184" s="2"/>
-      <c r="AF184" s="19"/>
+      <c r="AF184" s="2"/>
       <c r="AG184" s="2"/>
       <c r="AH184" s="2"/>
     </row>
     <row r="185" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="4"/>
-      <c r="B185" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C185" s="10" t="s">
-        <v>509</v>
-      </c>
-      <c r="D185" s="17"/>
-      <c r="E185" s="10" t="s">
+      <c r="B185" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C185" s="13" t="s">
+        <v>506</v>
+      </c>
+      <c r="D185" s="18"/>
+      <c r="E185" s="13" t="s">
         <v>507</v>
       </c>
-      <c r="F185" s="10" t="s">
+      <c r="F185" s="14" t="s">
         <v>508</v>
       </c>
-      <c r="G185" s="16"/>
-      <c r="H185" s="2"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="19"/>
       <c r="I185" s="2"/>
       <c r="J185" s="2"/>
       <c r="K185" s="2"/>
       <c r="L185" s="2"/>
       <c r="M185" s="2"/>
-      <c r="N185" s="2"/>
+      <c r="N185" s="19"/>
       <c r="O185" s="2"/>
-      <c r="P185" s="2"/>
+      <c r="P185" s="19"/>
       <c r="Q185" s="2"/>
       <c r="R185" s="2"/>
       <c r="S185" s="2"/>
       <c r="T185" s="2"/>
       <c r="U185" s="2"/>
-      <c r="V185" s="2"/>
+      <c r="V185" s="19"/>
       <c r="W185" s="2"/>
-      <c r="X185" s="2"/>
+      <c r="X185" s="19"/>
       <c r="Y185" s="2"/>
-      <c r="Z185" s="2"/>
+      <c r="Z185" s="19"/>
       <c r="AA185" s="2"/>
-      <c r="AB185" s="2"/>
+      <c r="AB185" s="19"/>
       <c r="AC185" s="2"/>
-      <c r="AD185" s="2"/>
+      <c r="AD185" s="19"/>
       <c r="AE185" s="2"/>
-      <c r="AF185" s="2"/>
+      <c r="AF185" s="19"/>
       <c r="AG185" s="2"/>
       <c r="AH185" s="2"/>
     </row>
     <row r="186" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="4"/>
-      <c r="B186" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C186" s="13" t="s">
-        <v>510</v>
-      </c>
-      <c r="D186" s="18"/>
-      <c r="E186" s="13" t="s">
-        <v>511</v>
-      </c>
-      <c r="F186" s="14" t="s">
-        <v>512</v>
-      </c>
-      <c r="G186" s="8"/>
-      <c r="H186" s="19"/>
+      <c r="B186" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>509</v>
+      </c>
+      <c r="D186" s="17"/>
+      <c r="E186" s="10" t="s">
+        <v>507</v>
+      </c>
+      <c r="F186" s="10" t="s">
+        <v>508</v>
+      </c>
+      <c r="G186" s="16"/>
+      <c r="H186" s="2"/>
       <c r="I186" s="2"/>
-      <c r="J186" s="19"/>
+      <c r="J186" s="2"/>
       <c r="K186" s="2"/>
-      <c r="L186" s="19"/>
+      <c r="L186" s="2"/>
       <c r="M186" s="2"/>
-      <c r="N186" s="19"/>
+      <c r="N186" s="2"/>
       <c r="O186" s="2"/>
-      <c r="P186" s="19"/>
+      <c r="P186" s="2"/>
       <c r="Q186" s="2"/>
-      <c r="R186" s="19"/>
+      <c r="R186" s="2"/>
       <c r="S186" s="2"/>
-      <c r="T186" s="19"/>
+      <c r="T186" s="2"/>
       <c r="U186" s="2"/>
-      <c r="V186" s="19"/>
+      <c r="V186" s="2"/>
       <c r="W186" s="2"/>
-      <c r="X186" s="19"/>
+      <c r="X186" s="2"/>
       <c r="Y186" s="2"/>
-      <c r="Z186" s="19"/>
+      <c r="Z186" s="2"/>
       <c r="AA186" s="2"/>
-      <c r="AB186" s="19"/>
+      <c r="AB186" s="2"/>
       <c r="AC186" s="2"/>
-      <c r="AD186" s="19"/>
+      <c r="AD186" s="2"/>
       <c r="AE186" s="2"/>
-      <c r="AF186" s="19"/>
+      <c r="AF186" s="2"/>
       <c r="AG186" s="2"/>
-      <c r="AH186" s="19"/>
+      <c r="AH186" s="2"/>
     </row>
     <row r="187" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="4"/>
-      <c r="B187" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C187" s="10" t="s">
-        <v>513</v>
-      </c>
-      <c r="D187" s="17"/>
-      <c r="E187" s="10" t="s">
-        <v>514</v>
-      </c>
-      <c r="F187" s="10" t="s">
-        <v>515</v>
-      </c>
-      <c r="G187" s="16"/>
-      <c r="H187" s="2"/>
+      <c r="B187" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C187" s="13" t="s">
+        <v>510</v>
+      </c>
+      <c r="D187" s="18"/>
+      <c r="E187" s="13" t="s">
+        <v>511</v>
+      </c>
+      <c r="F187" s="14" t="s">
+        <v>512</v>
+      </c>
+      <c r="G187" s="8"/>
+      <c r="H187" s="19"/>
       <c r="I187" s="2"/>
-      <c r="J187" s="2"/>
+      <c r="J187" s="19"/>
       <c r="K187" s="2"/>
-      <c r="L187" s="2"/>
+      <c r="L187" s="19"/>
       <c r="M187" s="2"/>
-      <c r="N187" s="2"/>
+      <c r="N187" s="19"/>
       <c r="O187" s="2"/>
-      <c r="P187" s="2"/>
+      <c r="P187" s="19"/>
       <c r="Q187" s="2"/>
-      <c r="R187" s="2"/>
+      <c r="R187" s="19"/>
       <c r="S187" s="2"/>
-      <c r="T187" s="2"/>
+      <c r="T187" s="19"/>
       <c r="U187" s="2"/>
-      <c r="V187" s="2"/>
+      <c r="V187" s="19"/>
       <c r="W187" s="2"/>
-      <c r="X187" s="2"/>
+      <c r="X187" s="19"/>
       <c r="Y187" s="2"/>
-      <c r="Z187" s="2"/>
+      <c r="Z187" s="19"/>
       <c r="AA187" s="2"/>
-      <c r="AB187" s="2"/>
+      <c r="AB187" s="19"/>
       <c r="AC187" s="2"/>
-      <c r="AD187" s="2"/>
+      <c r="AD187" s="19"/>
       <c r="AE187" s="2"/>
-      <c r="AF187" s="2"/>
+      <c r="AF187" s="19"/>
       <c r="AG187" s="2"/>
-      <c r="AH187" s="2"/>
+      <c r="AH187" s="19"/>
     </row>
     <row r="188" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="4"/>
-      <c r="B188" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C188" s="13" t="s">
-        <v>516</v>
-      </c>
-      <c r="D188" s="18"/>
-      <c r="E188" s="13" t="s">
-        <v>517</v>
-      </c>
-      <c r="F188" s="14" t="s">
-        <v>518</v>
-      </c>
-      <c r="G188" s="8"/>
+      <c r="B188" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>513</v>
+      </c>
+      <c r="D188" s="17"/>
+      <c r="E188" s="10" t="s">
+        <v>514</v>
+      </c>
+      <c r="F188" s="10" t="s">
+        <v>515</v>
+      </c>
+      <c r="G188" s="16"/>
       <c r="H188" s="2"/>
       <c r="I188" s="2"/>
       <c r="J188" s="2"/>
@@ -11539,20 +11551,20 @@
     </row>
     <row r="189" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="4"/>
-      <c r="B189" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C189" s="10" t="s">
-        <v>519</v>
-      </c>
-      <c r="D189" s="17"/>
-      <c r="E189" s="10" t="s">
-        <v>520</v>
-      </c>
-      <c r="F189" s="10" t="s">
-        <v>521</v>
-      </c>
-      <c r="G189" s="16"/>
+      <c r="B189" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C189" s="13" t="s">
+        <v>516</v>
+      </c>
+      <c r="D189" s="18"/>
+      <c r="E189" s="13" t="s">
+        <v>517</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>518</v>
+      </c>
+      <c r="G189" s="8"/>
       <c r="H189" s="2"/>
       <c r="I189" s="2"/>
       <c r="J189" s="2"/>
@@ -11583,20 +11595,20 @@
     </row>
     <row r="190" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="4"/>
-      <c r="B190" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C190" s="13" t="s">
-        <v>522</v>
-      </c>
-      <c r="D190" s="18"/>
-      <c r="E190" s="13" t="s">
-        <v>523</v>
-      </c>
-      <c r="F190" s="14" t="s">
-        <v>524</v>
-      </c>
-      <c r="G190" s="8"/>
+      <c r="B190" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>519</v>
+      </c>
+      <c r="D190" s="17"/>
+      <c r="E190" s="10" t="s">
+        <v>520</v>
+      </c>
+      <c r="F190" s="10" t="s">
+        <v>521</v>
+      </c>
+      <c r="G190" s="16"/>
       <c r="H190" s="2"/>
       <c r="I190" s="2"/>
       <c r="J190" s="2"/>
@@ -11627,20 +11639,20 @@
     </row>
     <row r="191" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="4"/>
-      <c r="B191" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C191" s="10" t="s">
-        <v>525</v>
-      </c>
-      <c r="D191" s="17"/>
-      <c r="E191" s="10" t="s">
-        <v>526</v>
-      </c>
-      <c r="F191" s="10" t="s">
-        <v>527</v>
-      </c>
-      <c r="G191" s="16"/>
+      <c r="B191" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C191" s="13" t="s">
+        <v>522</v>
+      </c>
+      <c r="D191" s="18"/>
+      <c r="E191" s="13" t="s">
+        <v>523</v>
+      </c>
+      <c r="F191" s="14" t="s">
+        <v>524</v>
+      </c>
+      <c r="G191" s="8"/>
       <c r="H191" s="2"/>
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
@@ -11671,20 +11683,20 @@
     </row>
     <row r="192" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="4"/>
-      <c r="B192" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C192" s="13" t="s">
-        <v>528</v>
-      </c>
-      <c r="D192" s="18"/>
-      <c r="E192" s="13" t="s">
-        <v>529</v>
-      </c>
-      <c r="F192" s="14" t="s">
-        <v>530</v>
-      </c>
-      <c r="G192" s="8"/>
+      <c r="B192" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C192" s="10" t="s">
+        <v>525</v>
+      </c>
+      <c r="D192" s="17"/>
+      <c r="E192" s="10" t="s">
+        <v>526</v>
+      </c>
+      <c r="F192" s="10" t="s">
+        <v>527</v>
+      </c>
+      <c r="G192" s="16"/>
       <c r="H192" s="2"/>
       <c r="I192" s="2"/>
       <c r="J192" s="2"/>
@@ -11715,20 +11727,20 @@
     </row>
     <row r="193" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="4"/>
-      <c r="B193" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C193" s="10" t="s">
-        <v>531</v>
-      </c>
-      <c r="D193" s="17"/>
-      <c r="E193" s="10" t="s">
-        <v>532</v>
-      </c>
-      <c r="F193" s="10" t="s">
-        <v>533</v>
-      </c>
-      <c r="G193" s="16"/>
+      <c r="B193" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C193" s="13" t="s">
+        <v>528</v>
+      </c>
+      <c r="D193" s="18"/>
+      <c r="E193" s="13" t="s">
+        <v>529</v>
+      </c>
+      <c r="F193" s="14" t="s">
+        <v>530</v>
+      </c>
+      <c r="G193" s="8"/>
       <c r="H193" s="2"/>
       <c r="I193" s="2"/>
       <c r="J193" s="2"/>
@@ -11759,20 +11771,20 @@
     </row>
     <row r="194" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="4"/>
-      <c r="B194" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C194" s="13" t="s">
-        <v>534</v>
-      </c>
-      <c r="D194" s="18"/>
-      <c r="E194" s="13" t="s">
-        <v>535</v>
-      </c>
-      <c r="F194" s="14" t="s">
-        <v>536</v>
-      </c>
-      <c r="G194" s="8"/>
+      <c r="B194" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C194" s="10" t="s">
+        <v>531</v>
+      </c>
+      <c r="D194" s="17"/>
+      <c r="E194" s="10" t="s">
+        <v>532</v>
+      </c>
+      <c r="F194" s="10" t="s">
+        <v>533</v>
+      </c>
+      <c r="G194" s="16"/>
       <c r="H194" s="2"/>
       <c r="I194" s="2"/>
       <c r="J194" s="2"/>
@@ -11803,20 +11815,20 @@
     </row>
     <row r="195" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="4"/>
-      <c r="B195" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C195" s="10" t="s">
-        <v>537</v>
-      </c>
-      <c r="D195" s="17"/>
-      <c r="E195" s="10" t="s">
-        <v>185</v>
-      </c>
-      <c r="F195" s="10" t="s">
-        <v>186</v>
-      </c>
-      <c r="G195" s="16"/>
+      <c r="B195" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C195" s="13" t="s">
+        <v>534</v>
+      </c>
+      <c r="D195" s="18"/>
+      <c r="E195" s="13" t="s">
+        <v>535</v>
+      </c>
+      <c r="F195" s="14" t="s">
+        <v>536</v>
+      </c>
+      <c r="G195" s="8"/>
       <c r="H195" s="2"/>
       <c r="I195" s="2"/>
       <c r="J195" s="2"/>
@@ -11847,20 +11859,20 @@
     </row>
     <row r="196" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="4"/>
-      <c r="B196" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C196" s="13" t="s">
-        <v>538</v>
-      </c>
-      <c r="D196" s="18"/>
-      <c r="E196" s="13" t="s">
-        <v>539</v>
-      </c>
-      <c r="F196" s="14" t="s">
-        <v>540</v>
-      </c>
-      <c r="G196" s="8"/>
+      <c r="B196" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C196" s="10" t="s">
+        <v>537</v>
+      </c>
+      <c r="D196" s="17"/>
+      <c r="E196" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="F196" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="G196" s="16"/>
       <c r="H196" s="2"/>
       <c r="I196" s="2"/>
       <c r="J196" s="2"/>
@@ -11891,20 +11903,20 @@
     </row>
     <row r="197" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="4"/>
-      <c r="B197" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C197" s="10" t="s">
-        <v>541</v>
-      </c>
-      <c r="D197" s="17"/>
-      <c r="E197" s="10" t="s">
-        <v>542</v>
-      </c>
-      <c r="F197" s="10" t="s">
-        <v>543</v>
-      </c>
-      <c r="G197" s="16"/>
+      <c r="B197" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C197" s="13" t="s">
+        <v>538</v>
+      </c>
+      <c r="D197" s="18"/>
+      <c r="E197" s="13" t="s">
+        <v>539</v>
+      </c>
+      <c r="F197" s="14" t="s">
+        <v>540</v>
+      </c>
+      <c r="G197" s="8"/>
       <c r="H197" s="2"/>
       <c r="I197" s="2"/>
       <c r="J197" s="2"/>
@@ -11935,20 +11947,20 @@
     </row>
     <row r="198" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="4"/>
-      <c r="B198" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C198" s="13" t="s">
-        <v>544</v>
-      </c>
-      <c r="D198" s="18"/>
-      <c r="E198" s="13" t="s">
-        <v>545</v>
-      </c>
-      <c r="F198" s="14" t="s">
-        <v>546</v>
-      </c>
-      <c r="G198" s="8"/>
+      <c r="B198" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C198" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="D198" s="17"/>
+      <c r="E198" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="F198" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="G198" s="16"/>
       <c r="H198" s="2"/>
       <c r="I198" s="2"/>
       <c r="J198" s="2"/>
@@ -11979,20 +11991,20 @@
     </row>
     <row r="199" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="4"/>
-      <c r="B199" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C199" s="10" t="s">
-        <v>547</v>
-      </c>
-      <c r="D199" s="17"/>
-      <c r="E199" s="10" t="s">
-        <v>548</v>
-      </c>
-      <c r="F199" s="10" t="s">
-        <v>549</v>
-      </c>
-      <c r="G199" s="16"/>
+      <c r="B199" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C199" s="13" t="s">
+        <v>544</v>
+      </c>
+      <c r="D199" s="18"/>
+      <c r="E199" s="13" t="s">
+        <v>545</v>
+      </c>
+      <c r="F199" s="14" t="s">
+        <v>546</v>
+      </c>
+      <c r="G199" s="8"/>
       <c r="H199" s="2"/>
       <c r="I199" s="2"/>
       <c r="J199" s="2"/>
@@ -12023,39 +12035,39 @@
     </row>
     <row r="200" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="4"/>
-      <c r="B200" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C200" s="13" t="s">
-        <v>550</v>
-      </c>
-      <c r="D200" s="18"/>
-      <c r="E200" s="13" t="s">
-        <v>551</v>
-      </c>
-      <c r="F200" s="14" t="s">
-        <v>552</v>
-      </c>
-      <c r="G200" s="8"/>
+      <c r="B200" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C200" s="10" t="s">
+        <v>547</v>
+      </c>
+      <c r="D200" s="17"/>
+      <c r="E200" s="10" t="s">
+        <v>548</v>
+      </c>
+      <c r="F200" s="10" t="s">
+        <v>549</v>
+      </c>
+      <c r="G200" s="16"/>
       <c r="H200" s="2"/>
       <c r="I200" s="2"/>
       <c r="J200" s="2"/>
       <c r="K200" s="2"/>
-      <c r="L200" s="19"/>
+      <c r="L200" s="2"/>
       <c r="M200" s="2"/>
-      <c r="N200" s="19"/>
+      <c r="N200" s="2"/>
       <c r="O200" s="2"/>
-      <c r="P200" s="19"/>
+      <c r="P200" s="2"/>
       <c r="Q200" s="2"/>
       <c r="R200" s="2"/>
       <c r="S200" s="2"/>
       <c r="T200" s="2"/>
       <c r="U200" s="2"/>
-      <c r="V200" s="19"/>
+      <c r="V200" s="2"/>
       <c r="W200" s="2"/>
-      <c r="X200" s="19"/>
+      <c r="X200" s="2"/>
       <c r="Y200" s="2"/>
-      <c r="Z200" s="19"/>
+      <c r="Z200" s="2"/>
       <c r="AA200" s="2"/>
       <c r="AB200" s="2"/>
       <c r="AC200" s="2"/>
@@ -12067,39 +12079,39 @@
     </row>
     <row r="201" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="4"/>
-      <c r="B201" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C201" s="10" t="s">
-        <v>553</v>
-      </c>
-      <c r="D201" s="17"/>
-      <c r="E201" s="10" t="s">
-        <v>554</v>
-      </c>
-      <c r="F201" s="10" t="s">
-        <v>410</v>
-      </c>
-      <c r="G201" s="16"/>
+      <c r="B201" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C201" s="13" t="s">
+        <v>550</v>
+      </c>
+      <c r="D201" s="18"/>
+      <c r="E201" s="13" t="s">
+        <v>551</v>
+      </c>
+      <c r="F201" s="14" t="s">
+        <v>552</v>
+      </c>
+      <c r="G201" s="8"/>
       <c r="H201" s="2"/>
       <c r="I201" s="2"/>
       <c r="J201" s="2"/>
       <c r="K201" s="2"/>
-      <c r="L201" s="2"/>
+      <c r="L201" s="19"/>
       <c r="M201" s="2"/>
-      <c r="N201" s="2"/>
+      <c r="N201" s="19"/>
       <c r="O201" s="2"/>
-      <c r="P201" s="2"/>
+      <c r="P201" s="19"/>
       <c r="Q201" s="2"/>
       <c r="R201" s="2"/>
       <c r="S201" s="2"/>
       <c r="T201" s="2"/>
       <c r="U201" s="2"/>
-      <c r="V201" s="2"/>
+      <c r="V201" s="19"/>
       <c r="W201" s="2"/>
-      <c r="X201" s="2"/>
+      <c r="X201" s="19"/>
       <c r="Y201" s="2"/>
-      <c r="Z201" s="2"/>
+      <c r="Z201" s="19"/>
       <c r="AA201" s="2"/>
       <c r="AB201" s="2"/>
       <c r="AC201" s="2"/>
@@ -12111,41 +12123,41 @@
     </row>
     <row r="202" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="4"/>
-      <c r="B202" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="C202" s="13" t="s">
-        <v>555</v>
-      </c>
-      <c r="D202" s="18"/>
-      <c r="E202" s="13" t="s">
-        <v>556</v>
-      </c>
-      <c r="F202" s="14" t="s">
-        <v>557</v>
-      </c>
-      <c r="G202" s="8"/>
-      <c r="H202" s="19"/>
+      <c r="B202" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C202" s="10" t="s">
+        <v>553</v>
+      </c>
+      <c r="D202" s="17"/>
+      <c r="E202" s="10" t="s">
+        <v>554</v>
+      </c>
+      <c r="F202" s="10" t="s">
+        <v>410</v>
+      </c>
+      <c r="G202" s="16"/>
+      <c r="H202" s="2"/>
       <c r="I202" s="2"/>
-      <c r="J202" s="19"/>
+      <c r="J202" s="2"/>
       <c r="K202" s="2"/>
-      <c r="L202" s="19"/>
+      <c r="L202" s="2"/>
       <c r="M202" s="2"/>
-      <c r="N202" s="19"/>
+      <c r="N202" s="2"/>
       <c r="O202" s="2"/>
-      <c r="P202" s="19"/>
+      <c r="P202" s="2"/>
       <c r="Q202" s="2"/>
-      <c r="R202" s="19"/>
+      <c r="R202" s="2"/>
       <c r="S202" s="2"/>
-      <c r="T202" s="19"/>
+      <c r="T202" s="2"/>
       <c r="U202" s="2"/>
-      <c r="V202" s="19"/>
+      <c r="V202" s="2"/>
       <c r="W202" s="2"/>
-      <c r="X202" s="19"/>
+      <c r="X202" s="2"/>
       <c r="Y202" s="2"/>
-      <c r="Z202" s="19"/>
+      <c r="Z202" s="2"/>
       <c r="AA202" s="2"/>
-      <c r="AB202" s="19"/>
+      <c r="AB202" s="2"/>
       <c r="AC202" s="2"/>
       <c r="AD202" s="2"/>
       <c r="AE202" s="2"/>
@@ -12155,41 +12167,41 @@
     </row>
     <row r="203" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="4"/>
-      <c r="B203" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C203" s="10" t="s">
-        <v>558</v>
-      </c>
-      <c r="D203" s="17"/>
-      <c r="E203" s="10" t="s">
-        <v>559</v>
-      </c>
-      <c r="F203" s="10" t="s">
-        <v>560</v>
-      </c>
-      <c r="G203" s="16"/>
-      <c r="H203" s="2"/>
+      <c r="B203" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="C203" s="13" t="s">
+        <v>555</v>
+      </c>
+      <c r="D203" s="18"/>
+      <c r="E203" s="13" t="s">
+        <v>556</v>
+      </c>
+      <c r="F203" s="14" t="s">
+        <v>557</v>
+      </c>
+      <c r="G203" s="8"/>
+      <c r="H203" s="19"/>
       <c r="I203" s="2"/>
-      <c r="J203" s="2"/>
+      <c r="J203" s="19"/>
       <c r="K203" s="2"/>
-      <c r="L203" s="2"/>
+      <c r="L203" s="19"/>
       <c r="M203" s="2"/>
-      <c r="N203" s="2"/>
+      <c r="N203" s="19"/>
       <c r="O203" s="2"/>
-      <c r="P203" s="2"/>
+      <c r="P203" s="19"/>
       <c r="Q203" s="2"/>
-      <c r="R203" s="2"/>
+      <c r="R203" s="19"/>
       <c r="S203" s="2"/>
-      <c r="T203" s="2"/>
+      <c r="T203" s="19"/>
       <c r="U203" s="2"/>
-      <c r="V203" s="2"/>
+      <c r="V203" s="19"/>
       <c r="W203" s="2"/>
-      <c r="X203" s="2"/>
+      <c r="X203" s="19"/>
       <c r="Y203" s="2"/>
-      <c r="Z203" s="2"/>
+      <c r="Z203" s="19"/>
       <c r="AA203" s="2"/>
-      <c r="AB203" s="2"/>
+      <c r="AB203" s="19"/>
       <c r="AC203" s="2"/>
       <c r="AD203" s="2"/>
       <c r="AE203" s="2"/>
@@ -12198,13 +12210,21 @@
       <c r="AH203" s="2"/>
     </row>
     <row r="204" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A204" s="2"/>
-      <c r="B204" s="20"/>
-      <c r="C204" s="20"/>
-      <c r="D204" s="20"/>
-      <c r="E204" s="20"/>
-      <c r="F204" s="20"/>
-      <c r="G204" s="2"/>
+      <c r="A204" s="4"/>
+      <c r="B204" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="C204" s="10" t="s">
+        <v>558</v>
+      </c>
+      <c r="D204" s="17"/>
+      <c r="E204" s="10" t="s">
+        <v>559</v>
+      </c>
+      <c r="F204" s="10" t="s">
+        <v>560</v>
+      </c>
+      <c r="G204" s="16"/>
       <c r="H204" s="2"/>
       <c r="I204" s="2"/>
       <c r="J204" s="2"/>
@@ -12235,11 +12255,11 @@
     </row>
     <row r="205" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2"/>
-      <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-      <c r="D205" s="2"/>
-      <c r="E205" s="2"/>
-      <c r="F205" s="2"/>
+      <c r="B205" s="20"/>
+      <c r="C205" s="20"/>
+      <c r="D205" s="20"/>
+      <c r="E205" s="20"/>
+      <c r="F205" s="20"/>
       <c r="G205" s="2"/>
       <c r="H205" s="2"/>
       <c r="I205" s="2"/>
@@ -13103,35 +13123,35 @@
       <c r="C229" s="2"/>
       <c r="D229" s="2"/>
       <c r="E229" s="2"/>
-      <c r="F229" s="19"/>
+      <c r="F229" s="2"/>
       <c r="G229" s="2"/>
-      <c r="H229" s="19"/>
+      <c r="H229" s="2"/>
       <c r="I229" s="2"/>
-      <c r="J229" s="19"/>
+      <c r="J229" s="2"/>
       <c r="K229" s="2"/>
-      <c r="L229" s="19"/>
+      <c r="L229" s="2"/>
       <c r="M229" s="2"/>
-      <c r="N229" s="19"/>
+      <c r="N229" s="2"/>
       <c r="O229" s="2"/>
-      <c r="P229" s="19"/>
+      <c r="P229" s="2"/>
       <c r="Q229" s="2"/>
-      <c r="R229" s="19"/>
+      <c r="R229" s="2"/>
       <c r="S229" s="2"/>
-      <c r="T229" s="19"/>
+      <c r="T229" s="2"/>
       <c r="U229" s="2"/>
       <c r="V229" s="2"/>
       <c r="W229" s="2"/>
-      <c r="X229" s="19"/>
+      <c r="X229" s="2"/>
       <c r="Y229" s="2"/>
-      <c r="Z229" s="19"/>
+      <c r="Z229" s="2"/>
       <c r="AA229" s="2"/>
-      <c r="AB229" s="19"/>
+      <c r="AB229" s="2"/>
       <c r="AC229" s="2"/>
-      <c r="AD229" s="19"/>
+      <c r="AD229" s="2"/>
       <c r="AE229" s="2"/>
-      <c r="AF229" s="19"/>
+      <c r="AF229" s="2"/>
       <c r="AG229" s="2"/>
-      <c r="AH229" s="19"/>
+      <c r="AH229" s="2"/>
     </row>
     <row r="230" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2"/>
@@ -13139,35 +13159,35 @@
       <c r="C230" s="2"/>
       <c r="D230" s="2"/>
       <c r="E230" s="2"/>
-      <c r="F230" s="2"/>
+      <c r="F230" s="19"/>
       <c r="G230" s="2"/>
-      <c r="H230" s="2"/>
+      <c r="H230" s="19"/>
       <c r="I230" s="2"/>
-      <c r="J230" s="2"/>
+      <c r="J230" s="19"/>
       <c r="K230" s="2"/>
-      <c r="L230" s="2"/>
+      <c r="L230" s="19"/>
       <c r="M230" s="2"/>
-      <c r="N230" s="2"/>
+      <c r="N230" s="19"/>
       <c r="O230" s="2"/>
-      <c r="P230" s="2"/>
+      <c r="P230" s="19"/>
       <c r="Q230" s="2"/>
-      <c r="R230" s="2"/>
+      <c r="R230" s="19"/>
       <c r="S230" s="2"/>
-      <c r="T230" s="2"/>
+      <c r="T230" s="19"/>
       <c r="U230" s="2"/>
       <c r="V230" s="2"/>
       <c r="W230" s="2"/>
-      <c r="X230" s="2"/>
+      <c r="X230" s="19"/>
       <c r="Y230" s="2"/>
-      <c r="Z230" s="2"/>
+      <c r="Z230" s="19"/>
       <c r="AA230" s="2"/>
-      <c r="AB230" s="2"/>
+      <c r="AB230" s="19"/>
       <c r="AC230" s="2"/>
-      <c r="AD230" s="2"/>
+      <c r="AD230" s="19"/>
       <c r="AE230" s="2"/>
-      <c r="AF230" s="2"/>
+      <c r="AF230" s="19"/>
       <c r="AG230" s="2"/>
-      <c r="AH230" s="2"/>
+      <c r="AH230" s="19"/>
     </row>
     <row r="231" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2"/>
@@ -13175,35 +13195,35 @@
       <c r="C231" s="2"/>
       <c r="D231" s="2"/>
       <c r="E231" s="2"/>
-      <c r="F231" s="19"/>
+      <c r="F231" s="2"/>
       <c r="G231" s="2"/>
-      <c r="H231" s="19"/>
+      <c r="H231" s="2"/>
       <c r="I231" s="2"/>
-      <c r="J231" s="19"/>
+      <c r="J231" s="2"/>
       <c r="K231" s="2"/>
-      <c r="L231" s="19"/>
+      <c r="L231" s="2"/>
       <c r="M231" s="2"/>
-      <c r="N231" s="19"/>
+      <c r="N231" s="2"/>
       <c r="O231" s="2"/>
-      <c r="P231" s="19"/>
+      <c r="P231" s="2"/>
       <c r="Q231" s="2"/>
-      <c r="R231" s="19"/>
+      <c r="R231" s="2"/>
       <c r="S231" s="2"/>
-      <c r="T231" s="19"/>
+      <c r="T231" s="2"/>
       <c r="U231" s="2"/>
-      <c r="V231" s="19"/>
+      <c r="V231" s="2"/>
       <c r="W231" s="2"/>
-      <c r="X231" s="19"/>
+      <c r="X231" s="2"/>
       <c r="Y231" s="2"/>
-      <c r="Z231" s="19"/>
+      <c r="Z231" s="2"/>
       <c r="AA231" s="2"/>
-      <c r="AB231" s="19"/>
+      <c r="AB231" s="2"/>
       <c r="AC231" s="2"/>
-      <c r="AD231" s="19"/>
+      <c r="AD231" s="2"/>
       <c r="AE231" s="2"/>
-      <c r="AF231" s="19"/>
+      <c r="AF231" s="2"/>
       <c r="AG231" s="2"/>
-      <c r="AH231" s="19"/>
+      <c r="AH231" s="2"/>
     </row>
     <row r="232" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2"/>
@@ -13211,35 +13231,35 @@
       <c r="C232" s="2"/>
       <c r="D232" s="2"/>
       <c r="E232" s="2"/>
-      <c r="F232" s="2"/>
+      <c r="F232" s="19"/>
       <c r="G232" s="2"/>
-      <c r="H232" s="2"/>
+      <c r="H232" s="19"/>
       <c r="I232" s="2"/>
-      <c r="J232" s="2"/>
+      <c r="J232" s="19"/>
       <c r="K232" s="2"/>
-      <c r="L232" s="2"/>
+      <c r="L232" s="19"/>
       <c r="M232" s="2"/>
-      <c r="N232" s="2"/>
+      <c r="N232" s="19"/>
       <c r="O232" s="2"/>
-      <c r="P232" s="2"/>
+      <c r="P232" s="19"/>
       <c r="Q232" s="2"/>
-      <c r="R232" s="2"/>
+      <c r="R232" s="19"/>
       <c r="S232" s="2"/>
-      <c r="T232" s="2"/>
+      <c r="T232" s="19"/>
       <c r="U232" s="2"/>
-      <c r="V232" s="2"/>
+      <c r="V232" s="19"/>
       <c r="W232" s="2"/>
-      <c r="X232" s="2"/>
+      <c r="X232" s="19"/>
       <c r="Y232" s="2"/>
-      <c r="Z232" s="2"/>
+      <c r="Z232" s="19"/>
       <c r="AA232" s="2"/>
-      <c r="AB232" s="2"/>
+      <c r="AB232" s="19"/>
       <c r="AC232" s="2"/>
-      <c r="AD232" s="2"/>
+      <c r="AD232" s="19"/>
       <c r="AE232" s="2"/>
-      <c r="AF232" s="2"/>
+      <c r="AF232" s="19"/>
       <c r="AG232" s="2"/>
-      <c r="AH232" s="2"/>
+      <c r="AH232" s="19"/>
     </row>
     <row r="233" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2"/>
@@ -13247,35 +13267,35 @@
       <c r="C233" s="2"/>
       <c r="D233" s="2"/>
       <c r="E233" s="2"/>
-      <c r="F233" s="19"/>
+      <c r="F233" s="2"/>
       <c r="G233" s="2"/>
-      <c r="H233" s="19"/>
+      <c r="H233" s="2"/>
       <c r="I233" s="2"/>
-      <c r="J233" s="19"/>
+      <c r="J233" s="2"/>
       <c r="K233" s="2"/>
-      <c r="L233" s="19"/>
+      <c r="L233" s="2"/>
       <c r="M233" s="2"/>
-      <c r="N233" s="19"/>
+      <c r="N233" s="2"/>
       <c r="O233" s="2"/>
-      <c r="P233" s="19"/>
+      <c r="P233" s="2"/>
       <c r="Q233" s="2"/>
-      <c r="R233" s="19"/>
+      <c r="R233" s="2"/>
       <c r="S233" s="2"/>
-      <c r="T233" s="19"/>
+      <c r="T233" s="2"/>
       <c r="U233" s="2"/>
-      <c r="V233" s="19"/>
+      <c r="V233" s="2"/>
       <c r="W233" s="2"/>
-      <c r="X233" s="19"/>
+      <c r="X233" s="2"/>
       <c r="Y233" s="2"/>
-      <c r="Z233" s="19"/>
+      <c r="Z233" s="2"/>
       <c r="AA233" s="2"/>
-      <c r="AB233" s="19"/>
+      <c r="AB233" s="2"/>
       <c r="AC233" s="2"/>
-      <c r="AD233" s="19"/>
+      <c r="AD233" s="2"/>
       <c r="AE233" s="2"/>
-      <c r="AF233" s="19"/>
+      <c r="AF233" s="2"/>
       <c r="AG233" s="2"/>
-      <c r="AH233" s="19"/>
+      <c r="AH233" s="2"/>
     </row>
     <row r="234" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2"/>
@@ -13283,35 +13303,35 @@
       <c r="C234" s="2"/>
       <c r="D234" s="2"/>
       <c r="E234" s="2"/>
-      <c r="F234" s="2"/>
+      <c r="F234" s="19"/>
       <c r="G234" s="2"/>
-      <c r="H234" s="2"/>
+      <c r="H234" s="19"/>
       <c r="I234" s="2"/>
-      <c r="J234" s="2"/>
+      <c r="J234" s="19"/>
       <c r="K234" s="2"/>
-      <c r="L234" s="2"/>
+      <c r="L234" s="19"/>
       <c r="M234" s="2"/>
-      <c r="N234" s="2"/>
+      <c r="N234" s="19"/>
       <c r="O234" s="2"/>
-      <c r="P234" s="2"/>
+      <c r="P234" s="19"/>
       <c r="Q234" s="2"/>
-      <c r="R234" s="2"/>
+      <c r="R234" s="19"/>
       <c r="S234" s="2"/>
-      <c r="T234" s="2"/>
+      <c r="T234" s="19"/>
       <c r="U234" s="2"/>
-      <c r="V234" s="2"/>
+      <c r="V234" s="19"/>
       <c r="W234" s="2"/>
-      <c r="X234" s="2"/>
+      <c r="X234" s="19"/>
       <c r="Y234" s="2"/>
-      <c r="Z234" s="2"/>
+      <c r="Z234" s="19"/>
       <c r="AA234" s="2"/>
-      <c r="AB234" s="2"/>
+      <c r="AB234" s="19"/>
       <c r="AC234" s="2"/>
-      <c r="AD234" s="2"/>
+      <c r="AD234" s="19"/>
       <c r="AE234" s="2"/>
-      <c r="AF234" s="2"/>
+      <c r="AF234" s="19"/>
       <c r="AG234" s="2"/>
-      <c r="AH234" s="2"/>
+      <c r="AH234" s="19"/>
     </row>
     <row r="235" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2"/>
@@ -13319,17 +13339,17 @@
       <c r="C235" s="2"/>
       <c r="D235" s="2"/>
       <c r="E235" s="2"/>
-      <c r="F235" s="19"/>
+      <c r="F235" s="2"/>
       <c r="G235" s="2"/>
-      <c r="H235" s="19"/>
+      <c r="H235" s="2"/>
       <c r="I235" s="2"/>
-      <c r="J235" s="19"/>
+      <c r="J235" s="2"/>
       <c r="K235" s="2"/>
-      <c r="L235" s="19"/>
+      <c r="L235" s="2"/>
       <c r="M235" s="2"/>
-      <c r="N235" s="19"/>
+      <c r="N235" s="2"/>
       <c r="O235" s="2"/>
-      <c r="P235" s="19"/>
+      <c r="P235" s="2"/>
       <c r="Q235" s="2"/>
       <c r="R235" s="2"/>
       <c r="S235" s="2"/>
@@ -13337,15 +13357,15 @@
       <c r="U235" s="2"/>
       <c r="V235" s="2"/>
       <c r="W235" s="2"/>
-      <c r="X235" s="19"/>
+      <c r="X235" s="2"/>
       <c r="Y235" s="2"/>
       <c r="Z235" s="2"/>
       <c r="AA235" s="2"/>
-      <c r="AB235" s="19"/>
+      <c r="AB235" s="2"/>
       <c r="AC235" s="2"/>
-      <c r="AD235" s="19"/>
+      <c r="AD235" s="2"/>
       <c r="AE235" s="2"/>
-      <c r="AF235" s="19"/>
+      <c r="AF235" s="2"/>
       <c r="AG235" s="2"/>
       <c r="AH235" s="2"/>
     </row>
@@ -13355,17 +13375,17 @@
       <c r="C236" s="2"/>
       <c r="D236" s="2"/>
       <c r="E236" s="2"/>
-      <c r="F236" s="2"/>
+      <c r="F236" s="19"/>
       <c r="G236" s="2"/>
-      <c r="H236" s="2"/>
+      <c r="H236" s="19"/>
       <c r="I236" s="2"/>
-      <c r="J236" s="2"/>
+      <c r="J236" s="19"/>
       <c r="K236" s="2"/>
-      <c r="L236" s="2"/>
+      <c r="L236" s="19"/>
       <c r="M236" s="2"/>
-      <c r="N236" s="2"/>
+      <c r="N236" s="19"/>
       <c r="O236" s="2"/>
-      <c r="P236" s="2"/>
+      <c r="P236" s="19"/>
       <c r="Q236" s="2"/>
       <c r="R236" s="2"/>
       <c r="S236" s="2"/>
@@ -13373,15 +13393,15 @@
       <c r="U236" s="2"/>
       <c r="V236" s="2"/>
       <c r="W236" s="2"/>
-      <c r="X236" s="2"/>
+      <c r="X236" s="19"/>
       <c r="Y236" s="2"/>
       <c r="Z236" s="2"/>
       <c r="AA236" s="2"/>
-      <c r="AB236" s="2"/>
+      <c r="AB236" s="19"/>
       <c r="AC236" s="2"/>
-      <c r="AD236" s="2"/>
+      <c r="AD236" s="19"/>
       <c r="AE236" s="2"/>
-      <c r="AF236" s="2"/>
+      <c r="AF236" s="19"/>
       <c r="AG236" s="2"/>
       <c r="AH236" s="2"/>
     </row>
@@ -13391,35 +13411,35 @@
       <c r="C237" s="2"/>
       <c r="D237" s="2"/>
       <c r="E237" s="2"/>
-      <c r="F237" s="19"/>
+      <c r="F237" s="2"/>
       <c r="G237" s="2"/>
-      <c r="H237" s="19"/>
+      <c r="H237" s="2"/>
       <c r="I237" s="2"/>
-      <c r="J237" s="19"/>
+      <c r="J237" s="2"/>
       <c r="K237" s="2"/>
-      <c r="L237" s="19"/>
+      <c r="L237" s="2"/>
       <c r="M237" s="2"/>
-      <c r="N237" s="19"/>
+      <c r="N237" s="2"/>
       <c r="O237" s="2"/>
-      <c r="P237" s="19"/>
+      <c r="P237" s="2"/>
       <c r="Q237" s="2"/>
-      <c r="R237" s="19"/>
+      <c r="R237" s="2"/>
       <c r="S237" s="2"/>
-      <c r="T237" s="19"/>
+      <c r="T237" s="2"/>
       <c r="U237" s="2"/>
       <c r="V237" s="2"/>
       <c r="W237" s="2"/>
-      <c r="X237" s="19"/>
+      <c r="X237" s="2"/>
       <c r="Y237" s="2"/>
-      <c r="Z237" s="19"/>
+      <c r="Z237" s="2"/>
       <c r="AA237" s="2"/>
-      <c r="AB237" s="19"/>
+      <c r="AB237" s="2"/>
       <c r="AC237" s="2"/>
-      <c r="AD237" s="19"/>
+      <c r="AD237" s="2"/>
       <c r="AE237" s="2"/>
-      <c r="AF237" s="19"/>
+      <c r="AF237" s="2"/>
       <c r="AG237" s="2"/>
-      <c r="AH237" s="19"/>
+      <c r="AH237" s="2"/>
     </row>
     <row r="238" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2"/>
@@ -13427,35 +13447,35 @@
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
       <c r="E238" s="2"/>
-      <c r="F238" s="2"/>
+      <c r="F238" s="19"/>
       <c r="G238" s="2"/>
-      <c r="H238" s="2"/>
+      <c r="H238" s="19"/>
       <c r="I238" s="2"/>
-      <c r="J238" s="2"/>
+      <c r="J238" s="19"/>
       <c r="K238" s="2"/>
-      <c r="L238" s="2"/>
+      <c r="L238" s="19"/>
       <c r="M238" s="2"/>
-      <c r="N238" s="2"/>
+      <c r="N238" s="19"/>
       <c r="O238" s="2"/>
-      <c r="P238" s="2"/>
+      <c r="P238" s="19"/>
       <c r="Q238" s="2"/>
-      <c r="R238" s="2"/>
+      <c r="R238" s="19"/>
       <c r="S238" s="2"/>
-      <c r="T238" s="2"/>
+      <c r="T238" s="19"/>
       <c r="U238" s="2"/>
       <c r="V238" s="2"/>
       <c r="W238" s="2"/>
-      <c r="X238" s="2"/>
+      <c r="X238" s="19"/>
       <c r="Y238" s="2"/>
-      <c r="Z238" s="2"/>
+      <c r="Z238" s="19"/>
       <c r="AA238" s="2"/>
-      <c r="AB238" s="2"/>
+      <c r="AB238" s="19"/>
       <c r="AC238" s="2"/>
-      <c r="AD238" s="2"/>
+      <c r="AD238" s="19"/>
       <c r="AE238" s="2"/>
-      <c r="AF238" s="2"/>
+      <c r="AF238" s="19"/>
       <c r="AG238" s="2"/>
-      <c r="AH238" s="2"/>
+      <c r="AH238" s="19"/>
     </row>
     <row r="239" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2"/>
@@ -13607,33 +13627,33 @@
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
-      <c r="F243" s="19"/>
+      <c r="F243" s="2"/>
       <c r="G243" s="2"/>
-      <c r="H243" s="19"/>
+      <c r="H243" s="2"/>
       <c r="I243" s="2"/>
-      <c r="J243" s="19"/>
+      <c r="J243" s="2"/>
       <c r="K243" s="2"/>
-      <c r="L243" s="19"/>
+      <c r="L243" s="2"/>
       <c r="M243" s="2"/>
-      <c r="N243" s="19"/>
+      <c r="N243" s="2"/>
       <c r="O243" s="2"/>
-      <c r="P243" s="19"/>
+      <c r="P243" s="2"/>
       <c r="Q243" s="2"/>
       <c r="R243" s="2"/>
       <c r="S243" s="2"/>
       <c r="T243" s="2"/>
       <c r="U243" s="2"/>
-      <c r="V243" s="19"/>
+      <c r="V243" s="2"/>
       <c r="W243" s="2"/>
-      <c r="X243" s="19"/>
+      <c r="X243" s="2"/>
       <c r="Y243" s="2"/>
-      <c r="Z243" s="19"/>
+      <c r="Z243" s="2"/>
       <c r="AA243" s="2"/>
-      <c r="AB243" s="19"/>
+      <c r="AB243" s="2"/>
       <c r="AC243" s="2"/>
-      <c r="AD243" s="19"/>
+      <c r="AD243" s="2"/>
       <c r="AE243" s="2"/>
-      <c r="AF243" s="19"/>
+      <c r="AF243" s="2"/>
       <c r="AG243" s="2"/>
       <c r="AH243" s="2"/>
     </row>
@@ -13643,33 +13663,33 @@
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
-      <c r="F244" s="2"/>
+      <c r="F244" s="19"/>
       <c r="G244" s="2"/>
-      <c r="H244" s="2"/>
+      <c r="H244" s="19"/>
       <c r="I244" s="2"/>
-      <c r="J244" s="2"/>
+      <c r="J244" s="19"/>
       <c r="K244" s="2"/>
-      <c r="L244" s="2"/>
+      <c r="L244" s="19"/>
       <c r="M244" s="2"/>
-      <c r="N244" s="2"/>
+      <c r="N244" s="19"/>
       <c r="O244" s="2"/>
-      <c r="P244" s="2"/>
+      <c r="P244" s="19"/>
       <c r="Q244" s="2"/>
       <c r="R244" s="2"/>
       <c r="S244" s="2"/>
       <c r="T244" s="2"/>
       <c r="U244" s="2"/>
-      <c r="V244" s="2"/>
+      <c r="V244" s="19"/>
       <c r="W244" s="2"/>
-      <c r="X244" s="2"/>
+      <c r="X244" s="19"/>
       <c r="Y244" s="2"/>
-      <c r="Z244" s="2"/>
+      <c r="Z244" s="19"/>
       <c r="AA244" s="2"/>
-      <c r="AB244" s="2"/>
+      <c r="AB244" s="19"/>
       <c r="AC244" s="2"/>
-      <c r="AD244" s="2"/>
+      <c r="AD244" s="19"/>
       <c r="AE244" s="2"/>
-      <c r="AF244" s="2"/>
+      <c r="AF244" s="19"/>
       <c r="AG244" s="2"/>
       <c r="AH244" s="2"/>
     </row>
@@ -14687,35 +14707,35 @@
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
-      <c r="F273" s="19"/>
+      <c r="F273" s="2"/>
       <c r="G273" s="2"/>
-      <c r="H273" s="19"/>
+      <c r="H273" s="2"/>
       <c r="I273" s="2"/>
-      <c r="J273" s="19"/>
+      <c r="J273" s="2"/>
       <c r="K273" s="2"/>
-      <c r="L273" s="19"/>
+      <c r="L273" s="2"/>
       <c r="M273" s="2"/>
-      <c r="N273" s="19"/>
+      <c r="N273" s="2"/>
       <c r="O273" s="2"/>
-      <c r="P273" s="19"/>
+      <c r="P273" s="2"/>
       <c r="Q273" s="2"/>
-      <c r="R273" s="19"/>
+      <c r="R273" s="2"/>
       <c r="S273" s="2"/>
-      <c r="T273" s="19"/>
+      <c r="T273" s="2"/>
       <c r="U273" s="2"/>
-      <c r="V273" s="19"/>
+      <c r="V273" s="2"/>
       <c r="W273" s="2"/>
-      <c r="X273" s="19"/>
+      <c r="X273" s="2"/>
       <c r="Y273" s="2"/>
-      <c r="Z273" s="19"/>
+      <c r="Z273" s="2"/>
       <c r="AA273" s="2"/>
-      <c r="AB273" s="19"/>
+      <c r="AB273" s="2"/>
       <c r="AC273" s="2"/>
-      <c r="AD273" s="19"/>
+      <c r="AD273" s="2"/>
       <c r="AE273" s="2"/>
-      <c r="AF273" s="19"/>
+      <c r="AF273" s="2"/>
       <c r="AG273" s="2"/>
-      <c r="AH273" s="19"/>
+      <c r="AH273" s="2"/>
     </row>
     <row r="274" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2"/>
@@ -14759,35 +14779,35 @@
       <c r="C275" s="2"/>
       <c r="D275" s="2"/>
       <c r="E275" s="2"/>
-      <c r="F275" s="2"/>
+      <c r="F275" s="19"/>
       <c r="G275" s="2"/>
-      <c r="H275" s="2"/>
+      <c r="H275" s="19"/>
       <c r="I275" s="2"/>
-      <c r="J275" s="2"/>
+      <c r="J275" s="19"/>
       <c r="K275" s="2"/>
-      <c r="L275" s="2"/>
+      <c r="L275" s="19"/>
       <c r="M275" s="2"/>
-      <c r="N275" s="2"/>
+      <c r="N275" s="19"/>
       <c r="O275" s="2"/>
-      <c r="P275" s="2"/>
+      <c r="P275" s="19"/>
       <c r="Q275" s="2"/>
-      <c r="R275" s="2"/>
+      <c r="R275" s="19"/>
       <c r="S275" s="2"/>
-      <c r="T275" s="2"/>
+      <c r="T275" s="19"/>
       <c r="U275" s="2"/>
-      <c r="V275" s="2"/>
+      <c r="V275" s="19"/>
       <c r="W275" s="2"/>
-      <c r="X275" s="2"/>
+      <c r="X275" s="19"/>
       <c r="Y275" s="2"/>
-      <c r="Z275" s="2"/>
+      <c r="Z275" s="19"/>
       <c r="AA275" s="2"/>
-      <c r="AB275" s="2"/>
+      <c r="AB275" s="19"/>
       <c r="AC275" s="2"/>
-      <c r="AD275" s="2"/>
+      <c r="AD275" s="19"/>
       <c r="AE275" s="2"/>
-      <c r="AF275" s="2"/>
+      <c r="AF275" s="19"/>
       <c r="AG275" s="2"/>
-      <c r="AH275" s="2"/>
+      <c r="AH275" s="19"/>
     </row>
     <row r="276" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2"/>
@@ -14947,19 +14967,19 @@
       <c r="K280" s="2"/>
       <c r="L280" s="2"/>
       <c r="M280" s="2"/>
-      <c r="N280" s="19"/>
+      <c r="N280" s="2"/>
       <c r="O280" s="2"/>
-      <c r="P280" s="19"/>
+      <c r="P280" s="2"/>
       <c r="Q280" s="2"/>
       <c r="R280" s="2"/>
       <c r="S280" s="2"/>
       <c r="T280" s="2"/>
       <c r="U280" s="2"/>
-      <c r="V280" s="19"/>
+      <c r="V280" s="2"/>
       <c r="W280" s="2"/>
-      <c r="X280" s="19"/>
+      <c r="X280" s="2"/>
       <c r="Y280" s="2"/>
-      <c r="Z280" s="19"/>
+      <c r="Z280" s="2"/>
       <c r="AA280" s="2"/>
       <c r="AB280" s="2"/>
       <c r="AC280" s="2"/>
@@ -15019,19 +15039,19 @@
       <c r="K282" s="2"/>
       <c r="L282" s="2"/>
       <c r="M282" s="2"/>
-      <c r="N282" s="2"/>
+      <c r="N282" s="19"/>
       <c r="O282" s="2"/>
-      <c r="P282" s="2"/>
+      <c r="P282" s="19"/>
       <c r="Q282" s="2"/>
       <c r="R282" s="2"/>
       <c r="S282" s="2"/>
       <c r="T282" s="2"/>
       <c r="U282" s="2"/>
-      <c r="V282" s="2"/>
+      <c r="V282" s="19"/>
       <c r="W282" s="2"/>
-      <c r="X282" s="2"/>
+      <c r="X282" s="19"/>
       <c r="Y282" s="2"/>
-      <c r="Z282" s="2"/>
+      <c r="Z282" s="19"/>
       <c r="AA282" s="2"/>
       <c r="AB282" s="2"/>
       <c r="AC282" s="2"/>
@@ -15091,19 +15111,19 @@
       <c r="K284" s="2"/>
       <c r="L284" s="2"/>
       <c r="M284" s="2"/>
-      <c r="N284" s="19"/>
+      <c r="N284" s="2"/>
       <c r="O284" s="2"/>
-      <c r="P284" s="19"/>
+      <c r="P284" s="2"/>
       <c r="Q284" s="2"/>
       <c r="R284" s="2"/>
       <c r="S284" s="2"/>
       <c r="T284" s="2"/>
       <c r="U284" s="2"/>
-      <c r="V284" s="19"/>
+      <c r="V284" s="2"/>
       <c r="W284" s="2"/>
-      <c r="X284" s="19"/>
+      <c r="X284" s="2"/>
       <c r="Y284" s="2"/>
-      <c r="Z284" s="19"/>
+      <c r="Z284" s="2"/>
       <c r="AA284" s="2"/>
       <c r="AB284" s="2"/>
       <c r="AC284" s="2"/>
@@ -15127,19 +15147,19 @@
       <c r="K285" s="2"/>
       <c r="L285" s="2"/>
       <c r="M285" s="2"/>
-      <c r="N285" s="2"/>
+      <c r="N285" s="19"/>
       <c r="O285" s="2"/>
-      <c r="P285" s="2"/>
+      <c r="P285" s="19"/>
       <c r="Q285" s="2"/>
       <c r="R285" s="2"/>
       <c r="S285" s="2"/>
       <c r="T285" s="2"/>
       <c r="U285" s="2"/>
-      <c r="V285" s="2"/>
+      <c r="V285" s="19"/>
       <c r="W285" s="2"/>
-      <c r="X285" s="2"/>
+      <c r="X285" s="19"/>
       <c r="Y285" s="2"/>
-      <c r="Z285" s="2"/>
+      <c r="Z285" s="19"/>
       <c r="AA285" s="2"/>
       <c r="AB285" s="2"/>
       <c r="AC285" s="2"/>
@@ -15235,19 +15255,19 @@
       <c r="K288" s="2"/>
       <c r="L288" s="2"/>
       <c r="M288" s="2"/>
-      <c r="N288" s="19"/>
+      <c r="N288" s="2"/>
       <c r="O288" s="2"/>
-      <c r="P288" s="19"/>
+      <c r="P288" s="2"/>
       <c r="Q288" s="2"/>
       <c r="R288" s="2"/>
       <c r="S288" s="2"/>
       <c r="T288" s="2"/>
       <c r="U288" s="2"/>
-      <c r="V288" s="19"/>
+      <c r="V288" s="2"/>
       <c r="W288" s="2"/>
-      <c r="X288" s="19"/>
+      <c r="X288" s="2"/>
       <c r="Y288" s="2"/>
-      <c r="Z288" s="19"/>
+      <c r="Z288" s="2"/>
       <c r="AA288" s="2"/>
       <c r="AB288" s="2"/>
       <c r="AC288" s="2"/>
@@ -15271,19 +15291,19 @@
       <c r="K289" s="2"/>
       <c r="L289" s="2"/>
       <c r="M289" s="2"/>
-      <c r="N289" s="2"/>
+      <c r="N289" s="19"/>
       <c r="O289" s="2"/>
-      <c r="P289" s="2"/>
+      <c r="P289" s="19"/>
       <c r="Q289" s="2"/>
       <c r="R289" s="2"/>
       <c r="S289" s="2"/>
       <c r="T289" s="2"/>
       <c r="U289" s="2"/>
-      <c r="V289" s="2"/>
+      <c r="V289" s="19"/>
       <c r="W289" s="2"/>
-      <c r="X289" s="2"/>
+      <c r="X289" s="19"/>
       <c r="Y289" s="2"/>
-      <c r="Z289" s="2"/>
+      <c r="Z289" s="19"/>
       <c r="AA289" s="2"/>
       <c r="AB289" s="2"/>
       <c r="AC289" s="2"/>
@@ -15371,29 +15391,29 @@
       <c r="C292" s="2"/>
       <c r="D292" s="2"/>
       <c r="E292" s="2"/>
-      <c r="F292" s="19"/>
+      <c r="F292" s="2"/>
       <c r="G292" s="2"/>
-      <c r="H292" s="19"/>
+      <c r="H292" s="2"/>
       <c r="I292" s="2"/>
-      <c r="J292" s="19"/>
+      <c r="J292" s="2"/>
       <c r="K292" s="2"/>
-      <c r="L292" s="19"/>
+      <c r="L292" s="2"/>
       <c r="M292" s="2"/>
-      <c r="N292" s="19"/>
+      <c r="N292" s="2"/>
       <c r="O292" s="2"/>
-      <c r="P292" s="19"/>
+      <c r="P292" s="2"/>
       <c r="Q292" s="2"/>
-      <c r="R292" s="19"/>
+      <c r="R292" s="2"/>
       <c r="S292" s="2"/>
-      <c r="T292" s="19"/>
+      <c r="T292" s="2"/>
       <c r="U292" s="2"/>
-      <c r="V292" s="19"/>
+      <c r="V292" s="2"/>
       <c r="W292" s="2"/>
-      <c r="X292" s="19"/>
+      <c r="X292" s="2"/>
       <c r="Y292" s="2"/>
-      <c r="Z292" s="19"/>
+      <c r="Z292" s="2"/>
       <c r="AA292" s="2"/>
-      <c r="AB292" s="19"/>
+      <c r="AB292" s="2"/>
       <c r="AC292" s="2"/>
       <c r="AD292" s="2"/>
       <c r="AE292" s="2"/>
@@ -15407,29 +15427,29 @@
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
       <c r="E293" s="2"/>
-      <c r="F293" s="2"/>
+      <c r="F293" s="19"/>
       <c r="G293" s="2"/>
-      <c r="H293" s="2"/>
+      <c r="H293" s="19"/>
       <c r="I293" s="2"/>
-      <c r="J293" s="2"/>
+      <c r="J293" s="19"/>
       <c r="K293" s="2"/>
-      <c r="L293" s="2"/>
+      <c r="L293" s="19"/>
       <c r="M293" s="2"/>
-      <c r="N293" s="2"/>
+      <c r="N293" s="19"/>
       <c r="O293" s="2"/>
-      <c r="P293" s="2"/>
+      <c r="P293" s="19"/>
       <c r="Q293" s="2"/>
-      <c r="R293" s="2"/>
+      <c r="R293" s="19"/>
       <c r="S293" s="2"/>
-      <c r="T293" s="2"/>
+      <c r="T293" s="19"/>
       <c r="U293" s="2"/>
-      <c r="V293" s="2"/>
+      <c r="V293" s="19"/>
       <c r="W293" s="2"/>
-      <c r="X293" s="2"/>
+      <c r="X293" s="19"/>
       <c r="Y293" s="2"/>
-      <c r="Z293" s="2"/>
+      <c r="Z293" s="19"/>
       <c r="AA293" s="2"/>
-      <c r="AB293" s="2"/>
+      <c r="AB293" s="19"/>
       <c r="AC293" s="2"/>
       <c r="AD293" s="2"/>
       <c r="AE293" s="2"/>
@@ -15521,21 +15541,21 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
       <c r="K296" s="2"/>
-      <c r="L296" s="19"/>
+      <c r="L296" s="2"/>
       <c r="M296" s="2"/>
-      <c r="N296" s="19"/>
+      <c r="N296" s="2"/>
       <c r="O296" s="2"/>
-      <c r="P296" s="19"/>
+      <c r="P296" s="2"/>
       <c r="Q296" s="2"/>
       <c r="R296" s="2"/>
       <c r="S296" s="2"/>
       <c r="T296" s="2"/>
       <c r="U296" s="2"/>
-      <c r="V296" s="19"/>
+      <c r="V296" s="2"/>
       <c r="W296" s="2"/>
-      <c r="X296" s="19"/>
+      <c r="X296" s="2"/>
       <c r="Y296" s="2"/>
-      <c r="Z296" s="19"/>
+      <c r="Z296" s="2"/>
       <c r="AA296" s="2"/>
       <c r="AB296" s="2"/>
       <c r="AC296" s="2"/>
@@ -15557,21 +15577,21 @@
       <c r="I297" s="2"/>
       <c r="J297" s="2"/>
       <c r="K297" s="2"/>
-      <c r="L297" s="2"/>
+      <c r="L297" s="19"/>
       <c r="M297" s="2"/>
-      <c r="N297" s="2"/>
+      <c r="N297" s="19"/>
       <c r="O297" s="2"/>
-      <c r="P297" s="2"/>
+      <c r="P297" s="19"/>
       <c r="Q297" s="2"/>
       <c r="R297" s="2"/>
       <c r="S297" s="2"/>
       <c r="T297" s="2"/>
       <c r="U297" s="2"/>
-      <c r="V297" s="2"/>
+      <c r="V297" s="19"/>
       <c r="W297" s="2"/>
-      <c r="X297" s="2"/>
+      <c r="X297" s="19"/>
       <c r="Y297" s="2"/>
-      <c r="Z297" s="2"/>
+      <c r="Z297" s="19"/>
       <c r="AA297" s="2"/>
       <c r="AB297" s="2"/>
       <c r="AC297" s="2"/>
@@ -15587,29 +15607,29 @@
       <c r="C298" s="2"/>
       <c r="D298" s="2"/>
       <c r="E298" s="2"/>
-      <c r="F298" s="19"/>
+      <c r="F298" s="2"/>
       <c r="G298" s="2"/>
-      <c r="H298" s="19"/>
+      <c r="H298" s="2"/>
       <c r="I298" s="2"/>
-      <c r="J298" s="19"/>
+      <c r="J298" s="2"/>
       <c r="K298" s="2"/>
-      <c r="L298" s="19"/>
+      <c r="L298" s="2"/>
       <c r="M298" s="2"/>
-      <c r="N298" s="19"/>
+      <c r="N298" s="2"/>
       <c r="O298" s="2"/>
-      <c r="P298" s="19"/>
+      <c r="P298" s="2"/>
       <c r="Q298" s="2"/>
-      <c r="R298" s="19"/>
+      <c r="R298" s="2"/>
       <c r="S298" s="2"/>
-      <c r="T298" s="19"/>
+      <c r="T298" s="2"/>
       <c r="U298" s="2"/>
-      <c r="V298" s="19"/>
+      <c r="V298" s="2"/>
       <c r="W298" s="2"/>
-      <c r="X298" s="19"/>
+      <c r="X298" s="2"/>
       <c r="Y298" s="2"/>
-      <c r="Z298" s="19"/>
+      <c r="Z298" s="2"/>
       <c r="AA298" s="2"/>
-      <c r="AB298" s="19"/>
+      <c r="AB298" s="2"/>
       <c r="AC298" s="2"/>
       <c r="AD298" s="2"/>
       <c r="AE298" s="2"/>
@@ -15623,29 +15643,29 @@
       <c r="C299" s="2"/>
       <c r="D299" s="2"/>
       <c r="E299" s="2"/>
-      <c r="F299" s="2"/>
+      <c r="F299" s="19"/>
       <c r="G299" s="2"/>
-      <c r="H299" s="2"/>
+      <c r="H299" s="19"/>
       <c r="I299" s="2"/>
-      <c r="J299" s="2"/>
+      <c r="J299" s="19"/>
       <c r="K299" s="2"/>
-      <c r="L299" s="2"/>
+      <c r="L299" s="19"/>
       <c r="M299" s="2"/>
-      <c r="N299" s="2"/>
+      <c r="N299" s="19"/>
       <c r="O299" s="2"/>
-      <c r="P299" s="2"/>
+      <c r="P299" s="19"/>
       <c r="Q299" s="2"/>
-      <c r="R299" s="2"/>
+      <c r="R299" s="19"/>
       <c r="S299" s="2"/>
-      <c r="T299" s="2"/>
+      <c r="T299" s="19"/>
       <c r="U299" s="2"/>
-      <c r="V299" s="2"/>
+      <c r="V299" s="19"/>
       <c r="W299" s="2"/>
-      <c r="X299" s="2"/>
+      <c r="X299" s="19"/>
       <c r="Y299" s="2"/>
-      <c r="Z299" s="2"/>
+      <c r="Z299" s="19"/>
       <c r="AA299" s="2"/>
-      <c r="AB299" s="2"/>
+      <c r="AB299" s="19"/>
       <c r="AC299" s="2"/>
       <c r="AD299" s="2"/>
       <c r="AE299" s="2"/>
@@ -15659,29 +15679,29 @@
       <c r="C300" s="2"/>
       <c r="D300" s="2"/>
       <c r="E300" s="2"/>
-      <c r="F300" s="19"/>
+      <c r="F300" s="2"/>
       <c r="G300" s="2"/>
-      <c r="H300" s="19"/>
+      <c r="H300" s="2"/>
       <c r="I300" s="2"/>
-      <c r="J300" s="19"/>
+      <c r="J300" s="2"/>
       <c r="K300" s="2"/>
-      <c r="L300" s="19"/>
+      <c r="L300" s="2"/>
       <c r="M300" s="2"/>
-      <c r="N300" s="19"/>
+      <c r="N300" s="2"/>
       <c r="O300" s="2"/>
-      <c r="P300" s="19"/>
+      <c r="P300" s="2"/>
       <c r="Q300" s="2"/>
-      <c r="R300" s="19"/>
+      <c r="R300" s="2"/>
       <c r="S300" s="2"/>
-      <c r="T300" s="19"/>
+      <c r="T300" s="2"/>
       <c r="U300" s="2"/>
-      <c r="V300" s="19"/>
+      <c r="V300" s="2"/>
       <c r="W300" s="2"/>
-      <c r="X300" s="19"/>
+      <c r="X300" s="2"/>
       <c r="Y300" s="2"/>
-      <c r="Z300" s="19"/>
+      <c r="Z300" s="2"/>
       <c r="AA300" s="2"/>
-      <c r="AB300" s="19"/>
+      <c r="AB300" s="2"/>
       <c r="AC300" s="2"/>
       <c r="AD300" s="2"/>
       <c r="AE300" s="2"/>
@@ -15695,29 +15715,29 @@
       <c r="C301" s="2"/>
       <c r="D301" s="2"/>
       <c r="E301" s="2"/>
-      <c r="F301" s="2"/>
+      <c r="F301" s="19"/>
       <c r="G301" s="2"/>
-      <c r="H301" s="2"/>
+      <c r="H301" s="19"/>
       <c r="I301" s="2"/>
-      <c r="J301" s="2"/>
+      <c r="J301" s="19"/>
       <c r="K301" s="2"/>
-      <c r="L301" s="2"/>
+      <c r="L301" s="19"/>
       <c r="M301" s="2"/>
-      <c r="N301" s="2"/>
+      <c r="N301" s="19"/>
       <c r="O301" s="2"/>
-      <c r="P301" s="2"/>
+      <c r="P301" s="19"/>
       <c r="Q301" s="2"/>
-      <c r="R301" s="2"/>
+      <c r="R301" s="19"/>
       <c r="S301" s="2"/>
-      <c r="T301" s="2"/>
+      <c r="T301" s="19"/>
       <c r="U301" s="2"/>
-      <c r="V301" s="2"/>
+      <c r="V301" s="19"/>
       <c r="W301" s="2"/>
-      <c r="X301" s="2"/>
+      <c r="X301" s="19"/>
       <c r="Y301" s="2"/>
-      <c r="Z301" s="2"/>
+      <c r="Z301" s="19"/>
       <c r="AA301" s="2"/>
-      <c r="AB301" s="2"/>
+      <c r="AB301" s="19"/>
       <c r="AC301" s="2"/>
       <c r="AD301" s="2"/>
       <c r="AE301" s="2"/>
@@ -15737,21 +15757,21 @@
       <c r="I302" s="2"/>
       <c r="J302" s="2"/>
       <c r="K302" s="2"/>
-      <c r="L302" s="19"/>
+      <c r="L302" s="2"/>
       <c r="M302" s="2"/>
-      <c r="N302" s="19"/>
+      <c r="N302" s="2"/>
       <c r="O302" s="2"/>
-      <c r="P302" s="19"/>
+      <c r="P302" s="2"/>
       <c r="Q302" s="2"/>
       <c r="R302" s="2"/>
       <c r="S302" s="2"/>
       <c r="T302" s="2"/>
       <c r="U302" s="2"/>
-      <c r="V302" s="19"/>
+      <c r="V302" s="2"/>
       <c r="W302" s="2"/>
-      <c r="X302" s="19"/>
+      <c r="X302" s="2"/>
       <c r="Y302" s="2"/>
-      <c r="Z302" s="19"/>
+      <c r="Z302" s="2"/>
       <c r="AA302" s="2"/>
       <c r="AB302" s="2"/>
       <c r="AC302" s="2"/>
@@ -15773,21 +15793,21 @@
       <c r="I303" s="2"/>
       <c r="J303" s="2"/>
       <c r="K303" s="2"/>
-      <c r="L303" s="2"/>
+      <c r="L303" s="19"/>
       <c r="M303" s="2"/>
-      <c r="N303" s="2"/>
+      <c r="N303" s="19"/>
       <c r="O303" s="2"/>
-      <c r="P303" s="2"/>
+      <c r="P303" s="19"/>
       <c r="Q303" s="2"/>
       <c r="R303" s="2"/>
       <c r="S303" s="2"/>
       <c r="T303" s="2"/>
       <c r="U303" s="2"/>
-      <c r="V303" s="2"/>
+      <c r="V303" s="19"/>
       <c r="W303" s="2"/>
-      <c r="X303" s="2"/>
+      <c r="X303" s="19"/>
       <c r="Y303" s="2"/>
-      <c r="Z303" s="2"/>
+      <c r="Z303" s="19"/>
       <c r="AA303" s="2"/>
       <c r="AB303" s="2"/>
       <c r="AC303" s="2"/>
@@ -15803,29 +15823,29 @@
       <c r="C304" s="2"/>
       <c r="D304" s="2"/>
       <c r="E304" s="2"/>
-      <c r="F304" s="19"/>
+      <c r="F304" s="2"/>
       <c r="G304" s="2"/>
-      <c r="H304" s="19"/>
+      <c r="H304" s="2"/>
       <c r="I304" s="2"/>
       <c r="J304" s="2"/>
       <c r="K304" s="2"/>
-      <c r="L304" s="19"/>
+      <c r="L304" s="2"/>
       <c r="M304" s="2"/>
-      <c r="N304" s="19"/>
+      <c r="N304" s="2"/>
       <c r="O304" s="2"/>
-      <c r="P304" s="19"/>
+      <c r="P304" s="2"/>
       <c r="Q304" s="2"/>
       <c r="R304" s="2"/>
       <c r="S304" s="2"/>
       <c r="T304" s="2"/>
       <c r="U304" s="2"/>
-      <c r="V304" s="19"/>
+      <c r="V304" s="2"/>
       <c r="W304" s="2"/>
       <c r="X304" s="2"/>
       <c r="Y304" s="2"/>
-      <c r="Z304" s="19"/>
+      <c r="Z304" s="2"/>
       <c r="AA304" s="2"/>
-      <c r="AB304" s="19"/>
+      <c r="AB304" s="2"/>
       <c r="AC304" s="2"/>
       <c r="AD304" s="2"/>
       <c r="AE304" s="2"/>
@@ -15839,29 +15859,29 @@
       <c r="C305" s="2"/>
       <c r="D305" s="2"/>
       <c r="E305" s="2"/>
-      <c r="F305" s="2"/>
+      <c r="F305" s="19"/>
       <c r="G305" s="2"/>
-      <c r="H305" s="2"/>
+      <c r="H305" s="19"/>
       <c r="I305" s="2"/>
       <c r="J305" s="2"/>
       <c r="K305" s="2"/>
-      <c r="L305" s="2"/>
+      <c r="L305" s="19"/>
       <c r="M305" s="2"/>
-      <c r="N305" s="2"/>
+      <c r="N305" s="19"/>
       <c r="O305" s="2"/>
-      <c r="P305" s="2"/>
+      <c r="P305" s="19"/>
       <c r="Q305" s="2"/>
       <c r="R305" s="2"/>
       <c r="S305" s="2"/>
       <c r="T305" s="2"/>
       <c r="U305" s="2"/>
-      <c r="V305" s="2"/>
+      <c r="V305" s="19"/>
       <c r="W305" s="2"/>
       <c r="X305" s="2"/>
       <c r="Y305" s="2"/>
-      <c r="Z305" s="2"/>
+      <c r="Z305" s="19"/>
       <c r="AA305" s="2"/>
-      <c r="AB305" s="2"/>
+      <c r="AB305" s="19"/>
       <c r="AC305" s="2"/>
       <c r="AD305" s="2"/>
       <c r="AE305" s="2"/>
@@ -15947,29 +15967,29 @@
       <c r="C308" s="2"/>
       <c r="D308" s="2"/>
       <c r="E308" s="2"/>
-      <c r="F308" s="19"/>
+      <c r="F308" s="2"/>
       <c r="G308" s="2"/>
-      <c r="H308" s="19"/>
+      <c r="H308" s="2"/>
       <c r="I308" s="2"/>
       <c r="J308" s="2"/>
       <c r="K308" s="2"/>
-      <c r="L308" s="19"/>
+      <c r="L308" s="2"/>
       <c r="M308" s="2"/>
-      <c r="N308" s="19"/>
+      <c r="N308" s="2"/>
       <c r="O308" s="2"/>
-      <c r="P308" s="19"/>
+      <c r="P308" s="2"/>
       <c r="Q308" s="2"/>
       <c r="R308" s="2"/>
       <c r="S308" s="2"/>
       <c r="T308" s="2"/>
       <c r="U308" s="2"/>
-      <c r="V308" s="19"/>
+      <c r="V308" s="2"/>
       <c r="W308" s="2"/>
-      <c r="X308" s="19"/>
+      <c r="X308" s="2"/>
       <c r="Y308" s="2"/>
-      <c r="Z308" s="19"/>
+      <c r="Z308" s="2"/>
       <c r="AA308" s="2"/>
-      <c r="AB308" s="19"/>
+      <c r="AB308" s="2"/>
       <c r="AC308" s="2"/>
       <c r="AD308" s="2"/>
       <c r="AE308" s="2"/>
@@ -15983,29 +16003,29 @@
       <c r="C309" s="2"/>
       <c r="D309" s="2"/>
       <c r="E309" s="2"/>
-      <c r="F309" s="2"/>
+      <c r="F309" s="19"/>
       <c r="G309" s="2"/>
-      <c r="H309" s="2"/>
+      <c r="H309" s="19"/>
       <c r="I309" s="2"/>
       <c r="J309" s="2"/>
       <c r="K309" s="2"/>
-      <c r="L309" s="2"/>
+      <c r="L309" s="19"/>
       <c r="M309" s="2"/>
-      <c r="N309" s="2"/>
+      <c r="N309" s="19"/>
       <c r="O309" s="2"/>
-      <c r="P309" s="2"/>
+      <c r="P309" s="19"/>
       <c r="Q309" s="2"/>
       <c r="R309" s="2"/>
       <c r="S309" s="2"/>
       <c r="T309" s="2"/>
       <c r="U309" s="2"/>
-      <c r="V309" s="2"/>
+      <c r="V309" s="19"/>
       <c r="W309" s="2"/>
-      <c r="X309" s="2"/>
+      <c r="X309" s="19"/>
       <c r="Y309" s="2"/>
-      <c r="Z309" s="2"/>
+      <c r="Z309" s="19"/>
       <c r="AA309" s="2"/>
-      <c r="AB309" s="2"/>
+      <c r="AB309" s="19"/>
       <c r="AC309" s="2"/>
       <c r="AD309" s="2"/>
       <c r="AE309" s="2"/>
@@ -16029,7 +16049,7 @@
       <c r="M310" s="2"/>
       <c r="N310" s="2"/>
       <c r="O310" s="2"/>
-      <c r="P310" s="19"/>
+      <c r="P310" s="2"/>
       <c r="Q310" s="2"/>
       <c r="R310" s="2"/>
       <c r="S310" s="2"/>
@@ -16065,7 +16085,7 @@
       <c r="M311" s="2"/>
       <c r="N311" s="2"/>
       <c r="O311" s="2"/>
-      <c r="P311" s="2"/>
+      <c r="P311" s="19"/>
       <c r="Q311" s="2"/>
       <c r="R311" s="2"/>
       <c r="S311" s="2"/>
@@ -16091,29 +16111,29 @@
       <c r="C312" s="2"/>
       <c r="D312" s="2"/>
       <c r="E312" s="2"/>
-      <c r="F312" s="19"/>
+      <c r="F312" s="2"/>
       <c r="G312" s="2"/>
-      <c r="H312" s="19"/>
+      <c r="H312" s="2"/>
       <c r="I312" s="2"/>
-      <c r="J312" s="19"/>
+      <c r="J312" s="2"/>
       <c r="K312" s="2"/>
-      <c r="L312" s="19"/>
+      <c r="L312" s="2"/>
       <c r="M312" s="2"/>
-      <c r="N312" s="19"/>
+      <c r="N312" s="2"/>
       <c r="O312" s="2"/>
-      <c r="P312" s="19"/>
+      <c r="P312" s="2"/>
       <c r="Q312" s="2"/>
-      <c r="R312" s="19"/>
+      <c r="R312" s="2"/>
       <c r="S312" s="2"/>
       <c r="T312" s="2"/>
       <c r="U312" s="2"/>
-      <c r="V312" s="19"/>
+      <c r="V312" s="2"/>
       <c r="W312" s="2"/>
-      <c r="X312" s="19"/>
+      <c r="X312" s="2"/>
       <c r="Y312" s="2"/>
-      <c r="Z312" s="19"/>
+      <c r="Z312" s="2"/>
       <c r="AA312" s="2"/>
-      <c r="AB312" s="19"/>
+      <c r="AB312" s="2"/>
       <c r="AC312" s="2"/>
       <c r="AD312" s="2"/>
       <c r="AE312" s="2"/>
@@ -16127,29 +16147,29 @@
       <c r="C313" s="2"/>
       <c r="D313" s="2"/>
       <c r="E313" s="2"/>
-      <c r="F313" s="2"/>
+      <c r="F313" s="19"/>
       <c r="G313" s="2"/>
-      <c r="H313" s="2"/>
+      <c r="H313" s="19"/>
       <c r="I313" s="2"/>
-      <c r="J313" s="2"/>
+      <c r="J313" s="19"/>
       <c r="K313" s="2"/>
-      <c r="L313" s="2"/>
+      <c r="L313" s="19"/>
       <c r="M313" s="2"/>
-      <c r="N313" s="2"/>
+      <c r="N313" s="19"/>
       <c r="O313" s="2"/>
-      <c r="P313" s="2"/>
+      <c r="P313" s="19"/>
       <c r="Q313" s="2"/>
-      <c r="R313" s="2"/>
+      <c r="R313" s="19"/>
       <c r="S313" s="2"/>
       <c r="T313" s="2"/>
       <c r="U313" s="2"/>
-      <c r="V313" s="2"/>
+      <c r="V313" s="19"/>
       <c r="W313" s="2"/>
-      <c r="X313" s="2"/>
+      <c r="X313" s="19"/>
       <c r="Y313" s="2"/>
-      <c r="Z313" s="2"/>
+      <c r="Z313" s="19"/>
       <c r="AA313" s="2"/>
-      <c r="AB313" s="2"/>
+      <c r="AB313" s="19"/>
       <c r="AC313" s="2"/>
       <c r="AD313" s="2"/>
       <c r="AE313" s="2"/>
@@ -16385,11 +16405,11 @@
       <c r="I320" s="2"/>
       <c r="J320" s="2"/>
       <c r="K320" s="2"/>
-      <c r="L320" s="19"/>
+      <c r="L320" s="2"/>
       <c r="M320" s="2"/>
-      <c r="N320" s="19"/>
+      <c r="N320" s="2"/>
       <c r="O320" s="2"/>
-      <c r="P320" s="19"/>
+      <c r="P320" s="2"/>
       <c r="Q320" s="2"/>
       <c r="R320" s="2"/>
       <c r="S320" s="2"/>
@@ -16407,7 +16427,7 @@
       <c r="AE320" s="2"/>
       <c r="AF320" s="2"/>
       <c r="AG320" s="2"/>
-      <c r="AH320" s="19"/>
+      <c r="AH320" s="2"/>
     </row>
     <row r="321" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2"/>
@@ -16421,11 +16441,11 @@
       <c r="I321" s="2"/>
       <c r="J321" s="2"/>
       <c r="K321" s="2"/>
-      <c r="L321" s="2"/>
+      <c r="L321" s="19"/>
       <c r="M321" s="2"/>
-      <c r="N321" s="2"/>
+      <c r="N321" s="19"/>
       <c r="O321" s="2"/>
-      <c r="P321" s="2"/>
+      <c r="P321" s="19"/>
       <c r="Q321" s="2"/>
       <c r="R321" s="2"/>
       <c r="S321" s="2"/>
@@ -16443,7 +16463,7 @@
       <c r="AE321" s="2"/>
       <c r="AF321" s="2"/>
       <c r="AG321" s="2"/>
-      <c r="AH321" s="2"/>
+      <c r="AH321" s="19"/>
     </row>
     <row r="322" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2"/>
@@ -16493,11 +16513,11 @@
       <c r="I323" s="2"/>
       <c r="J323" s="2"/>
       <c r="K323" s="2"/>
-      <c r="L323" s="19"/>
+      <c r="L323" s="2"/>
       <c r="M323" s="2"/>
-      <c r="N323" s="19"/>
+      <c r="N323" s="2"/>
       <c r="O323" s="2"/>
-      <c r="P323" s="19"/>
+      <c r="P323" s="2"/>
       <c r="Q323" s="2"/>
       <c r="R323" s="2"/>
       <c r="S323" s="2"/>
@@ -16515,7 +16535,7 @@
       <c r="AE323" s="2"/>
       <c r="AF323" s="2"/>
       <c r="AG323" s="2"/>
-      <c r="AH323" s="19"/>
+      <c r="AH323" s="2"/>
     </row>
     <row r="324" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2"/>
@@ -16565,11 +16585,11 @@
       <c r="I325" s="2"/>
       <c r="J325" s="2"/>
       <c r="K325" s="2"/>
-      <c r="L325" s="2"/>
+      <c r="L325" s="19"/>
       <c r="M325" s="2"/>
-      <c r="N325" s="2"/>
+      <c r="N325" s="19"/>
       <c r="O325" s="2"/>
-      <c r="P325" s="2"/>
+      <c r="P325" s="19"/>
       <c r="Q325" s="2"/>
       <c r="R325" s="2"/>
       <c r="S325" s="2"/>
@@ -16587,7 +16607,7 @@
       <c r="AE325" s="2"/>
       <c r="AF325" s="2"/>
       <c r="AG325" s="2"/>
-      <c r="AH325" s="2"/>
+      <c r="AH325" s="19"/>
     </row>
     <row r="326" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2"/>
@@ -16601,11 +16621,11 @@
       <c r="I326" s="2"/>
       <c r="J326" s="2"/>
       <c r="K326" s="2"/>
-      <c r="L326" s="19"/>
+      <c r="L326" s="2"/>
       <c r="M326" s="2"/>
-      <c r="N326" s="19"/>
+      <c r="N326" s="2"/>
       <c r="O326" s="2"/>
-      <c r="P326" s="19"/>
+      <c r="P326" s="2"/>
       <c r="Q326" s="2"/>
       <c r="R326" s="2"/>
       <c r="S326" s="2"/>
@@ -16623,7 +16643,7 @@
       <c r="AE326" s="2"/>
       <c r="AF326" s="2"/>
       <c r="AG326" s="2"/>
-      <c r="AH326" s="19"/>
+      <c r="AH326" s="2"/>
     </row>
     <row r="327" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2"/>
@@ -16637,11 +16657,11 @@
       <c r="I327" s="2"/>
       <c r="J327" s="2"/>
       <c r="K327" s="2"/>
-      <c r="L327" s="2"/>
+      <c r="L327" s="19"/>
       <c r="M327" s="2"/>
-      <c r="N327" s="2"/>
+      <c r="N327" s="19"/>
       <c r="O327" s="2"/>
-      <c r="P327" s="2"/>
+      <c r="P327" s="19"/>
       <c r="Q327" s="2"/>
       <c r="R327" s="2"/>
       <c r="S327" s="2"/>
@@ -16659,7 +16679,7 @@
       <c r="AE327" s="2"/>
       <c r="AF327" s="2"/>
       <c r="AG327" s="2"/>
-      <c r="AH327" s="2"/>
+      <c r="AH327" s="19"/>
     </row>
     <row r="328" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2"/>
@@ -16775,29 +16795,29 @@
       <c r="C331" s="2"/>
       <c r="D331" s="2"/>
       <c r="E331" s="2"/>
-      <c r="F331" s="19"/>
+      <c r="F331" s="2"/>
       <c r="G331" s="2"/>
-      <c r="H331" s="19"/>
+      <c r="H331" s="2"/>
       <c r="I331" s="2"/>
-      <c r="J331" s="19"/>
+      <c r="J331" s="2"/>
       <c r="K331" s="2"/>
-      <c r="L331" s="19"/>
+      <c r="L331" s="2"/>
       <c r="M331" s="2"/>
-      <c r="N331" s="19"/>
+      <c r="N331" s="2"/>
       <c r="O331" s="2"/>
-      <c r="P331" s="19"/>
+      <c r="P331" s="2"/>
       <c r="Q331" s="2"/>
-      <c r="R331" s="19"/>
+      <c r="R331" s="2"/>
       <c r="S331" s="2"/>
-      <c r="T331" s="19"/>
+      <c r="T331" s="2"/>
       <c r="U331" s="2"/>
-      <c r="V331" s="19"/>
+      <c r="V331" s="2"/>
       <c r="W331" s="2"/>
-      <c r="X331" s="19"/>
+      <c r="X331" s="2"/>
       <c r="Y331" s="2"/>
-      <c r="Z331" s="19"/>
+      <c r="Z331" s="2"/>
       <c r="AA331" s="2"/>
-      <c r="AB331" s="19"/>
+      <c r="AB331" s="2"/>
       <c r="AC331" s="2"/>
       <c r="AD331" s="2"/>
       <c r="AE331" s="2"/>
@@ -16841,6 +16861,42 @@
       <c r="AG332" s="2"/>
       <c r="AH332" s="2"/>
     </row>
+    <row r="333" spans="1:34" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="2"/>
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+      <c r="D333" s="2"/>
+      <c r="E333" s="2"/>
+      <c r="F333" s="19"/>
+      <c r="G333" s="2"/>
+      <c r="H333" s="19"/>
+      <c r="I333" s="2"/>
+      <c r="J333" s="19"/>
+      <c r="K333" s="2"/>
+      <c r="L333" s="19"/>
+      <c r="M333" s="2"/>
+      <c r="N333" s="19"/>
+      <c r="O333" s="2"/>
+      <c r="P333" s="19"/>
+      <c r="Q333" s="2"/>
+      <c r="R333" s="19"/>
+      <c r="S333" s="2"/>
+      <c r="T333" s="19"/>
+      <c r="U333" s="2"/>
+      <c r="V333" s="19"/>
+      <c r="W333" s="2"/>
+      <c r="X333" s="19"/>
+      <c r="Y333" s="2"/>
+      <c r="Z333" s="19"/>
+      <c r="AA333" s="2"/>
+      <c r="AB333" s="19"/>
+      <c r="AC333" s="2"/>
+      <c r="AD333" s="2"/>
+      <c r="AE333" s="2"/>
+      <c r="AF333" s="2"/>
+      <c r="AG333" s="2"/>
+      <c r="AH333" s="2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
